--- a/xl/conv-example.xlsx
+++ b/xl/conv-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\git\course22\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C21098-7A7C-41AC-8647-873E39B6E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9051A04-F06C-4788-B0BB-695A06C35802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1903,103 +1903,103 @@
       <c r="CT4" s="5"/>
       <c r="CU4">
         <f ca="1">RAND()</f>
-        <v>0.75748213688734167</v>
+        <v>0.80877562394442104</v>
       </c>
       <c r="CV4">
         <f t="shared" ref="CV4:DS14" ca="1" si="0">RAND()</f>
-        <v>0.5897535520728503</v>
+        <v>0.90942816996442633</v>
       </c>
       <c r="CW4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54939325207106027</v>
+        <v>0.59390520252390477</v>
       </c>
       <c r="CX4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61579171828911516</v>
+        <v>0.95944758939403318</v>
       </c>
       <c r="CY4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2029747897261251E-2</v>
+        <v>0.58015828175434159</v>
       </c>
       <c r="CZ4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60401183728770313</v>
+        <v>0.68758640814451355</v>
       </c>
       <c r="DA4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39816353129135951</v>
+        <v>0.14044751102511677</v>
       </c>
       <c r="DB4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48991886686912689</v>
+        <v>0.42164283237188349</v>
       </c>
       <c r="DC4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19114564581743554</v>
+        <v>0.84150048815728684</v>
       </c>
       <c r="DD4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77716533158335255</v>
+        <v>0.63873745965539996</v>
       </c>
       <c r="DE4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6160168256386086</v>
+        <v>0.37219918521545881</v>
       </c>
       <c r="DF4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30839595121299723</v>
+        <v>0.96806249837364733</v>
       </c>
       <c r="DG4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87583665728154447</v>
+        <v>0.31733572760229845</v>
       </c>
       <c r="DH4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40001023995197282</v>
+        <v>0.37214177460719888</v>
       </c>
       <c r="DI4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72012823142605631</v>
+        <v>0.49437560108384015</v>
       </c>
       <c r="DJ4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79696189882403246</v>
+        <v>0.22273684945974914</v>
       </c>
       <c r="DK4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85629438260082902</v>
+        <v>0.34277875861408746</v>
       </c>
       <c r="DL4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18286652085719313</v>
+        <v>0.74571334239413123</v>
       </c>
       <c r="DM4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79597189137971003</v>
+        <v>0.98516979431793461</v>
       </c>
       <c r="DN4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16588992156544158</v>
+        <v>0.607710534337497</v>
       </c>
       <c r="DO4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12382680753202746</v>
+        <v>0.62932003158823957</v>
       </c>
       <c r="DP4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35205620429447282</v>
+        <v>0.44035998402424115</v>
       </c>
       <c r="DQ4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54520066536148026</v>
+        <v>0.37060458049986422</v>
       </c>
       <c r="DR4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5313414466940518E-2</v>
+        <v>0.70210475135033867</v>
       </c>
       <c r="DS4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38363246248373972</v>
+        <v>2.9160894155512151E-2</v>
       </c>
       <c r="DT4" s="5"/>
       <c r="DU4" s="5"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="EA4">
         <f t="shared" ref="EA4:EX14" ca="1" si="1">IF(CV4&gt;($GD$1+0.001), CV4, 0)</f>
-        <v>0</v>
+        <v>0.90942816996442633</v>
       </c>
       <c r="EB4">
         <f t="shared" ca="1" si="1"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="EC4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.95944758939403318</v>
       </c>
       <c r="ED4">
         <f t="shared" ca="1" si="1"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="EK4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.96806249837364733</v>
       </c>
       <c r="EL4">
         <f t="shared" ca="1" si="1"/>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="ER4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.98516979431793461</v>
       </c>
       <c r="ES4">
         <f t="shared" ca="1" si="1"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="II4" s="10">
         <f ca="1">SUMPRODUCT(HI4:IG26,GH4:HF26)+SUMPRODUCT(HI37:IG59,GH37:HF59)</f>
-        <v>46.915847027587205</v>
+        <v>59.472207578433753</v>
       </c>
     </row>
     <row r="5" spans="1:245" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2606,103 +2606,103 @@
       <c r="CT5" s="5"/>
       <c r="CU5">
         <f t="shared" ref="CU5:DJ27" ca="1" si="38">RAND()</f>
-        <v>0.92750914255828831</v>
+        <v>0.11836149062283952</v>
       </c>
       <c r="CV5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19282844169613134</v>
+        <v>0.55043465246238987</v>
       </c>
       <c r="CW5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36335690151555611</v>
+        <v>7.2718737961716129E-2</v>
       </c>
       <c r="CX5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64136880115158934</v>
+        <v>0.59226924525975622</v>
       </c>
       <c r="CY5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66421551547082702</v>
+        <v>0.52297907329210425</v>
       </c>
       <c r="CZ5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42798105019371024</v>
+        <v>0.33352790979794378</v>
       </c>
       <c r="DA5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63737878809392445</v>
+        <v>0.63151405362381763</v>
       </c>
       <c r="DB5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3474431894551735E-2</v>
+        <v>0.61343533261997685</v>
       </c>
       <c r="DC5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30223045616150324</v>
+        <v>0.35004875104457533</v>
       </c>
       <c r="DD5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36738709401078118</v>
+        <v>0.86950271149116642</v>
       </c>
       <c r="DE5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95349144427654708</v>
+        <v>0.85228929759008853</v>
       </c>
       <c r="DF5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81482983849346169</v>
+        <v>0.53501274019486411</v>
       </c>
       <c r="DG5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23110700851788268</v>
+        <v>0.50257849227372442</v>
       </c>
       <c r="DH5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24594938434722236</v>
+        <v>0.76130658225410486</v>
       </c>
       <c r="DI5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22374478052308988</v>
+        <v>1.6172521935129303E-2</v>
       </c>
       <c r="DJ5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67458389653616635</v>
+        <v>0.12302101629299733</v>
       </c>
       <c r="DK5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15875525952428449</v>
+        <v>0.41770844990762301</v>
       </c>
       <c r="DL5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2787437680903531E-2</v>
+        <v>0.91840710955943794</v>
       </c>
       <c r="DM5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79321202542780211</v>
+        <v>0.28008268106422018</v>
       </c>
       <c r="DN5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6522570365144169E-2</v>
+        <v>5.6998912122523837E-2</v>
       </c>
       <c r="DO5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64750129892764341</v>
+        <v>1.0261250329628213E-2</v>
       </c>
       <c r="DP5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52318810302135232</v>
+        <v>0.5190728330321166</v>
       </c>
       <c r="DQ5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40995879280433301</v>
+        <v>0.17607535369138205</v>
       </c>
       <c r="DR5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11026930205764096</v>
+        <v>9.4015847416327736E-3</v>
       </c>
       <c r="DS5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90201829690418578</v>
+        <v>0.57281780301785934</v>
       </c>
       <c r="DT5" s="5"/>
       <c r="DU5" s="5"/>
@@ -2710,7 +2710,7 @@
       <c r="DY5" s="5"/>
       <c r="DZ5">
         <f t="shared" ref="DZ5:DZ27" ca="1" si="39">IF(CU5&gt;($GD$1+0.001), CU5, 0)</f>
-        <v>0.92750914255828831</v>
+        <v>0</v>
       </c>
       <c r="EA5">
         <f t="shared" ca="1" si="1"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="EJ5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95349144427654708</v>
+        <v>0</v>
       </c>
       <c r="EK5">
         <f t="shared" ca="1" si="1"/>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="EQ5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.91840710955943794</v>
       </c>
       <c r="ER5">
         <f t="shared" ca="1" si="1"/>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="EX5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90201829690418578</v>
+        <v>0</v>
       </c>
       <c r="EY5" s="5"/>
       <c r="EZ5" s="5"/>
@@ -3214,103 +3214,103 @@
       <c r="CT6" s="5"/>
       <c r="CU6">
         <f t="shared" ca="1" si="38"/>
-        <v>0.3402439282844556</v>
+        <v>0.80178062290719698</v>
       </c>
       <c r="CV6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6025301375227915</v>
+        <v>7.1858055681159438E-2</v>
       </c>
       <c r="CW6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71737573823074241</v>
+        <v>0.25830338332864411</v>
       </c>
       <c r="CX6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3006805839484783</v>
+        <v>9.781097598571975E-2</v>
       </c>
       <c r="CY6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54550660700822706</v>
+        <v>0.1978640150612353</v>
       </c>
       <c r="CZ6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2810235235468318</v>
+        <v>2.4161351852881374E-2</v>
       </c>
       <c r="DA6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36029885411868945</v>
+        <v>0.39760389803759977</v>
       </c>
       <c r="DB6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65494814528454737</v>
+        <v>0.29872507169489515</v>
       </c>
       <c r="DC6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9996802917617904E-2</v>
+        <v>0.37918568516801776</v>
       </c>
       <c r="DD6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5451743193198485</v>
+        <v>0.93541643083558368</v>
       </c>
       <c r="DE6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72191166433190268</v>
+        <v>0.11804147824623934</v>
       </c>
       <c r="DF6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47307051539516332</v>
+        <v>0.43564388793796782</v>
       </c>
       <c r="DG6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38761272981497708</v>
+        <v>0.10184045314329715</v>
       </c>
       <c r="DH6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98098133978616042</v>
+        <v>1.4283452915342942E-2</v>
       </c>
       <c r="DI6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53841386830646643</v>
+        <v>2.5712570361350218E-2</v>
       </c>
       <c r="DJ6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53378718124863878</v>
+        <v>0.71998581585335719</v>
       </c>
       <c r="DK6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10469288463982751</v>
+        <v>0.19122910831612139</v>
       </c>
       <c r="DL6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58448743289170446</v>
+        <v>0.8955535556208144</v>
       </c>
       <c r="DM6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77508647759276661</v>
+        <v>0.94081232887118527</v>
       </c>
       <c r="DN6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66096273663585237</v>
+        <v>0.28958331080630051</v>
       </c>
       <c r="DO6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92504488749810143</v>
+        <v>0.92562623357131402</v>
       </c>
       <c r="DP6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6088194506036397E-2</v>
+        <v>0.5846983218100863</v>
       </c>
       <c r="DQ6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20848371895954754</v>
+        <v>0.11867035204843068</v>
       </c>
       <c r="DR6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22800804646633654</v>
+        <v>9.3272744003792152E-2</v>
       </c>
       <c r="DS6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5261608757558317</v>
+        <v>5.3552341072435783E-2</v>
       </c>
       <c r="DT6" s="5"/>
       <c r="DU6" s="5"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="EI6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.93541643083558368</v>
       </c>
       <c r="EJ6">
         <f t="shared" ca="1" si="1"/>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="EM6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98098133978616042</v>
+        <v>0</v>
       </c>
       <c r="EN6">
         <f t="shared" ca="1" si="1"/>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="ER6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.94081232887118527</v>
       </c>
       <c r="ES6">
         <f t="shared" ca="1" si="1"/>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="ET6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92504488749810143</v>
+        <v>0.92562623357131402</v>
       </c>
       <c r="EU6">
         <f t="shared" ca="1" si="1"/>
@@ -3913,103 +3913,103 @@
       <c r="CT7" s="5"/>
       <c r="CU7">
         <f t="shared" ca="1" si="38"/>
-        <v>0.36969785751667106</v>
+        <v>0.19903705156909268</v>
       </c>
       <c r="CV7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15662683941192002</v>
+        <v>0.20472428581967084</v>
       </c>
       <c r="CW7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1692732483848749E-2</v>
+        <v>0.41317201737801335</v>
       </c>
       <c r="CX7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28100058372769365</v>
+        <v>0.30665828059166067</v>
       </c>
       <c r="CY7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8200180131688901E-3</v>
+        <v>5.6631150302510092E-2</v>
       </c>
       <c r="CZ7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87385912069834715</v>
+        <v>0.48635186291763288</v>
       </c>
       <c r="DA7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39417859420662205</v>
+        <v>0.68405816987100565</v>
       </c>
       <c r="DB7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41561735409502398</v>
+        <v>0.5091255262089367</v>
       </c>
       <c r="DC7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50357604444683779</v>
+        <v>0.47677290798333816</v>
       </c>
       <c r="DD7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13379892834351426</v>
+        <v>0.44293035550265936</v>
       </c>
       <c r="DE7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84130068681363501</v>
+        <v>0.82089310934802229</v>
       </c>
       <c r="DF7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51305549035799158</v>
+        <v>0.5160648692734453</v>
       </c>
       <c r="DG7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77811509180104699</v>
+        <v>0.53865040303439315</v>
       </c>
       <c r="DH7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27722989667187659</v>
+        <v>3.2204791384404796E-2</v>
       </c>
       <c r="DI7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.148923218986169</v>
+        <v>0.10292346862507296</v>
       </c>
       <c r="DJ7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68290357370692834</v>
+        <v>0.12607914694623035</v>
       </c>
       <c r="DK7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57325850946051515</v>
+        <v>0.4537963093623919</v>
       </c>
       <c r="DL7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42034220166360492</v>
+        <v>0.69988123270853075</v>
       </c>
       <c r="DM7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47797717965258268</v>
+        <v>0.504186277550841</v>
       </c>
       <c r="DN7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39683484823968962</v>
+        <v>0.29134789406017714</v>
       </c>
       <c r="DO7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77382038960916366</v>
+        <v>0.13048992944598481</v>
       </c>
       <c r="DP7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74691617775677244</v>
+        <v>0.76508925521493498</v>
       </c>
       <c r="DQ7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32273058867665416</v>
+        <v>0.42159615622108637</v>
       </c>
       <c r="DR7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11614658073881545</v>
+        <v>0.25812202839059162</v>
       </c>
       <c r="DS7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49200913623507303</v>
+        <v>0.21580724698440612</v>
       </c>
       <c r="DT7" s="5"/>
       <c r="DU7" s="5"/>
@@ -4521,103 +4521,103 @@
       <c r="CT8" s="5"/>
       <c r="CU8">
         <f t="shared" ca="1" si="38"/>
-        <v>0.80890973309099934</v>
+        <v>5.7662222561259413E-2</v>
       </c>
       <c r="CV8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52741405590454216</v>
+        <v>0.55836095918636597</v>
       </c>
       <c r="CW8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2076781675158067</v>
+        <v>0.71260873500194544</v>
       </c>
       <c r="CX8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22211888015032277</v>
+        <v>0.73050150925290536</v>
       </c>
       <c r="CY8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42474159593839056</v>
+        <v>0.45442710597831992</v>
       </c>
       <c r="CZ8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24004423181618739</v>
+        <v>1.5831926418373721E-3</v>
       </c>
       <c r="DA8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80660241370651808</v>
+        <v>0.29870260489757339</v>
       </c>
       <c r="DB8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.878510731289329E-2</v>
+        <v>0.69550797276994591</v>
       </c>
       <c r="DC8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61776362093387205</v>
+        <v>0.38111596803268999</v>
       </c>
       <c r="DD8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94096430288490196</v>
+        <v>0.4999346097912839</v>
       </c>
       <c r="DE8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90135167465587684</v>
+        <v>0.23804530291240011</v>
       </c>
       <c r="DF8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62055910224509248</v>
+        <v>0.16503112506067819</v>
       </c>
       <c r="DG8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38364668037910432</v>
+        <v>0.9807801024701831</v>
       </c>
       <c r="DH8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85164178925806866</v>
+        <v>0.36771465026729255</v>
       </c>
       <c r="DI8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69254642567270819</v>
+        <v>0.48692133206172494</v>
       </c>
       <c r="DJ8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97263760053485826</v>
+        <v>0.879082655010898</v>
       </c>
       <c r="DK8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14125929742148768</v>
+        <v>0.13375686426679101</v>
       </c>
       <c r="DL8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44258801651956248</v>
+        <v>0.70140026882886553</v>
       </c>
       <c r="DM8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7554953417081509E-2</v>
+        <v>0.95276679278752763</v>
       </c>
       <c r="DN8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91091624661397763</v>
+        <v>0.2644602595715152</v>
       </c>
       <c r="DO8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68804241286038903</v>
+        <v>0.52893004298462698</v>
       </c>
       <c r="DP8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44079727427884829</v>
+        <v>0.48171907088600963</v>
       </c>
       <c r="DQ8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78744184107776694</v>
+        <v>0.12710299441361461</v>
       </c>
       <c r="DR8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41127339207970881</v>
+        <v>0.78098565039911083</v>
       </c>
       <c r="DS8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64270261448525512</v>
+        <v>0.50713599187054326</v>
       </c>
       <c r="DT8" s="5"/>
       <c r="DU8" s="5"/>
@@ -4661,11 +4661,11 @@
       </c>
       <c r="EI8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94096430288490196</v>
+        <v>0</v>
       </c>
       <c r="EJ8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90135167465587684</v>
+        <v>0</v>
       </c>
       <c r="EK8">
         <f t="shared" ca="1" si="1"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="EL8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.9807801024701831</v>
       </c>
       <c r="EM8">
         <f t="shared" ca="1" si="1"/>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="EO8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97263760053485826</v>
+        <v>0</v>
       </c>
       <c r="EP8">
         <f t="shared" ca="1" si="1"/>
@@ -4697,11 +4697,11 @@
       </c>
       <c r="ER8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.95276679278752763</v>
       </c>
       <c r="ES8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91091624661397763</v>
+        <v>0</v>
       </c>
       <c r="ET8">
         <f t="shared" ca="1" si="1"/>
@@ -4765,11 +4765,11 @@
       </c>
       <c r="FN8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6961643387248049E-2</v>
+        <v>0</v>
       </c>
       <c r="FO8">
         <f t="shared" ca="1" si="12"/>
-        <v>9.10652330799957E-2</v>
+        <v>0</v>
       </c>
       <c r="FP8">
         <f t="shared" ca="1" si="13"/>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="FQ8">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>0.53158104508306936</v>
       </c>
       <c r="FR8">
         <f t="shared" ca="1" si="15"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="FT8">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3061529321230283</v>
+        <v>0</v>
       </c>
       <c r="FU8">
         <f t="shared" ca="1" si="18"/>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="FW8">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>2.6218705639234955E-2</v>
       </c>
       <c r="FX8">
         <f t="shared" ca="1" si="21"/>
@@ -4847,19 +4847,19 @@
       </c>
       <c r="GP8">
         <f t="shared" ref="GP8" ca="1" si="57">MAX(FM8:FN9)</f>
-        <v>7.6961643387248049E-2</v>
+        <v>0</v>
       </c>
       <c r="GR8">
         <f t="shared" ref="GR8" ca="1" si="58">MAX(FO8:FP9)</f>
-        <v>9.10652330799957E-2</v>
+        <v>0</v>
       </c>
       <c r="GT8">
         <f t="shared" ref="GT8" ca="1" si="59">MAX(FQ8:FR9)</f>
-        <v>0</v>
+        <v>0.53158104508306936</v>
       </c>
       <c r="GV8">
         <f t="shared" ref="GV8" ca="1" si="60">MAX(FS8:FT9)</f>
-        <v>1.3061529321230283</v>
+        <v>0</v>
       </c>
       <c r="GX8">
         <f t="shared" ref="GX8" ca="1" si="61">MAX(FU8:FV9)</f>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="GZ8">
         <f t="shared" ref="GZ8" ca="1" si="62">MAX(FW8:FX9)</f>
-        <v>0.37183629043347882</v>
+        <v>2.8715724998015328E-2</v>
       </c>
       <c r="HB8">
         <f t="shared" ref="HB8" ca="1" si="63">MAX(FY8:FZ9)</f>
@@ -5226,103 +5226,103 @@
       <c r="CT9" s="5"/>
       <c r="CU9">
         <f t="shared" ca="1" si="38"/>
-        <v>0.95776965208094555</v>
+        <v>0.32149841942158264</v>
       </c>
       <c r="CV9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19249952214125698</v>
+        <v>0.90774160726159925</v>
       </c>
       <c r="CW9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51661924857035701</v>
+        <v>0.56391307165598825</v>
       </c>
       <c r="CX9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9320305286638324E-2</v>
+        <v>0.11596248791604047</v>
       </c>
       <c r="CY9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18645634213621842</v>
+        <v>0.60876112847932673</v>
       </c>
       <c r="CZ9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74256857600596105</v>
+        <v>0.94981615282417575</v>
       </c>
       <c r="DA9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49192225382990684</v>
+        <v>0.65116989705352435</v>
       </c>
       <c r="DB9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96687149899692804</v>
+        <v>0.71224069937064083</v>
       </c>
       <c r="DC9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27149628643867696</v>
+        <v>9.8333157941028482E-2</v>
       </c>
       <c r="DD9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63092650128591765</v>
+        <v>0.15016766594811637</v>
       </c>
       <c r="DE9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0074830014831235E-2</v>
+        <v>0.14643538022988123</v>
       </c>
       <c r="DF9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45467306692657594</v>
+        <v>0.65872698755340864</v>
       </c>
       <c r="DG9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50587225532482827</v>
+        <v>0.27439638770780106</v>
       </c>
       <c r="DH9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83240246392132622</v>
+        <v>0.29582072895693157</v>
       </c>
       <c r="DI9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9856942174496193E-2</v>
+        <v>0.52960837110474801</v>
       </c>
       <c r="DJ9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33226909545884808</v>
+        <v>0.69871440667632811</v>
       </c>
       <c r="DK9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78465468676535932</v>
+        <v>0.26670743500710814</v>
       </c>
       <c r="DL9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22899546052836595</v>
+        <v>0.82583343672528919</v>
       </c>
       <c r="DM9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99072497825570216</v>
+        <v>0.12802408399891496</v>
       </c>
       <c r="DN9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29102491975280809</v>
+        <v>0.94838429197452045</v>
       </c>
       <c r="DO9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4427377999201082</v>
+        <v>0.32599191648516801</v>
       </c>
       <c r="DP9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60411284149651412</v>
+        <v>0.53242832095509052</v>
       </c>
       <c r="DQ9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86207921555740086</v>
+        <v>0.33751952414090014</v>
       </c>
       <c r="DR9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85656251537555061</v>
+        <v>0.15631862881655723</v>
       </c>
       <c r="DS9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12382134381000021</v>
+        <v>0.67349500358511027</v>
       </c>
       <c r="DT9" s="5"/>
       <c r="DU9" s="5"/>
@@ -5330,11 +5330,11 @@
       <c r="DY9" s="5"/>
       <c r="DZ9">
         <f t="shared" ca="1" si="39"/>
-        <v>0.95776965208094555</v>
+        <v>0</v>
       </c>
       <c r="EA9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.90774160726159925</v>
       </c>
       <c r="EB9">
         <f t="shared" ca="1" si="1"/>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="EE9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.94981615282417575</v>
       </c>
       <c r="EF9">
         <f t="shared" ca="1" si="1"/>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="EG9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96687149899692804</v>
+        <v>0</v>
       </c>
       <c r="EH9">
         <f t="shared" ca="1" si="1"/>
@@ -5402,11 +5402,11 @@
       </c>
       <c r="ER9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99072497825570216</v>
+        <v>0</v>
       </c>
       <c r="ES9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.94838429197452045</v>
       </c>
       <c r="ET9">
         <f t="shared" ca="1" si="1"/>
@@ -5506,11 +5506,11 @@
       </c>
       <c r="FW9">
         <f t="shared" ca="1" si="20"/>
-        <v>0.37183629043347882</v>
+        <v>0</v>
       </c>
       <c r="FX9">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>2.8715724998015328E-2</v>
       </c>
       <c r="FY9">
         <f t="shared" ca="1" si="22"/>
@@ -5834,103 +5834,103 @@
       <c r="CT10" s="5"/>
       <c r="CU10">
         <f t="shared" ca="1" si="38"/>
-        <v>0.59667729745526343</v>
+        <v>0.58551949318668794</v>
       </c>
       <c r="CV10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1411241995010273E-2</v>
+        <v>0.60618307244975855</v>
       </c>
       <c r="CW10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88149802609709371</v>
+        <v>0.87632266741189446</v>
       </c>
       <c r="CX10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15361244331277835</v>
+        <v>0.41613530221818384</v>
       </c>
       <c r="CY10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1277457967248381</v>
+        <v>0.61717916733560263</v>
       </c>
       <c r="CZ10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34186090138921355</v>
+        <v>0.38153085070035064</v>
       </c>
       <c r="DA10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3334814979675986E-2</v>
+        <v>0.49094657769523464</v>
       </c>
       <c r="DB10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84006610375760449</v>
+        <v>0.81455027395338664</v>
       </c>
       <c r="DC10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53840286066831566</v>
+        <v>0.66566438378942061</v>
       </c>
       <c r="DD10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67725219447901663</v>
+        <v>0.36526048879005302</v>
       </c>
       <c r="DE10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49222401182589892</v>
+        <v>0.23317501481165992</v>
       </c>
       <c r="DF10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61437977848620562</v>
+        <v>0.86499845939938169</v>
       </c>
       <c r="DG10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76892700583319873</v>
+        <v>0.52708567678169116</v>
       </c>
       <c r="DH10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42764877696370029</v>
+        <v>0.56475822788130725</v>
       </c>
       <c r="DI10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58325967776901622</v>
+        <v>0.56563629998219256</v>
       </c>
       <c r="DJ10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72626420502535538</v>
+        <v>2.9578691530531165E-2</v>
       </c>
       <c r="DK10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6046331191039449</v>
+        <v>0.26011896942029245</v>
       </c>
       <c r="DL10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61070927334322023</v>
+        <v>0.53620158589812206</v>
       </c>
       <c r="DM10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0235862360181063E-2</v>
+        <v>0.19866661639770289</v>
       </c>
       <c r="DN10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67545497376415709</v>
+        <v>0.91451730520241226</v>
       </c>
       <c r="DO10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2830242710343821</v>
+        <v>0.19788466534794691</v>
       </c>
       <c r="DP10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26023429257727948</v>
+        <v>0.47765635679982366</v>
       </c>
       <c r="DQ10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22800657228547416</v>
+        <v>0.52841540905440965</v>
       </c>
       <c r="DR10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62283945401750329</v>
+        <v>0.79137654654252565</v>
       </c>
       <c r="DS10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51005099286180577</v>
+        <v>0.13645730406082124</v>
       </c>
       <c r="DT10" s="5"/>
       <c r="DU10" s="5"/>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="ES10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.91451730520241226</v>
       </c>
       <c r="ET10">
         <f t="shared" ca="1" si="1"/>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="FX10">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>0.37333595337052977</v>
       </c>
       <c r="FY10">
         <f t="shared" ca="1" si="22"/>
@@ -6156,15 +6156,15 @@
       </c>
       <c r="GN10">
         <f t="shared" ref="GN10" ca="1" si="69">MAX(FK10:FL11)</f>
-        <v>1.5427037838504731</v>
+        <v>0</v>
       </c>
       <c r="GP10">
         <f t="shared" ref="GP10" ca="1" si="70">MAX(FM10:FN11)</f>
-        <v>0</v>
+        <v>1.4506423165122857</v>
       </c>
       <c r="GR10">
         <f t="shared" ref="GR10" ca="1" si="71">MAX(FO10:FP11)</f>
-        <v>0</v>
+        <v>1.3174202545432461</v>
       </c>
       <c r="GT10">
         <f t="shared" ref="GT10" ca="1" si="72">MAX(FQ10:FR11)</f>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="GZ10">
         <f t="shared" ref="GZ10" ca="1" si="75">MAX(FW10:FX11)</f>
-        <v>0</v>
+        <v>0.37333595337052977</v>
       </c>
       <c r="HB10">
         <f t="shared" ref="HB10" ca="1" si="76">MAX(FY10:FZ11)</f>
@@ -6551,103 +6551,103 @@
       <c r="CT11" s="5"/>
       <c r="CU11">
         <f t="shared" ca="1" si="38"/>
-        <v>0.822922869522978</v>
+        <v>0.16044757593229741</v>
       </c>
       <c r="CV11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53470821513230438</v>
+        <v>0.98074513946779862</v>
       </c>
       <c r="CW11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66163122017747666</v>
+        <v>0.86591936097183431</v>
       </c>
       <c r="CX11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86399058494299563</v>
+        <v>0.80081913944530525</v>
       </c>
       <c r="CY11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6901622315986824E-4</v>
+        <v>0.64817728906178951</v>
       </c>
       <c r="CZ11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94645513934661685</v>
+        <v>0.90774545797120265</v>
       </c>
       <c r="DA11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89322838180420583</v>
+        <v>0.50609532690863523</v>
       </c>
       <c r="DB11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92092016822750888</v>
+        <v>0.60533066686560411</v>
       </c>
       <c r="DC11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39187634675492888</v>
+        <v>0.93131535206789651</v>
       </c>
       <c r="DD11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22167957502303004</v>
+        <v>0.23409760461644979</v>
       </c>
       <c r="DE11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55652827361866142</v>
+        <v>0.904623390156851</v>
       </c>
       <c r="DF11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45798239879083258</v>
+        <v>0.83605147363702381</v>
       </c>
       <c r="DG11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7918121565832972E-2</v>
+        <v>0.13354426899336391</v>
       </c>
       <c r="DH11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33873328176026229</v>
+        <v>0.5587763879719001</v>
       </c>
       <c r="DI11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67831251971687467</v>
+        <v>0.58901738683057914</v>
       </c>
       <c r="DJ11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39743192956109152</v>
+        <v>0.76260496372167108</v>
       </c>
       <c r="DK11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5202368944549759</v>
+        <v>0.14322476614611068</v>
       </c>
       <c r="DL11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31032843825486722</v>
+        <v>5.5226965687564022E-2</v>
       </c>
       <c r="DM11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64365045667796628</v>
+        <v>0.13451731790923815</v>
       </c>
       <c r="DN11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79733148022863465</v>
+        <v>0.65240045163921989</v>
       </c>
       <c r="DO11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78536519895634194</v>
+        <v>0.56438947904431058</v>
       </c>
       <c r="DP11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24688626674436021</v>
+        <v>1.7081794463902344E-3</v>
       </c>
       <c r="DQ11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12276346411388084</v>
+        <v>0.44912560341502539</v>
       </c>
       <c r="DR11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76196651651026059</v>
+        <v>0.14217168001995362</v>
       </c>
       <c r="DS11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62785769847554163</v>
+        <v>0.18279547752670267</v>
       </c>
       <c r="DT11" s="5"/>
       <c r="DU11" s="5"/>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="EA11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.98074513946779862</v>
       </c>
       <c r="EB11">
         <f t="shared" ca="1" si="1"/>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="EE11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94645513934661685</v>
+        <v>0.90774545797120265</v>
       </c>
       <c r="EF11">
         <f t="shared" ca="1" si="1"/>
@@ -6683,11 +6683,11 @@
       </c>
       <c r="EG11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92092016822750888</v>
+        <v>0</v>
       </c>
       <c r="EH11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.93131535206789651</v>
       </c>
       <c r="EI11">
         <f t="shared" ca="1" si="1"/>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="EJ11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.904623390156851</v>
       </c>
       <c r="EK11">
         <f t="shared" ca="1" si="1"/>
@@ -6787,11 +6787,11 @@
       </c>
       <c r="FL11">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5427037838504731</v>
+        <v>0</v>
       </c>
       <c r="FM11">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1.4506423165122857</v>
       </c>
       <c r="FN11">
         <f t="shared" ca="1" si="11"/>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="FO11">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1.3174202545432461</v>
       </c>
       <c r="FP11">
         <f t="shared" ca="1" si="13"/>
@@ -7177,103 +7177,103 @@
       <c r="CT12" s="5"/>
       <c r="CU12">
         <f t="shared" ca="1" si="38"/>
-        <v>0.95644101876050169</v>
+        <v>5.3105716316425355E-2</v>
       </c>
       <c r="CV12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90705630875402632</v>
+        <v>0.82628641300110939</v>
       </c>
       <c r="CW12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83352183975878347</v>
+        <v>0.9867082632952312</v>
       </c>
       <c r="CX12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25552015248363891</v>
+        <v>0.85611056875815272</v>
       </c>
       <c r="CY12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84997215092841005</v>
+        <v>0.77097491983240785</v>
       </c>
       <c r="CZ12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34942097686537843</v>
+        <v>0.86780925116705665</v>
       </c>
       <c r="DA12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43295236984558727</v>
+        <v>0.99832178518075365</v>
       </c>
       <c r="DB12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73519397759411276</v>
+        <v>0.42836460890907935</v>
       </c>
       <c r="DC12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11537245037254396</v>
+        <v>0.37242549738427078</v>
       </c>
       <c r="DD12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7544051606204025E-2</v>
+        <v>0.87654377465527789</v>
       </c>
       <c r="DE12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91480071972111876</v>
+        <v>0.97346435338335446</v>
       </c>
       <c r="DF12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81820920379396</v>
+        <v>0.90136954251221313</v>
       </c>
       <c r="DG12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91111687610741765</v>
+        <v>0.24032242912681556</v>
       </c>
       <c r="DH12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63486336153138523</v>
+        <v>0.21522977203571281</v>
       </c>
       <c r="DI12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35008021748827189</v>
+        <v>0.52356473959729055</v>
       </c>
       <c r="DJ12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33222276817128116</v>
+        <v>0.94246659611205885</v>
       </c>
       <c r="DK12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34103192976562702</v>
+        <v>0.65668686568528845</v>
       </c>
       <c r="DL12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4825653319653944E-2</v>
+        <v>0.85746791114561594</v>
       </c>
       <c r="DM12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38816781143088264</v>
+        <v>0.51602991396390474</v>
       </c>
       <c r="DN12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38023043790322597</v>
+        <v>0.2256010816468208</v>
       </c>
       <c r="DO12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3801115633575689</v>
+        <v>0.10402630905902377</v>
       </c>
       <c r="DP12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67114033700224474</v>
+        <v>0.62742810899754864</v>
       </c>
       <c r="DQ12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60703772880176432</v>
+        <v>0.69368231645425271</v>
       </c>
       <c r="DR12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41488675903197547</v>
+        <v>0.84391656142542493</v>
       </c>
       <c r="DS12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39385316167453965</v>
+        <v>8.9032620037256205E-2</v>
       </c>
       <c r="DT12" s="5"/>
       <c r="DU12" s="5"/>
@@ -7281,15 +7281,15 @@
       <c r="DY12" s="5"/>
       <c r="DZ12">
         <f t="shared" ca="1" si="39"/>
-        <v>0.95644101876050169</v>
+        <v>0</v>
       </c>
       <c r="EA12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90705630875402632</v>
+        <v>0</v>
       </c>
       <c r="EB12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.9867082632952312</v>
       </c>
       <c r="EC12">
         <f t="shared" ca="1" si="1"/>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="EF12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.99832178518075365</v>
       </c>
       <c r="EG12">
         <f t="shared" ca="1" si="1"/>
@@ -7321,15 +7321,15 @@
       </c>
       <c r="EJ12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91480071972111876</v>
+        <v>0.97346435338335446</v>
       </c>
       <c r="EK12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.90136954251221313</v>
       </c>
       <c r="EL12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91111687610741765</v>
+        <v>0</v>
       </c>
       <c r="EM12">
         <f t="shared" ca="1" si="1"/>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="EO12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.94246659611205885</v>
       </c>
       <c r="EP12">
         <f t="shared" ca="1" si="1"/>
@@ -7389,11 +7389,11 @@
       </c>
       <c r="FF12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42178760749746003</v>
+        <v>0</v>
       </c>
       <c r="FG12">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1.8719378330937004</v>
       </c>
       <c r="FH12">
         <f t="shared" ca="1" si="5"/>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="FK12">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3.3143727550284847</v>
       </c>
       <c r="FL12">
         <f t="shared" ca="1" si="9"/>
@@ -7429,11 +7429,11 @@
       </c>
       <c r="FP12">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3.4080940573489849</v>
       </c>
       <c r="FQ12">
         <f t="shared" ca="1" si="14"/>
-        <v>2.7265465508897533</v>
+        <v>0</v>
       </c>
       <c r="FR12">
         <f t="shared" ca="1" si="15"/>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="FT12">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>2.4710982039706333</v>
       </c>
       <c r="FU12">
         <f t="shared" ca="1" si="18"/>
@@ -7487,19 +7487,19 @@
       <c r="GE12" s="5"/>
       <c r="GH12">
         <f t="shared" ref="GH12" ca="1" si="79">MAX(FE12:FF13)</f>
-        <v>0.42178760749746003</v>
+        <v>2.4749033891378365</v>
       </c>
       <c r="GJ12">
         <f t="shared" ref="GJ12" ca="1" si="80">MAX(FG12:FH13)</f>
-        <v>5.2941301730800712</v>
+        <v>1.8719378330937004</v>
       </c>
       <c r="GL12">
         <f t="shared" ref="GL12" ca="1" si="81">MAX(FI12:FJ13)</f>
-        <v>0</v>
+        <v>4.2468945771506084</v>
       </c>
       <c r="GN12">
         <f t="shared" ref="GN12" ca="1" si="82">MAX(FK12:FL13)</f>
-        <v>0</v>
+        <v>3.3143727550284847</v>
       </c>
       <c r="GP12">
         <f t="shared" ref="GP12" ca="1" si="83">MAX(FM12:FN13)</f>
@@ -7511,11 +7511,11 @@
       </c>
       <c r="GT12">
         <f t="shared" ref="GT12" ca="1" si="85">MAX(FQ12:FR13)</f>
-        <v>2.7265465508897533</v>
+        <v>0</v>
       </c>
       <c r="GV12">
         <f t="shared" ref="GV12" ca="1" si="86">MAX(FS12:FT13)</f>
-        <v>0</v>
+        <v>2.4710982039706333</v>
       </c>
       <c r="GX12">
         <f t="shared" ref="GX12" ca="1" si="87">MAX(FU12:FV13)</f>
@@ -7894,103 +7894,103 @@
       <c r="CT13" s="5"/>
       <c r="CU13">
         <f t="shared" ca="1" si="38"/>
-        <v>0.24187385019884788</v>
+        <v>9.3624921127871907E-2</v>
       </c>
       <c r="CV13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43333201448851555</v>
+        <v>0.93460283632063279</v>
       </c>
       <c r="CW13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2640431835423329E-2</v>
+        <v>0.20392629798131345</v>
       </c>
       <c r="CX13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97626527974562061</v>
+        <v>9.6742989669589385E-2</v>
       </c>
       <c r="CY13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83705959103198802</v>
+        <v>0.9290392504494327</v>
       </c>
       <c r="CZ13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72745287679640247</v>
+        <v>0.49948389619258093</v>
       </c>
       <c r="DA13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50668168565397498</v>
+        <v>0.67553216652925008</v>
       </c>
       <c r="DB13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38349656215181727</v>
+        <v>0.42181615003022377</v>
       </c>
       <c r="DC13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87653639394499872</v>
+        <v>0.40334707561049132</v>
       </c>
       <c r="DD13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6413068686297696</v>
+        <v>0.46204542061372755</v>
       </c>
       <c r="DE13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96344005323367055</v>
+        <v>2.7816103271990467E-2</v>
       </c>
       <c r="DF13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99942709736264557</v>
+        <v>6.5071245149251999E-2</v>
       </c>
       <c r="DG13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27969332291993665</v>
+        <v>0.6362313212697589</v>
       </c>
       <c r="DH13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82350711376655572</v>
+        <v>0.2182478428558895</v>
       </c>
       <c r="DI13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83009393898649031</v>
+        <v>0.80443951358979859</v>
       </c>
       <c r="DJ13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17942965344649198</v>
+        <v>2.2730782776546277E-2</v>
       </c>
       <c r="DK13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76595195678823547</v>
+        <v>0.61094476902886208</v>
       </c>
       <c r="DL13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47162122321871536</v>
+        <v>0.55864268019063401</v>
       </c>
       <c r="DM13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53187875899582082</v>
+        <v>0.80393865749193638</v>
       </c>
       <c r="DN13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31256105202909135</v>
+        <v>0.68271869435339927</v>
       </c>
       <c r="DO13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46594958354399385</v>
+        <v>0.86903059159837714</v>
       </c>
       <c r="DP13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49188423188046804</v>
+        <v>0.74898424468927982</v>
       </c>
       <c r="DQ13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36974495768701565</v>
+        <v>0.93197974138748274</v>
       </c>
       <c r="DR13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65110722246758035</v>
+        <v>0.9789333247436901</v>
       </c>
       <c r="DS13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35350445533659303</v>
+        <v>0.82062715717534529</v>
       </c>
       <c r="DT13" s="5"/>
       <c r="DU13" s="5"/>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="EA13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.93460283632063279</v>
       </c>
       <c r="EB13">
         <f t="shared" ca="1" si="1"/>
@@ -8010,11 +8010,11 @@
       </c>
       <c r="EC13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97626527974562061</v>
+        <v>0</v>
       </c>
       <c r="ED13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.9290392504494327</v>
       </c>
       <c r="EE13">
         <f t="shared" ca="1" si="1"/>
@@ -8038,11 +8038,11 @@
       </c>
       <c r="EJ13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96344005323367055</v>
+        <v>0</v>
       </c>
       <c r="EK13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99942709736264557</v>
+        <v>0</v>
       </c>
       <c r="EL13">
         <f t="shared" ca="1" si="1"/>
@@ -8086,11 +8086,11 @@
       </c>
       <c r="EV13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.93197974138748274</v>
       </c>
       <c r="EW13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.9789333247436901</v>
       </c>
       <c r="EX13">
         <f t="shared" ca="1" si="1"/>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="FF13">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2.4749033891378365</v>
       </c>
       <c r="FG13">
         <f t="shared" ca="1" si="4"/>
@@ -8114,11 +8114,11 @@
       </c>
       <c r="FH13">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2941301730800712</v>
+        <v>0</v>
       </c>
       <c r="FI13">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4.2468945771506084</v>
       </c>
       <c r="FJ13">
         <f t="shared" ca="1" si="7"/>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="FO13">
         <f t="shared" ca="1" si="12"/>
-        <v>3.4023382912760365</v>
+        <v>0</v>
       </c>
       <c r="FP13">
         <f t="shared" ca="1" si="13"/>
-        <v>3.4153387332387828</v>
+        <v>0</v>
       </c>
       <c r="FQ13">
         <f t="shared" ca="1" si="14"/>
@@ -8502,103 +8502,103 @@
       <c r="CT14" s="5"/>
       <c r="CU14">
         <f t="shared" ca="1" si="38"/>
-        <v>0.47985870662296781</v>
+        <v>0.23921000986261609</v>
       </c>
       <c r="CV14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57012617340174199</v>
+        <v>0.39616846234448388</v>
       </c>
       <c r="CW14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45960004629810236</v>
+        <v>0.668965547712154</v>
       </c>
       <c r="CX14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65223391351582494</v>
+        <v>0.39425798188629801</v>
       </c>
       <c r="CY14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27461543122508059</v>
+        <v>2.3312686510198022E-2</v>
       </c>
       <c r="CZ14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24353280981050451</v>
+        <v>0.24099734699499364</v>
       </c>
       <c r="DA14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69901753306509917</v>
+        <v>0.26946382662916635</v>
       </c>
       <c r="DB14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1409002186480444E-2</v>
+        <v>0.14647028553526009</v>
       </c>
       <c r="DC14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70445214862267613</v>
+        <v>0.24152552913210568</v>
       </c>
       <c r="DD14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11888892177176669</v>
+        <v>0.82498879206988562</v>
       </c>
       <c r="DE14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3655896285359188E-2</v>
+        <v>0.62949278560868049</v>
       </c>
       <c r="DF14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88942901018246245</v>
+        <v>0.93147691920532827</v>
       </c>
       <c r="DG14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91544340278154768</v>
+        <v>0.53179748541087468</v>
       </c>
       <c r="DH14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48747133250052044</v>
+        <v>0.63560823888908535</v>
       </c>
       <c r="DI14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6636213051494193</v>
+        <v>0.53342236174406032</v>
       </c>
       <c r="DJ14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0112303817721804E-2</v>
+        <v>0.20893284002117196</v>
       </c>
       <c r="DK14">
         <f t="shared" ref="DK14:DS27" ca="1" si="92">RAND()</f>
-        <v>0.4535684391100504</v>
+        <v>0.86807514878858127</v>
       </c>
       <c r="DL14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.35096747392014871</v>
+        <v>0.56314462169439294</v>
       </c>
       <c r="DM14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.68420672525826121</v>
+        <v>0.9589945101512598</v>
       </c>
       <c r="DN14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.48903887724435491</v>
+        <v>0.91232910104680309</v>
       </c>
       <c r="DO14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.53899942077590479</v>
+        <v>0.16485173568628309</v>
       </c>
       <c r="DP14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.99779219809235842</v>
+        <v>0.53655885850918583</v>
       </c>
       <c r="DQ14">
         <f t="shared" ca="1" si="92"/>
-        <v>5.8524212019773092E-2</v>
+        <v>0.92464947269683317</v>
       </c>
       <c r="DR14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.61817211614867151</v>
+        <v>0.9755186302616049</v>
       </c>
       <c r="DS14">
         <f t="shared" ca="1" si="92"/>
-        <v>0.2832071339260378</v>
+        <v>0.93800915070250535</v>
       </c>
       <c r="DT14" s="5"/>
       <c r="DU14" s="5"/>
@@ -8650,11 +8650,11 @@
       </c>
       <c r="EK14">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.93147691920532827</v>
       </c>
       <c r="EL14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91544340278154768</v>
+        <v>0</v>
       </c>
       <c r="EM14">
         <f t="shared" ca="1" si="1"/>
@@ -8678,11 +8678,11 @@
       </c>
       <c r="ER14">
         <f t="shared" ref="ER14:ER27" ca="1" si="95">IF(DM14&gt;($GD$1+0.001), DM14, 0)</f>
-        <v>0</v>
+        <v>0.9589945101512598</v>
       </c>
       <c r="ES14">
         <f t="shared" ref="ES14:ES27" ca="1" si="96">IF(DN14&gt;($GD$1+0.001), DN14, 0)</f>
-        <v>0</v>
+        <v>0.91232910104680309</v>
       </c>
       <c r="ET14">
         <f t="shared" ref="ET14:ET27" ca="1" si="97">IF(DO14&gt;($GD$1+0.001), DO14, 0)</f>
@@ -8690,19 +8690,19 @@
       </c>
       <c r="EU14">
         <f t="shared" ref="EU14:EU27" ca="1" si="98">IF(DP14&gt;($GD$1+0.001), DP14, 0)</f>
-        <v>0.99779219809235842</v>
+        <v>0</v>
       </c>
       <c r="EV14">
         <f t="shared" ref="EV14:EV27" ca="1" si="99">IF(DQ14&gt;($GD$1+0.001), DQ14, 0)</f>
-        <v>0</v>
+        <v>0.92464947269683317</v>
       </c>
       <c r="EW14">
         <f t="shared" ref="EW14:EW27" ca="1" si="100">IF(DR14&gt;($GD$1+0.001), DR14, 0)</f>
-        <v>0</v>
+        <v>0.9755186302616049</v>
       </c>
       <c r="EX14">
         <f t="shared" ref="EX14:EX27" ca="1" si="101">IF(DS14&gt;($GD$1+0.001), DS14, 0)</f>
-        <v>0</v>
+        <v>0.93800915070250535</v>
       </c>
       <c r="EY14" s="5"/>
       <c r="EZ14" s="5"/>
@@ -8754,11 +8754,11 @@
       </c>
       <c r="FP14">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.81423296619002694</v>
       </c>
       <c r="FQ14">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0532401180923534</v>
+        <v>0</v>
       </c>
       <c r="FR14">
         <f t="shared" ca="1" si="15"/>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="FW14">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>7.3046065739809887</v>
       </c>
       <c r="FX14">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>8.263712434724571</v>
       </c>
       <c r="FY14">
         <f t="shared" ca="1" si="22"/>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="FZ14">
         <f t="shared" ca="1" si="23"/>
-        <v>6.3674003137063923E-2</v>
+        <v>0</v>
       </c>
       <c r="GA14">
         <f t="shared" ca="1" si="24"/>
@@ -8832,15 +8832,15 @@
       </c>
       <c r="GR14">
         <f t="shared" ref="GR14" ca="1" si="107">MAX(FO14:FP15)</f>
-        <v>0</v>
+        <v>0.81423296619002694</v>
       </c>
       <c r="GT14">
         <f t="shared" ref="GT14" ca="1" si="108">MAX(FQ14:FR15)</f>
-        <v>1.0532401180923534</v>
+        <v>0</v>
       </c>
       <c r="GV14">
         <f t="shared" ref="GV14" ca="1" si="109">MAX(FS14:FT15)</f>
-        <v>0.64722189127475449</v>
+        <v>0</v>
       </c>
       <c r="GX14">
         <f t="shared" ref="GX14" ca="1" si="110">MAX(FU14:FV15)</f>
@@ -8848,11 +8848,11 @@
       </c>
       <c r="GZ14">
         <f t="shared" ref="GZ14" ca="1" si="111">MAX(FW14:FX15)</f>
-        <v>5.4088167899058668</v>
+        <v>8.263712434724571</v>
       </c>
       <c r="HB14">
         <f t="shared" ref="HB14" ca="1" si="112">MAX(FY14:FZ15)</f>
-        <v>6.3674003137063923E-2</v>
+        <v>0</v>
       </c>
       <c r="HD14">
         <f t="shared" ref="HD14" ca="1" si="113">MAX(GA14:GB15)</f>
@@ -9210,103 +9210,103 @@
       <c r="CT15" s="5"/>
       <c r="CU15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.83538775449184133</v>
+        <v>0.70614144257726363</v>
       </c>
       <c r="CV15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.3690574636059667</v>
+        <v>0.803232297894375</v>
       </c>
       <c r="CW15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.257557972081225</v>
+        <v>0.82085856824181291</v>
       </c>
       <c r="CX15">
         <f t="shared" ca="1" si="38"/>
-        <v>9.7217167875686572E-2</v>
+        <v>0.26126651889035835</v>
       </c>
       <c r="CY15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11420191841267247</v>
+        <v>0.73362482776178661</v>
       </c>
       <c r="CZ15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.48151967675656537</v>
+        <v>0.96294652831259786</v>
       </c>
       <c r="DA15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.56466661974156152</v>
+        <v>0.58791585029701199</v>
       </c>
       <c r="DB15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.24398584560807035</v>
+        <v>0.61882584353592296</v>
       </c>
       <c r="DC15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.66245450019647434</v>
+        <v>0.75304412958964539</v>
       </c>
       <c r="DD15">
         <f t="shared" ca="1" si="38"/>
-        <v>3.8497581701515959E-2</v>
+        <v>1.9405284779649423E-2</v>
       </c>
       <c r="DE15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.64361934900770168</v>
+        <v>0.78043312421421474</v>
       </c>
       <c r="DF15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.5914976211032329</v>
+        <v>0.7777534721766759</v>
       </c>
       <c r="DG15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.45749598761733423</v>
+        <v>0.58825281080638525</v>
       </c>
       <c r="DH15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.92327166747453104</v>
+        <v>0.44321388504457804</v>
       </c>
       <c r="DI15">
         <f t="shared" ca="1" si="38"/>
-        <v>2.1563556513637061E-2</v>
+        <v>0.3599330794841531</v>
       </c>
       <c r="DJ15">
         <f t="shared" ca="1" si="38"/>
-        <v>0.92602080915385543</v>
+        <v>0.23391279947256194</v>
       </c>
       <c r="DK15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.22371379550389747</v>
+        <v>0.24971177559992608</v>
       </c>
       <c r="DL15">
         <f t="shared" ca="1" si="92"/>
-        <v>3.2605454431280156E-2</v>
+        <v>0.55350481364661142</v>
       </c>
       <c r="DM15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.94743892364644056</v>
+        <v>9.7267585470561913E-2</v>
       </c>
       <c r="DN15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.88367218597922093</v>
+        <v>0.39419015503902988</v>
       </c>
       <c r="DO15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.86469442285330633</v>
+        <v>0.65430068915542117</v>
       </c>
       <c r="DP15">
         <f t="shared" ca="1" si="92"/>
-        <v>5.33202933610053E-2</v>
+        <v>0.29324427163447908</v>
       </c>
       <c r="DQ15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.26437326505188208</v>
+        <v>0.27565280393710778</v>
       </c>
       <c r="DR15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.66907318436594077</v>
+        <v>0.9185037473072627</v>
       </c>
       <c r="DS15">
         <f t="shared" ca="1" si="92"/>
-        <v>0.13741230835024065</v>
+        <v>0.42615218804047394</v>
       </c>
       <c r="DT15" s="5"/>
       <c r="DU15" s="5"/>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="EE15">
         <f t="shared" ref="EE15:EE27" ca="1" si="119">IF(CZ15&gt;($GD$1+0.001), CZ15, 0)</f>
-        <v>0</v>
+        <v>0.96294652831259786</v>
       </c>
       <c r="EF15">
         <f t="shared" ref="EF15:EF27" ca="1" si="120">IF(DA15&gt;($GD$1+0.001), DA15, 0)</f>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="EM15">
         <f t="shared" ref="EM15:EM27" ca="1" si="127">IF(DH15&gt;($GD$1+0.001), DH15, 0)</f>
-        <v>0.92327166747453104</v>
+        <v>0</v>
       </c>
       <c r="EN15">
         <f t="shared" ref="EN15:EN27" ca="1" si="128">IF(DI15&gt;($GD$1+0.001), DI15, 0)</f>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="EO15">
         <f t="shared" ref="EO15:EO27" ca="1" si="129">IF(DJ15&gt;($GD$1+0.001), DJ15, 0)</f>
-        <v>0.92602080915385543</v>
+        <v>0</v>
       </c>
       <c r="EP15">
         <f t="shared" ca="1" si="93"/>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="ER15">
         <f t="shared" ca="1" si="95"/>
-        <v>0.94743892364644056</v>
+        <v>0</v>
       </c>
       <c r="ES15">
         <f t="shared" ca="1" si="96"/>
@@ -9406,7 +9406,7 @@
       </c>
       <c r="EW15">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>0.9185037473072627</v>
       </c>
       <c r="EX15">
         <f t="shared" ca="1" si="101"/>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="FR15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19986055455937446</v>
+        <v>0</v>
       </c>
       <c r="FS15">
         <f t="shared" ca="1" si="16"/>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="FT15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.64722189127475449</v>
+        <v>0</v>
       </c>
       <c r="FU15">
         <f t="shared" ca="1" si="18"/>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="FW15">
         <f t="shared" ca="1" si="20"/>
-        <v>5.4088167899058668</v>
+        <v>0</v>
       </c>
       <c r="FX15">
         <f t="shared" ca="1" si="21"/>
@@ -9827,103 +9827,103 @@
       <c r="CT16" s="5"/>
       <c r="CU16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41302098248380659</v>
+        <v>0.17999528180554192</v>
       </c>
       <c r="CV16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.39649474751196279</v>
+        <v>0.13435000097926231</v>
       </c>
       <c r="CW16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50102706040712597</v>
+        <v>0.5475370459792136</v>
       </c>
       <c r="CX16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.48211286716934254</v>
+        <v>0.13279610999109237</v>
       </c>
       <c r="CY16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.49090201998310756</v>
+        <v>0.53678539151623383</v>
       </c>
       <c r="CZ16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.85389630066207456</v>
+        <v>0.25760552147936411</v>
       </c>
       <c r="DA16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41348880425482837</v>
+        <v>0.3257189046648129</v>
       </c>
       <c r="DB16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.48345578954885837</v>
+        <v>0.7442065472079179</v>
       </c>
       <c r="DC16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.23740007855734679</v>
+        <v>0.99217768882500468</v>
       </c>
       <c r="DD16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.76438493774801919</v>
+        <v>0.72894463566266265</v>
       </c>
       <c r="DE16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.30077778825287815</v>
+        <v>0.64537843442247722</v>
       </c>
       <c r="DF16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.84964092751440257</v>
+        <v>0.27608905566655129</v>
       </c>
       <c r="DG16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.53451034029516442</v>
+        <v>0.62800115566592041</v>
       </c>
       <c r="DH16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.32717272395784169</v>
+        <v>0.69666119818026473</v>
       </c>
       <c r="DI16">
         <f t="shared" ca="1" si="38"/>
-        <v>8.8377073958125552E-2</v>
+        <v>0.86442217423921497</v>
       </c>
       <c r="DJ16">
         <f t="shared" ca="1" si="38"/>
-        <v>0.30986234120030187</v>
+        <v>0.83578779576288786</v>
       </c>
       <c r="DK16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.55673952836601326</v>
+        <v>0.30489479238267692</v>
       </c>
       <c r="DL16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.26557221602025238</v>
+        <v>0.69319559328745506</v>
       </c>
       <c r="DM16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.13078487701852604</v>
+        <v>0.84070320558791301</v>
       </c>
       <c r="DN16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.44213297383795003</v>
+        <v>0.83112813398015972</v>
       </c>
       <c r="DO16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.21551499461339618</v>
+        <v>0.30318625792718201</v>
       </c>
       <c r="DP16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.6142516803405681</v>
+        <v>9.3182571067581543E-3</v>
       </c>
       <c r="DQ16">
         <f t="shared" ca="1" si="92"/>
-        <v>6.6716684701330076E-3</v>
+        <v>0.76583723470385812</v>
       </c>
       <c r="DR16">
         <f t="shared" ca="1" si="92"/>
-        <v>7.1776748827060199E-2</v>
+        <v>0.89704806047829533</v>
       </c>
       <c r="DS16">
         <f t="shared" ca="1" si="92"/>
-        <v>0.57367001248044491</v>
+        <v>0.90843648369787189</v>
       </c>
       <c r="DT16" s="5"/>
       <c r="DU16" s="5"/>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="EH16">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>0.99217768882500468</v>
       </c>
       <c r="EI16">
         <f t="shared" ca="1" si="123"/>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="EX16">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>0.90843648369787189</v>
       </c>
       <c r="EY16" s="5"/>
       <c r="EZ16" s="5"/>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="GX16">
         <f t="shared" ref="GX16" ca="1" si="138">MAX(FU16:FV17)</f>
-        <v>1.1302560388078149</v>
+        <v>0</v>
       </c>
       <c r="GZ16">
         <f t="shared" ref="GZ16" ca="1" si="139">MAX(FW16:FX17)</f>
@@ -10535,103 +10535,103 @@
       <c r="CT17" s="5"/>
       <c r="CU17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99518233293814029</v>
+        <v>0.48396896804041822</v>
       </c>
       <c r="CV17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.1516132955938484</v>
+        <v>0.42698019174927659</v>
       </c>
       <c r="CW17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.12020272333761017</v>
+        <v>0.5490515994191294</v>
       </c>
       <c r="CX17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.9864384949292927</v>
+        <v>0.12492900585334554</v>
       </c>
       <c r="CY17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.20165461019673525</v>
+        <v>9.5871848418178085E-2</v>
       </c>
       <c r="CZ17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15686928178042714</v>
+        <v>0.88805857836455981</v>
       </c>
       <c r="DA17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.28123514175907338</v>
+        <v>0.55305734940824924</v>
       </c>
       <c r="DB17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.64524274872230847</v>
+        <v>0.94327385317988099</v>
       </c>
       <c r="DC17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.97746313621650827</v>
+        <v>0.54616515783317787</v>
       </c>
       <c r="DD17">
         <f t="shared" ca="1" si="38"/>
-        <v>9.1025161065691917E-2</v>
+        <v>0.19401446092265939</v>
       </c>
       <c r="DE17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.35585707490865193</v>
+        <v>0.72660867331559509</v>
       </c>
       <c r="DF17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.57431412935893289</v>
+        <v>7.4034201893627305E-2</v>
       </c>
       <c r="DG17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.34012791961750655</v>
+        <v>0.81602074250786294</v>
       </c>
       <c r="DH17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11010240780203029</v>
+        <v>0.58698443886000062</v>
       </c>
       <c r="DI17">
         <f t="shared" ca="1" si="38"/>
-        <v>0.66099159580420919</v>
+        <v>0.74107961863571026</v>
       </c>
       <c r="DJ17">
         <f t="shared" ca="1" si="38"/>
-        <v>6.0407216967114374E-2</v>
+        <v>0.12892611349158323</v>
       </c>
       <c r="DK17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.94598753546146908</v>
+        <v>0.58649851000133868</v>
       </c>
       <c r="DL17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.10330538383961563</v>
+        <v>0.49463624923673488</v>
       </c>
       <c r="DM17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.56196420809909065</v>
+        <v>0.79828360872739335</v>
       </c>
       <c r="DN17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.80655478010350257</v>
+        <v>0.37295378089540054</v>
       </c>
       <c r="DO17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.34350628038530295</v>
+        <v>0.50031277124174611</v>
       </c>
       <c r="DP17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.2674559139545688</v>
+        <v>0.35280643586418148</v>
       </c>
       <c r="DQ17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.78330778589231143</v>
+        <v>0.75056531775775981</v>
       </c>
       <c r="DR17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.48272053043126395</v>
+        <v>0.57737553175893719</v>
       </c>
       <c r="DS17">
         <f t="shared" ca="1" si="92"/>
-        <v>0.78906657957234272</v>
+        <v>0.81440117503737086</v>
       </c>
       <c r="DT17" s="5"/>
       <c r="DU17" s="5"/>
@@ -10639,7 +10639,7 @@
       <c r="DY17" s="5"/>
       <c r="DZ17">
         <f t="shared" ca="1" si="39"/>
-        <v>0.99518233293814029</v>
+        <v>0</v>
       </c>
       <c r="EA17">
         <f t="shared" ca="1" si="115"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="EC17">
         <f t="shared" ca="1" si="117"/>
-        <v>0.9864384949292927</v>
+        <v>0</v>
       </c>
       <c r="ED17">
         <f t="shared" ca="1" si="118"/>
@@ -10667,11 +10667,11 @@
       </c>
       <c r="EG17">
         <f t="shared" ca="1" si="121"/>
-        <v>0</v>
+        <v>0.94327385317988099</v>
       </c>
       <c r="EH17">
         <f t="shared" ca="1" si="122"/>
-        <v>0.97746313621650827</v>
+        <v>0</v>
       </c>
       <c r="EI17">
         <f t="shared" ca="1" si="123"/>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="EP17">
         <f t="shared" ca="1" si="93"/>
-        <v>0.94598753546146908</v>
+        <v>0</v>
       </c>
       <c r="EQ17">
         <f t="shared" ca="1" si="94"/>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="FU17">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1302560388078149</v>
+        <v>0</v>
       </c>
       <c r="FV17">
         <f t="shared" ca="1" si="19"/>
@@ -11143,103 +11143,103 @@
       <c r="CT18" s="5"/>
       <c r="CU18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.65075042559843499</v>
+        <v>0.96926345545863846</v>
       </c>
       <c r="CV18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.7705468466250891</v>
+        <v>4.4085106321789413E-2</v>
       </c>
       <c r="CW18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.90203594722383507</v>
+        <v>0.59309537981709815</v>
       </c>
       <c r="CX18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.62151580553700458</v>
+        <v>0.57444892755044763</v>
       </c>
       <c r="CY18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.53170826430943885</v>
+        <v>0.77218383895255605</v>
       </c>
       <c r="CZ18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.86179890427261652</v>
+        <v>0.39243490022661309</v>
       </c>
       <c r="DA18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.4249957191139585</v>
+        <v>0.24842734926669885</v>
       </c>
       <c r="DB18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11849037683855879</v>
+        <v>0.3978210034942532</v>
       </c>
       <c r="DC18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.75625158568092976</v>
+        <v>4.5362857947211288E-2</v>
       </c>
       <c r="DD18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.73026981545211911</v>
+        <v>0.60879333738022057</v>
       </c>
       <c r="DE18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.257879209138974</v>
+        <v>0.67053367013569276</v>
       </c>
       <c r="DF18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.12736169326724212</v>
+        <v>0.88467322055575437</v>
       </c>
       <c r="DG18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.31275661450486192</v>
+        <v>0.84970581303776183</v>
       </c>
       <c r="DH18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.13138847901125483</v>
+        <v>0.75889753990714492</v>
       </c>
       <c r="DI18">
         <f t="shared" ca="1" si="38"/>
-        <v>4.6641439970277365E-2</v>
+        <v>0.44008870914192211</v>
       </c>
       <c r="DJ18">
         <f t="shared" ca="1" si="38"/>
-        <v>0.230664841776694</v>
+        <v>0.45063744613725554</v>
       </c>
       <c r="DK18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.82588274300486142</v>
+        <v>0.47257481300679804</v>
       </c>
       <c r="DL18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.26385051108363677</v>
+        <v>0.10715003151418667</v>
       </c>
       <c r="DM18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.22760433910086109</v>
+        <v>1.2141328010235597E-2</v>
       </c>
       <c r="DN18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.29498724088402029</v>
+        <v>0.97778124992186533</v>
       </c>
       <c r="DO18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.68029311940251358</v>
+        <v>0.16288971159744337</v>
       </c>
       <c r="DP18">
         <f t="shared" ca="1" si="92"/>
-        <v>8.9313290989138872E-2</v>
+        <v>0.42832732538901708</v>
       </c>
       <c r="DQ18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.15837902583580066</v>
+        <v>0.95627227612579968</v>
       </c>
       <c r="DR18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.39658036946676156</v>
+        <v>0.8264294925523582</v>
       </c>
       <c r="DS18">
         <f t="shared" ca="1" si="92"/>
-        <v>0.91826559727018986</v>
+        <v>0.4196865880344417</v>
       </c>
       <c r="DT18" s="5"/>
       <c r="DU18" s="5"/>
@@ -11247,7 +11247,7 @@
       <c r="DY18" s="5"/>
       <c r="DZ18">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>0.96926345545863846</v>
       </c>
       <c r="EA18">
         <f t="shared" ca="1" si="115"/>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="EB18">
         <f t="shared" ca="1" si="116"/>
-        <v>0.90203594722383507</v>
+        <v>0</v>
       </c>
       <c r="EC18">
         <f t="shared" ca="1" si="117"/>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="ES18">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>0.97778124992186533</v>
       </c>
       <c r="ET18">
         <f t="shared" ca="1" si="97"/>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="EV18">
         <f t="shared" ca="1" si="99"/>
-        <v>0</v>
+        <v>0.95627227612579968</v>
       </c>
       <c r="EW18">
         <f t="shared" ca="1" si="100"/>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="EX18">
         <f t="shared" ca="1" si="101"/>
-        <v>0.91826559727018986</v>
+        <v>0</v>
       </c>
       <c r="EY18" s="5"/>
       <c r="EZ18" s="5"/>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="FX18">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>7.1370194499315174</v>
       </c>
       <c r="FY18">
         <f t="shared" ca="1" si="22"/>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="GV18">
         <f t="shared" ref="GV18" ca="1" si="150">MAX(FS18:FT19)</f>
-        <v>5.208990325446762</v>
+        <v>0</v>
       </c>
       <c r="GX18">
         <f t="shared" ref="GX18" ca="1" si="151">MAX(FU18:FV19)</f>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="GZ18">
         <f t="shared" ref="GZ18" ca="1" si="152">MAX(FW18:FX19)</f>
-        <v>0</v>
+        <v>7.1370194499315174</v>
       </c>
       <c r="HB18">
         <f t="shared" ref="HB18" ca="1" si="153">MAX(FY18:FZ19)</f>
@@ -11842,103 +11842,103 @@
       <c r="CT19" s="5"/>
       <c r="CU19">
         <f t="shared" ca="1" si="38"/>
-        <v>7.4760622700292823E-2</v>
+        <v>6.9192465705051776E-2</v>
       </c>
       <c r="CV19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.4618624507954302</v>
+        <v>0.72282440856078645</v>
       </c>
       <c r="CW19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.66922320047897732</v>
+        <v>0.67225158249228523</v>
       </c>
       <c r="CX19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.51973097049407713</v>
+        <v>0.75514431714173869</v>
       </c>
       <c r="CY19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.73468190781183706</v>
+        <v>0.23950734102765092</v>
       </c>
       <c r="CZ19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.74960210453965248</v>
+        <v>2.9354027596347754E-3</v>
       </c>
       <c r="DA19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.59765106909603471</v>
+        <v>0.53483937278031102</v>
       </c>
       <c r="DB19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.91104155906406792</v>
+        <v>0.13375885749013738</v>
       </c>
       <c r="DC19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.69007346294509087</v>
+        <v>0.29904902858660898</v>
       </c>
       <c r="DD19">
         <f t="shared" ca="1" si="38"/>
-        <v>7.9332510447417959E-2</v>
+        <v>0.72736458903126544</v>
       </c>
       <c r="DE19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.54522114546966438</v>
+        <v>0.10781343121934395</v>
       </c>
       <c r="DF19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.89055835972948905</v>
+        <v>0.25430454865238317</v>
       </c>
       <c r="DG19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.86273358059704097</v>
+        <v>0.2372022307444589</v>
       </c>
       <c r="DH19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50658901808209034</v>
+        <v>0.19051859109129088</v>
       </c>
       <c r="DI19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99499020319218123</v>
+        <v>0.33311437428910684</v>
       </c>
       <c r="DJ19">
         <f t="shared" ca="1" si="38"/>
-        <v>0.93250816418553539</v>
+        <v>0.66347488007297883</v>
       </c>
       <c r="DK19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.84187798017840942</v>
+        <v>0.65647310057460095</v>
       </c>
       <c r="DL19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.59904414645337556</v>
+        <v>2.1268311181919741E-2</v>
       </c>
       <c r="DM19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.56186752399388484</v>
+        <v>8.5328892483679364E-2</v>
       </c>
       <c r="DN19">
         <f t="shared" ca="1" si="92"/>
-        <v>2.3834582420827366E-2</v>
+        <v>0.36724290564637818</v>
       </c>
       <c r="DO19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.81517405240130125</v>
+        <v>0.3844157874754609</v>
       </c>
       <c r="DP19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.33170602281718664</v>
+        <v>0.38126095433201068</v>
       </c>
       <c r="DQ19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.90517775510872189</v>
+        <v>0.83640601942756332</v>
       </c>
       <c r="DR19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.53979029867565687</v>
+        <v>0.97695829957713531</v>
       </c>
       <c r="DS19">
         <f t="shared" ca="1" si="92"/>
-        <v>0.99040764341994403</v>
+        <v>0.20925739560437018</v>
       </c>
       <c r="DT19" s="5"/>
       <c r="DU19" s="5"/>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="EG19">
         <f t="shared" ca="1" si="121"/>
-        <v>0.91104155906406792</v>
+        <v>0</v>
       </c>
       <c r="EH19">
         <f t="shared" ca="1" si="122"/>
@@ -12002,11 +12002,11 @@
       </c>
       <c r="EN19">
         <f t="shared" ca="1" si="128"/>
-        <v>0.99499020319218123</v>
+        <v>0</v>
       </c>
       <c r="EO19">
         <f t="shared" ca="1" si="129"/>
-        <v>0.93250816418553539</v>
+        <v>0</v>
       </c>
       <c r="EP19">
         <f t="shared" ca="1" si="93"/>
@@ -12034,15 +12034,15 @@
       </c>
       <c r="EV19">
         <f t="shared" ca="1" si="99"/>
-        <v>0.90517775510872189</v>
+        <v>0</v>
       </c>
       <c r="EW19">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>0.97695829957713531</v>
       </c>
       <c r="EX19">
         <f t="shared" ca="1" si="101"/>
-        <v>0.99040764341994403</v>
+        <v>0</v>
       </c>
       <c r="EY19" s="5"/>
       <c r="EZ19" s="5"/>
@@ -12106,11 +12106,11 @@
       </c>
       <c r="FS19">
         <f t="shared" ca="1" si="16"/>
-        <v>5.208990325446762</v>
+        <v>0</v>
       </c>
       <c r="FT19">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6749805628666845</v>
+        <v>0</v>
       </c>
       <c r="FU19">
         <f t="shared" ca="1" si="18"/>
@@ -12450,103 +12450,103 @@
       <c r="CT20" s="5"/>
       <c r="CU20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15304284488238884</v>
+        <v>0.92065242600074615</v>
       </c>
       <c r="CV20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.83636979190440419</v>
+        <v>0.80043050772645952</v>
       </c>
       <c r="CW20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.6999937265137981</v>
+        <v>0.20822927917268752</v>
       </c>
       <c r="CX20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.6550980675245095</v>
+        <v>0.24386870326385079</v>
       </c>
       <c r="CY20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.35565143269718846</v>
+        <v>0.20523576675677846</v>
       </c>
       <c r="CZ20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.65744681282218609</v>
+        <v>0.21053044871009763</v>
       </c>
       <c r="DA20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.5112271061277972</v>
+        <v>0.91283714842573005</v>
       </c>
       <c r="DB20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.25613173275308432</v>
+        <v>0.65765821728437301</v>
       </c>
       <c r="DC20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.55974729080438657</v>
+        <v>0.56411153879259801</v>
       </c>
       <c r="DD20">
         <f t="shared" ca="1" si="38"/>
-        <v>1.6616547227700007E-2</v>
+        <v>0.78129300626222176</v>
       </c>
       <c r="DE20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.32875487225442901</v>
+        <v>0.52614529566249102</v>
       </c>
       <c r="DF20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.92868697309959725</v>
+        <v>0.96287340408052458</v>
       </c>
       <c r="DG20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.88212051594838348</v>
+        <v>0.28116612049520262</v>
       </c>
       <c r="DH20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.76970329168656992</v>
+        <v>8.5590359160115925E-2</v>
       </c>
       <c r="DI20">
         <f t="shared" ca="1" si="38"/>
-        <v>0.2776781376988583</v>
+        <v>0.31110310393484064</v>
       </c>
       <c r="DJ20">
         <f t="shared" ca="1" si="38"/>
-        <v>5.4007692606464763E-3</v>
+        <v>0.33225001575289237</v>
       </c>
       <c r="DK20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.59327043175471139</v>
+        <v>0.80418000332628659</v>
       </c>
       <c r="DL20">
         <f t="shared" ca="1" si="92"/>
-        <v>4.9732766754622793E-2</v>
+        <v>0.28800116178690993</v>
       </c>
       <c r="DM20">
         <f t="shared" ca="1" si="92"/>
-        <v>8.7579574976525798E-2</v>
+        <v>0.354164115958019</v>
       </c>
       <c r="DN20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.11113624282673673</v>
+        <v>0.77244285913737687</v>
       </c>
       <c r="DO20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.77534355326494786</v>
+        <v>0.10119742608350135</v>
       </c>
       <c r="DP20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.31554860580347843</v>
+        <v>0.66666347157615868</v>
       </c>
       <c r="DQ20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.94262156773561689</v>
+        <v>0.62992674740819787</v>
       </c>
       <c r="DR20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.68141963088507962</v>
+        <v>0.98265277800742823</v>
       </c>
       <c r="DS20">
         <f t="shared" ca="1" si="92"/>
-        <v>0.71645147642359042</v>
+        <v>0.54782450552725959</v>
       </c>
       <c r="DT20" s="5"/>
       <c r="DU20" s="5"/>
@@ -12554,7 +12554,7 @@
       <c r="DY20" s="5"/>
       <c r="DZ20">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>0.92065242600074615</v>
       </c>
       <c r="EA20">
         <f t="shared" ca="1" si="115"/>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="EF20">
         <f t="shared" ca="1" si="120"/>
-        <v>0</v>
+        <v>0.91283714842573005</v>
       </c>
       <c r="EG20">
         <f t="shared" ca="1" si="121"/>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="EK20">
         <f t="shared" ca="1" si="125"/>
-        <v>0.92868697309959725</v>
+        <v>0.96287340408052458</v>
       </c>
       <c r="EL20">
         <f t="shared" ca="1" si="126"/>
@@ -12642,11 +12642,11 @@
       </c>
       <c r="EV20">
         <f t="shared" ca="1" si="99"/>
-        <v>0.94262156773561689</v>
+        <v>0</v>
       </c>
       <c r="EW20">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>0.98265277800742823</v>
       </c>
       <c r="EX20">
         <f t="shared" ca="1" si="101"/>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="FK20">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1.0780626057330465</v>
       </c>
       <c r="FL20">
         <f t="shared" ca="1" si="9"/>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="GN20">
         <f t="shared" ref="GN20" ca="1" si="159">MAX(FK20:FL21)</f>
-        <v>0</v>
+        <v>1.0780626057330465</v>
       </c>
       <c r="GP20">
         <f t="shared" ref="GP20" ca="1" si="160">MAX(FM20:FN21)</f>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="GT20">
         <f t="shared" ref="GT20" ca="1" si="162">MAX(FQ20:FR21)</f>
-        <v>2.4232609114812513</v>
+        <v>0</v>
       </c>
       <c r="GV20">
         <f t="shared" ref="GV20" ca="1" si="163">MAX(FS20:FT21)</f>
@@ -13149,103 +13149,103 @@
       <c r="CT21" s="5"/>
       <c r="CU21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.23558561581755011</v>
+        <v>0.65049801699290521</v>
       </c>
       <c r="CV21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.54522643500927359</v>
+        <v>0.1977067464440474</v>
       </c>
       <c r="CW21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.9080726238446114</v>
+        <v>0.61751937654093692</v>
       </c>
       <c r="CX21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.23000740776808337</v>
+        <v>0.29732451135051285</v>
       </c>
       <c r="CY21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.87402798699992135</v>
+        <v>0.63319491358854518</v>
       </c>
       <c r="CZ21">
         <f t="shared" ca="1" si="38"/>
-        <v>8.5160488246636135E-2</v>
+        <v>0.35536719462533439</v>
       </c>
       <c r="DA21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.84696877426536921</v>
+        <v>0.13088508724407233</v>
       </c>
       <c r="DB21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.69170681561120628</v>
+        <v>0.74787894192006421</v>
       </c>
       <c r="DC21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.32685144210830774</v>
+        <v>0.31923900694426199</v>
       </c>
       <c r="DD21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.68891525990589342</v>
+        <v>0.2608547912007787</v>
       </c>
       <c r="DE21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.73204610513571144</v>
+        <v>0.71115566158187238</v>
       </c>
       <c r="DF21">
         <f t="shared" ca="1" si="38"/>
-        <v>4.4585069078591499E-2</v>
+        <v>0.68768475084125869</v>
       </c>
       <c r="DG21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11100693638443349</v>
+        <v>0.38246240005535259</v>
       </c>
       <c r="DH21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.9412370527307431</v>
+        <v>0.47585225259438979</v>
       </c>
       <c r="DI21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.46656747309467339</v>
+        <v>0.33579471172935449</v>
       </c>
       <c r="DJ21">
         <f t="shared" ca="1" si="38"/>
-        <v>0.8047430957440902</v>
+        <v>7.7618953984488481E-3</v>
       </c>
       <c r="DK21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.86143477213118558</v>
+        <v>0.73791222263478351</v>
       </c>
       <c r="DL21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.33152726226370266</v>
+        <v>0.46698332935155218</v>
       </c>
       <c r="DM21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.73508169544088953</v>
+        <v>0.60236862455149942</v>
       </c>
       <c r="DN21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.64006358787886997</v>
+        <v>1.7995958190792138E-2</v>
       </c>
       <c r="DO21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.78295705189444742</v>
+        <v>0.14729885959171651</v>
       </c>
       <c r="DP21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.55878113260897189</v>
+        <v>0.86182644293572885</v>
       </c>
       <c r="DQ21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.32636385459642359</v>
+        <v>0.59676543938746485</v>
       </c>
       <c r="DR21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.7577972136835599</v>
+        <v>0.51287013756154076</v>
       </c>
       <c r="DS21">
         <f t="shared" ca="1" si="92"/>
-        <v>0.50450995994633396</v>
+        <v>0.68248570131041064</v>
       </c>
       <c r="DT21" s="5"/>
       <c r="DU21" s="5"/>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="EB21">
         <f t="shared" ca="1" si="116"/>
-        <v>0.9080726238446114</v>
+        <v>0</v>
       </c>
       <c r="EC21">
         <f t="shared" ca="1" si="117"/>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="EM21">
         <f t="shared" ca="1" si="127"/>
-        <v>0.9412370527307431</v>
+        <v>0</v>
       </c>
       <c r="EN21">
         <f t="shared" ca="1" si="128"/>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="FR21">
         <f t="shared" ca="1" si="15"/>
-        <v>2.4232609114812513</v>
+        <v>0</v>
       </c>
       <c r="FS21">
         <f t="shared" ca="1" si="16"/>
@@ -13757,103 +13757,103 @@
       <c r="CT22" s="5"/>
       <c r="CU22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.2411886805539768</v>
+        <v>4.072027486113472E-2</v>
       </c>
       <c r="CV22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99093512139034012</v>
+        <v>3.3847288611024817E-2</v>
       </c>
       <c r="CW22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.20593336339792134</v>
+        <v>0.79701818827980098</v>
       </c>
       <c r="CX22">
         <f t="shared" ca="1" si="38"/>
-        <v>8.8780746421339041E-2</v>
+        <v>0.18489526587213878</v>
       </c>
       <c r="CY22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15430512783703154</v>
+        <v>0.4251022881027412</v>
       </c>
       <c r="CZ22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.68010064592337949</v>
+        <v>0.70929138761073518</v>
       </c>
       <c r="DA22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.259996441936023</v>
+        <v>0.55797078027071634</v>
       </c>
       <c r="DB22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.35364032991783578</v>
+        <v>0.40896289309936762</v>
       </c>
       <c r="DC22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11487110575574377</v>
+        <v>0.42669909464609623</v>
       </c>
       <c r="DD22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.77880224977840451</v>
+        <v>8.9799656145460705E-2</v>
       </c>
       <c r="DE22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.53758249295046712</v>
+        <v>7.5007742311510639E-2</v>
       </c>
       <c r="DF22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41981233509858185</v>
+        <v>0.96867384354956387</v>
       </c>
       <c r="DG22">
         <f t="shared" ca="1" si="38"/>
-        <v>7.4940766508089673E-2</v>
+        <v>0.22102622387917192</v>
       </c>
       <c r="DH22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.51936272298680708</v>
+        <v>0.56083046314911877</v>
       </c>
       <c r="DI22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.70235678049983419</v>
+        <v>0.62943332678131725</v>
       </c>
       <c r="DJ22">
         <f t="shared" ca="1" si="38"/>
-        <v>0.20737708549683953</v>
+        <v>0.99214364919837328</v>
       </c>
       <c r="DK22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.27657586012037438</v>
+        <v>0.79244958786254627</v>
       </c>
       <c r="DL22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.37422202929418813</v>
+        <v>0.12466688529309866</v>
       </c>
       <c r="DM22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.79981024945881496</v>
+        <v>0.72245149591690538</v>
       </c>
       <c r="DN22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.54123651179254662</v>
+        <v>0.61715528069489345</v>
       </c>
       <c r="DO22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.99795530774031493</v>
+        <v>0.76670914236881993</v>
       </c>
       <c r="DP22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.96395494548772942</v>
+        <v>0.54609750487405417</v>
       </c>
       <c r="DQ22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.58245241287993821</v>
+        <v>7.6223570934477403E-2</v>
       </c>
       <c r="DR22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.7781506872755164</v>
+        <v>0.27780989563344982</v>
       </c>
       <c r="DS22">
         <f t="shared" ca="1" si="92"/>
-        <v>0.1329544692023823</v>
+        <v>0.64694649517237723</v>
       </c>
       <c r="DT22" s="5"/>
       <c r="DU22" s="5"/>
@@ -13865,7 +13865,7 @@
       </c>
       <c r="EA22">
         <f t="shared" ca="1" si="115"/>
-        <v>0.99093512139034012</v>
+        <v>0</v>
       </c>
       <c r="EB22">
         <f t="shared" ca="1" si="116"/>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="EK22">
         <f t="shared" ca="1" si="125"/>
-        <v>0</v>
+        <v>0.96867384354956387</v>
       </c>
       <c r="EL22">
         <f t="shared" ca="1" si="126"/>
@@ -13921,7 +13921,7 @@
       </c>
       <c r="EO22">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>0.99214364919837328</v>
       </c>
       <c r="EP22">
         <f t="shared" ca="1" si="93"/>
@@ -13941,11 +13941,11 @@
       </c>
       <c r="ET22">
         <f t="shared" ca="1" si="97"/>
-        <v>0.99795530774031493</v>
+        <v>0</v>
       </c>
       <c r="EU22">
         <f t="shared" ca="1" si="98"/>
-        <v>0.96395494548772942</v>
+        <v>0</v>
       </c>
       <c r="EV22">
         <f t="shared" ca="1" si="99"/>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="FP22">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.96642038400295938</v>
       </c>
       <c r="FQ22">
         <f t="shared" ca="1" si="14"/>
@@ -14045,11 +14045,11 @@
       </c>
       <c r="FY22">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8332768091693934</v>
+        <v>0</v>
       </c>
       <c r="FZ22">
         <f t="shared" ca="1" si="23"/>
-        <v>0.2160523620180369</v>
+        <v>0</v>
       </c>
       <c r="GA22">
         <f t="shared" ca="1" si="24"/>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="GJ22">
         <f t="shared" ref="GJ22" ca="1" si="170">MAX(FG22:FH23)</f>
-        <v>0</v>
+        <v>0.59516254204233854</v>
       </c>
       <c r="GL22">
         <f t="shared" ref="GL22" ca="1" si="171">MAX(FI22:FJ23)</f>
@@ -14079,7 +14079,7 @@
       </c>
       <c r="GN22">
         <f t="shared" ref="GN22" ca="1" si="172">MAX(FK22:FL23)</f>
-        <v>0</v>
+        <v>3.1472350101650859</v>
       </c>
       <c r="GP22">
         <f t="shared" ref="GP22" ca="1" si="173">MAX(FM22:FN23)</f>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="GR22">
         <f t="shared" ref="GR22" ca="1" si="174">MAX(FO22:FP23)</f>
-        <v>0</v>
+        <v>0.96642038400295938</v>
       </c>
       <c r="GT22">
         <f t="shared" ref="GT22" ca="1" si="175">MAX(FQ22:FR23)</f>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="GV22">
         <f t="shared" ref="GV22" ca="1" si="176">MAX(FS22:FT23)</f>
-        <v>0</v>
+        <v>0.17286284512081004</v>
       </c>
       <c r="GX22">
         <f t="shared" ref="GX22" ca="1" si="177">MAX(FU22:FV23)</f>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="HB22">
         <f t="shared" ref="HB22" ca="1" si="179">MAX(FY22:FZ23)</f>
-        <v>4.8332768091693934</v>
+        <v>0</v>
       </c>
       <c r="HD22">
         <f t="shared" ref="HD22" ca="1" si="180">MAX(GA22:GB23)</f>
@@ -14456,103 +14456,103 @@
       <c r="CT23" s="5"/>
       <c r="CU23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.2196576493806478</v>
+        <v>0.60037514787028445</v>
       </c>
       <c r="CV23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.56416159248528674</v>
+        <v>0.65092273344531637</v>
       </c>
       <c r="CW23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50158678653745081</v>
+        <v>0.86630078686790291</v>
       </c>
       <c r="CX23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.51502148485380739</v>
+        <v>0.91429310750833903</v>
       </c>
       <c r="CY23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.15010286295698294</v>
+        <v>0.81313283399431779</v>
       </c>
       <c r="CZ23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.32740432937985398</v>
+        <v>0.56514937242850449</v>
       </c>
       <c r="DA23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.83144458935015453</v>
+        <v>0.59754416638182417</v>
       </c>
       <c r="DB23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41526045581970328</v>
+        <v>0.98046323502187493</v>
       </c>
       <c r="DC23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50278746639808203</v>
+        <v>0.66670447175387104</v>
       </c>
       <c r="DD23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.39414245080508037</v>
+        <v>0.4941707441290828</v>
       </c>
       <c r="DE23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.99102849761970124</v>
+        <v>5.4964889365372693E-2</v>
       </c>
       <c r="DF23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.40613988626760167</v>
+        <v>0.68411323116720313</v>
       </c>
       <c r="DG23">
         <f t="shared" ca="1" si="38"/>
-        <v>4.1455286794425561E-2</v>
+        <v>0.27452025113896339</v>
       </c>
       <c r="DH23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.96908461206652086</v>
+        <v>0.65227857294981029</v>
       </c>
       <c r="DI23">
         <f t="shared" ca="1" si="38"/>
-        <v>1.29690610920562E-2</v>
+        <v>0.69046415685848284</v>
       </c>
       <c r="DJ23">
         <f t="shared" ca="1" si="38"/>
-        <v>0.54733819327495037</v>
+        <v>0.93406740624799511</v>
       </c>
       <c r="DK23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.21637685599261769</v>
+        <v>0.45277096282318907</v>
       </c>
       <c r="DL23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.52744996506873398</v>
+        <v>0.10224640698352472</v>
       </c>
       <c r="DM23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.75624379506524031</v>
+        <v>0.74437936567748864</v>
       </c>
       <c r="DN23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.19303036513328287</v>
+        <v>0.21145658021806235</v>
       </c>
       <c r="DO23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.41528818244667276</v>
+        <v>0.42524405816957866</v>
       </c>
       <c r="DP23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.32685227679771633</v>
+        <v>0.54614212643445259</v>
       </c>
       <c r="DQ23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.69881698593312402</v>
+        <v>0.98721541155148362</v>
       </c>
       <c r="DR23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.22294005734466782</v>
+        <v>0.74435746776235978</v>
       </c>
       <c r="DS23">
         <f t="shared" ca="1" si="92"/>
-        <v>0.67213407542829018</v>
+        <v>0.26736224111011719</v>
       </c>
       <c r="DT23" s="5"/>
       <c r="DU23" s="5"/>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="EC23">
         <f t="shared" ca="1" si="117"/>
-        <v>0</v>
+        <v>0.91429310750833903</v>
       </c>
       <c r="ED23">
         <f t="shared" ca="1" si="118"/>
@@ -14588,7 +14588,7 @@
       </c>
       <c r="EG23">
         <f t="shared" ca="1" si="121"/>
-        <v>0</v>
+        <v>0.98046323502187493</v>
       </c>
       <c r="EH23">
         <f t="shared" ca="1" si="122"/>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="EJ23">
         <f t="shared" ca="1" si="124"/>
-        <v>0.99102849761970124</v>
+        <v>0</v>
       </c>
       <c r="EK23">
         <f t="shared" ca="1" si="125"/>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="EM23">
         <f t="shared" ca="1" si="127"/>
-        <v>0.96908461206652086</v>
+        <v>0</v>
       </c>
       <c r="EN23">
         <f t="shared" ca="1" si="128"/>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="EO23">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>0.93406740624799511</v>
       </c>
       <c r="EP23">
         <f t="shared" ca="1" si="93"/>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="EV23">
         <f t="shared" ca="1" si="99"/>
-        <v>0</v>
+        <v>0.98721541155148362</v>
       </c>
       <c r="EW23">
         <f t="shared" ca="1" si="100"/>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="FH23">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.59516254204233854</v>
       </c>
       <c r="FI23">
         <f t="shared" ca="1" si="6"/>
@@ -14692,7 +14692,7 @@
       </c>
       <c r="FL23">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3.1472350101650859</v>
       </c>
       <c r="FM23">
         <f t="shared" ca="1" si="10"/>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="FT23">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>0.17286284512081004</v>
       </c>
       <c r="FU23">
         <f t="shared" ca="1" si="18"/>
@@ -15064,103 +15064,103 @@
       <c r="CT24" s="5"/>
       <c r="CU24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.41425800691918502</v>
+        <v>5.3860495473684544E-2</v>
       </c>
       <c r="CV24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.74283424067568682</v>
+        <v>0.11938199189833287</v>
       </c>
       <c r="CW24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.32982213413557826</v>
+        <v>0.25486298017515863</v>
       </c>
       <c r="CX24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.23255013077425157</v>
+        <v>0.831668705645913</v>
       </c>
       <c r="CY24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.70726173698508488</v>
+        <v>0.5805982830997255</v>
       </c>
       <c r="CZ24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.8992047809269389</v>
+        <v>3.1143741646306178E-2</v>
       </c>
       <c r="DA24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.31236056497491438</v>
+        <v>5.5728459113728368E-2</v>
       </c>
       <c r="DB24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.93757780925236311</v>
+        <v>0.22844736504994612</v>
       </c>
       <c r="DC24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.55060415640679727</v>
+        <v>6.9907318894533055E-2</v>
       </c>
       <c r="DD24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.80969882695428241</v>
+        <v>0.55337493642268731</v>
       </c>
       <c r="DE24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.62218015477586996</v>
+        <v>0.48272704943699685</v>
       </c>
       <c r="DF24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.91465625709690168</v>
+        <v>0.46124742177462674</v>
       </c>
       <c r="DG24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.98138695886689953</v>
+        <v>0.38825212026876155</v>
       </c>
       <c r="DH24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.19356224188543847</v>
+        <v>0.87268065912229997</v>
       </c>
       <c r="DI24">
         <f t="shared" ca="1" si="38"/>
-        <v>0.7652293779036643</v>
+        <v>0.37397408872302884</v>
       </c>
       <c r="DJ24">
         <f t="shared" ca="1" si="38"/>
-        <v>1.2101216047854302E-2</v>
+        <v>0.94355427461734553</v>
       </c>
       <c r="DK24">
         <f t="shared" ca="1" si="92"/>
-        <v>9.830494609371021E-2</v>
+        <v>0.97916681914645021</v>
       </c>
       <c r="DL24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.87826699096216621</v>
+        <v>0.91284069842496951</v>
       </c>
       <c r="DM24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.55972621612940887</v>
+        <v>4.1278283967360996E-2</v>
       </c>
       <c r="DN24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.393648329409648</v>
+        <v>8.5923510709855488E-2</v>
       </c>
       <c r="DO24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.40415695384838168</v>
+        <v>0.97325579732691192</v>
       </c>
       <c r="DP24">
         <f t="shared" ca="1" si="92"/>
-        <v>8.5189798105980152E-2</v>
+        <v>2.9371236479143525E-2</v>
       </c>
       <c r="DQ24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.35409770800666651</v>
+        <v>3.9025733671522733E-2</v>
       </c>
       <c r="DR24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.39611345917827157</v>
+        <v>0.76995516107069517</v>
       </c>
       <c r="DS24">
         <f t="shared" ca="1" si="92"/>
-        <v>0.93793361041715262</v>
+        <v>0.13929618183771875</v>
       </c>
       <c r="DT24" s="5"/>
       <c r="DU24" s="5"/>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="EG24">
         <f t="shared" ca="1" si="121"/>
-        <v>0.93757780925236311</v>
+        <v>0</v>
       </c>
       <c r="EH24">
         <f t="shared" ca="1" si="122"/>
@@ -15212,11 +15212,11 @@
       </c>
       <c r="EK24">
         <f t="shared" ca="1" si="125"/>
-        <v>0.91465625709690168</v>
+        <v>0</v>
       </c>
       <c r="EL24">
         <f t="shared" ca="1" si="126"/>
-        <v>0.98138695886689953</v>
+        <v>0</v>
       </c>
       <c r="EM24">
         <f t="shared" ca="1" si="127"/>
@@ -15228,15 +15228,15 @@
       </c>
       <c r="EO24">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>0.94355427461734553</v>
       </c>
       <c r="EP24">
         <f t="shared" ca="1" si="93"/>
-        <v>0</v>
+        <v>0.97916681914645021</v>
       </c>
       <c r="EQ24">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>0.91284069842496951</v>
       </c>
       <c r="ER24">
         <f t="shared" ca="1" si="95"/>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="ET24">
         <f t="shared" ca="1" si="97"/>
-        <v>0</v>
+        <v>0.97325579732691192</v>
       </c>
       <c r="EU24">
         <f t="shared" ca="1" si="98"/>
@@ -15264,7 +15264,7 @@
       </c>
       <c r="EX24">
         <f t="shared" ca="1" si="101"/>
-        <v>0.93793361041715262</v>
+        <v>0</v>
       </c>
       <c r="EY24" s="5"/>
       <c r="EZ24" s="5"/>
@@ -15300,7 +15300,7 @@
       </c>
       <c r="FL24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.65342667539434651</v>
+        <v>0</v>
       </c>
       <c r="FM24">
         <f t="shared" ca="1" si="10"/>
@@ -15332,15 +15332,15 @@
       </c>
       <c r="FT24">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>0.84575650013894399</v>
       </c>
       <c r="FU24">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>2.5472009914185518</v>
       </c>
       <c r="FV24">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>5.0886131612081531</v>
       </c>
       <c r="FW24">
         <f t="shared" ca="1" si="20"/>
@@ -15352,7 +15352,7 @@
       </c>
       <c r="FY24">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1.3789870582118537</v>
       </c>
       <c r="FZ24">
         <f t="shared" ca="1" si="23"/>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="GN24">
         <f t="shared" ref="GN24" ca="1" si="185">MAX(FK24:FL25)</f>
-        <v>0.65342667539434651</v>
+        <v>0</v>
       </c>
       <c r="GP24">
         <f t="shared" ref="GP24" ca="1" si="186">MAX(FM24:FN25)</f>
@@ -15402,19 +15402,19 @@
       </c>
       <c r="GV24">
         <f t="shared" ref="GV24" ca="1" si="189">MAX(FS24:FT25)</f>
-        <v>0</v>
+        <v>0.84575650013894399</v>
       </c>
       <c r="GX24">
         <f t="shared" ref="GX24" ca="1" si="190">MAX(FU24:FV25)</f>
-        <v>0</v>
+        <v>5.0886131612081531</v>
       </c>
       <c r="GZ24">
         <f t="shared" ref="GZ24" ca="1" si="191">MAX(FW24:FX25)</f>
-        <v>7.5221613014174036</v>
+        <v>0</v>
       </c>
       <c r="HB24">
         <f t="shared" ref="HB24" ca="1" si="192">MAX(FY24:FZ25)</f>
-        <v>0</v>
+        <v>1.3789870582118537</v>
       </c>
       <c r="HD24">
         <f t="shared" ref="HD24" ca="1" si="193">MAX(GA24:GB25)</f>
@@ -15763,103 +15763,103 @@
       <c r="CT25" s="5"/>
       <c r="CU25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.8592005557173279</v>
+        <v>0.91336347249605054</v>
       </c>
       <c r="CV25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.6928616395483701</v>
+        <v>0.73276918121673451</v>
       </c>
       <c r="CW25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.32133423363651636</v>
+        <v>0.29046861085649078</v>
       </c>
       <c r="CX25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.48951479299861822</v>
+        <v>0.54736370350357577</v>
       </c>
       <c r="CY25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.69197991252215196</v>
+        <v>0.12986787088498908</v>
       </c>
       <c r="CZ25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.27943461141194015</v>
+        <v>0.69701733615774353</v>
       </c>
       <c r="DA25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.12641410255798935</v>
+        <v>0.18740797884037064</v>
       </c>
       <c r="DB25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.62601546169954292</v>
+        <v>0.68796697228018522</v>
       </c>
       <c r="DC25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.72519101938620856</v>
+        <v>0.99527852230960956</v>
       </c>
       <c r="DD25">
         <f t="shared" ca="1" si="38"/>
-        <v>6.5801870057053735E-2</v>
+        <v>0.73800385704375515</v>
       </c>
       <c r="DE25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.46593275182579219</v>
+        <v>0.14132048595830815</v>
       </c>
       <c r="DF25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.87278190401920175</v>
+        <v>0.19237105894856632</v>
       </c>
       <c r="DG25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.75634531349081979</v>
+        <v>0.34200819152373252</v>
       </c>
       <c r="DH25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.181402874547266</v>
+        <v>0.30664413270649182</v>
       </c>
       <c r="DI25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.8329123531580801</v>
+        <v>0.27449790091058701</v>
       </c>
       <c r="DJ25">
         <f t="shared" ca="1" si="38"/>
-        <v>0.66623243498166107</v>
+        <v>0.26212905732402136</v>
       </c>
       <c r="DK25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.76818885474867227</v>
+        <v>0.36190330661129022</v>
       </c>
       <c r="DL25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.54478765323489264</v>
+        <v>0.32723847614184209</v>
       </c>
       <c r="DM25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.92701290651719659</v>
+        <v>0.30698559313641638</v>
       </c>
       <c r="DN25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.30588167604290073</v>
+        <v>0.71422376050232039</v>
       </c>
       <c r="DO25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.48597331609562189</v>
+        <v>0.74725485667883285</v>
       </c>
       <c r="DP25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.20609430460089229</v>
+        <v>0.58520623262938287</v>
       </c>
       <c r="DQ25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.81988021600114136</v>
+        <v>0.83254821724875794</v>
       </c>
       <c r="DR25">
         <f t="shared" ca="1" si="92"/>
-        <v>0.28235498491018074</v>
+        <v>0.45945126702560135</v>
       </c>
       <c r="DS25">
         <f t="shared" ca="1" si="92"/>
-        <v>3.9491545133109929E-2</v>
+        <v>0.18955053204172889</v>
       </c>
       <c r="DT25" s="5"/>
       <c r="DU25" s="5"/>
@@ -15867,7 +15867,7 @@
       <c r="DY25" s="5"/>
       <c r="DZ25">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>0.91336347249605054</v>
       </c>
       <c r="EA25">
         <f t="shared" ca="1" si="115"/>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="EH25">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>0.99527852230960956</v>
       </c>
       <c r="EI25">
         <f t="shared" ca="1" si="123"/>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="ER25">
         <f t="shared" ca="1" si="95"/>
-        <v>0.92701290651719659</v>
+        <v>0</v>
       </c>
       <c r="ES25">
         <f t="shared" ca="1" si="96"/>
@@ -16043,7 +16043,7 @@
       </c>
       <c r="FW25">
         <f t="shared" ca="1" si="20"/>
-        <v>7.5221613014174036</v>
+        <v>0</v>
       </c>
       <c r="FX25">
         <f t="shared" ca="1" si="21"/>
@@ -16371,103 +16371,103 @@
       <c r="CT26" s="5"/>
       <c r="CU26">
         <f t="shared" ca="1" si="38"/>
-        <v>4.7308977130858465E-2</v>
+        <v>0.59843271873363002</v>
       </c>
       <c r="CV26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.60950171826602839</v>
+        <v>0.43938471516073163</v>
       </c>
       <c r="CW26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.52590979872013699</v>
+        <v>0.23182772146408659</v>
       </c>
       <c r="CX26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.77394221791914486</v>
+        <v>0.15473468869647222</v>
       </c>
       <c r="CY26">
         <f t="shared" ca="1" si="38"/>
-        <v>1.9569185197291117E-2</v>
+        <v>0.56673192084083857</v>
       </c>
       <c r="CZ26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.8666220972009403</v>
+        <v>0.61079902982509404</v>
       </c>
       <c r="DA26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.5656367109504673</v>
+        <v>0.71333260139396437</v>
       </c>
       <c r="DB26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.7833949041445496</v>
+        <v>0.36163171881475076</v>
       </c>
       <c r="DC26">
         <f t="shared" ca="1" si="38"/>
-        <v>5.6513929272507757E-2</v>
+        <v>0.92601407892664045</v>
       </c>
       <c r="DD26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.38459195071454455</v>
+        <v>0.5452124892219784</v>
       </c>
       <c r="DE26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.3664561478459486</v>
+        <v>0.3787256431300845</v>
       </c>
       <c r="DF26">
         <f t="shared" ca="1" si="38"/>
-        <v>9.3375076098289767E-2</v>
+        <v>0.6062529868105212</v>
       </c>
       <c r="DG26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.17706738079634798</v>
+        <v>4.8603706550053305E-3</v>
       </c>
       <c r="DH26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.83751748062620612</v>
+        <v>0.6530988641890263</v>
       </c>
       <c r="DI26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.50897362141382041</v>
+        <v>0.73891449598154413</v>
       </c>
       <c r="DJ26">
         <f t="shared" ca="1" si="38"/>
-        <v>0.92142932549885392</v>
+        <v>0.15035130422619758</v>
       </c>
       <c r="DK26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.65412788431837787</v>
+        <v>0.54759053417068182</v>
       </c>
       <c r="DL26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.49899866888857392</v>
+        <v>0.25613188421202093</v>
       </c>
       <c r="DM26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.25973539356175657</v>
+        <v>0.48586836023043078</v>
       </c>
       <c r="DN26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.80044379948174471</v>
+        <v>0.77529018089624802</v>
       </c>
       <c r="DO26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.96742357286276781</v>
+        <v>0.14996739292448702</v>
       </c>
       <c r="DP26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.89521326886862984</v>
+        <v>0.20437497621172251</v>
       </c>
       <c r="DQ26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.54997695333698815</v>
+        <v>0.51917312284491313</v>
       </c>
       <c r="DR26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.34210909574285109</v>
+        <v>0.22948537006941438</v>
       </c>
       <c r="DS26">
         <f t="shared" ca="1" si="92"/>
-        <v>0.85020157614363878</v>
+        <v>0.57985667501915183</v>
       </c>
       <c r="DT26" s="5"/>
       <c r="DU26" s="5"/>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="EH26">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>0.92601407892664045</v>
       </c>
       <c r="EI26">
         <f t="shared" ca="1" si="123"/>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="EO26">
         <f t="shared" ca="1" si="129"/>
-        <v>0.92142932549885392</v>
+        <v>0</v>
       </c>
       <c r="EP26">
         <f t="shared" ca="1" si="93"/>
@@ -16555,7 +16555,7 @@
       </c>
       <c r="ET26">
         <f t="shared" ca="1" si="97"/>
-        <v>0.96742357286276781</v>
+        <v>0</v>
       </c>
       <c r="EU26">
         <f t="shared" ca="1" si="98"/>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="FT26">
         <f t="shared" ca="1" si="17"/>
-        <v>2.9383666954438445</v>
+        <v>0</v>
       </c>
       <c r="FU26">
         <f t="shared" ca="1" si="18"/>
@@ -16709,11 +16709,11 @@
       </c>
       <c r="GV26">
         <f t="shared" ref="GV26" ca="1" si="202">MAX(FS26:FT27)</f>
-        <v>2.9383666954438445</v>
+        <v>0</v>
       </c>
       <c r="GX26">
         <f t="shared" ref="GX26" ca="1" si="203">MAX(FU26:FV27)</f>
-        <v>0</v>
+        <v>7.8349628742943747</v>
       </c>
       <c r="GZ26">
         <f t="shared" ref="GZ26" ca="1" si="204">MAX(FW26:FX27)</f>
@@ -17070,103 +17070,103 @@
       <c r="CT27" s="5"/>
       <c r="CU27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.46836040034862758</v>
+        <v>0.11277005369815685</v>
       </c>
       <c r="CV27">
         <f t="shared" ca="1" si="38"/>
-        <v>8.0273179279244156E-2</v>
+        <v>0.10258902643254897</v>
       </c>
       <c r="CW27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.11940723648062723</v>
+        <v>0.61344645016055921</v>
       </c>
       <c r="CX27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.31121783457185814</v>
+        <v>0.17369738388924827</v>
       </c>
       <c r="CY27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.67612006848698936</v>
+        <v>0.18698452372746222</v>
       </c>
       <c r="CZ27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.84512348395004533</v>
+        <v>0.64829608467762745</v>
       </c>
       <c r="DA27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.61297908569506054</v>
+        <v>0.83990441876838229</v>
       </c>
       <c r="DB27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.31492177068101623</v>
+        <v>0.6294245087594027</v>
       </c>
       <c r="DC27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.8319853535315419</v>
+        <v>0.95631753350103943</v>
       </c>
       <c r="DD27">
         <f t="shared" ca="1" si="38"/>
-        <v>2.9548480133448574E-2</v>
+        <v>0.69819225585514744</v>
       </c>
       <c r="DE27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.76015726521215421</v>
+        <v>2.9160941987067535E-2</v>
       </c>
       <c r="DF27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.77909362829451145</v>
+        <v>0.78874539098123653</v>
       </c>
       <c r="DG27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.69079147259613738</v>
+        <v>0.38875068695652815</v>
       </c>
       <c r="DH27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.18271676043274387</v>
+        <v>0.68801963916989195</v>
       </c>
       <c r="DI27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.91684031095459539</v>
+        <v>0.84996331875530362</v>
       </c>
       <c r="DJ27">
         <f t="shared" ca="1" si="38"/>
-        <v>0.18110836096402272</v>
+        <v>0.70924237743607998</v>
       </c>
       <c r="DK27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.85367297082531435</v>
+        <v>0.96951439518860161</v>
       </c>
       <c r="DL27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.89296769145309096</v>
+        <v>0.94251642959984294</v>
       </c>
       <c r="DM27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.44595766705242701</v>
+        <v>0.5218723148977602</v>
       </c>
       <c r="DN27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.51445539193560819</v>
+        <v>0.25300496102437808</v>
       </c>
       <c r="DO27">
         <f t="shared" ca="1" si="92"/>
-        <v>2.8569308226803924E-2</v>
+        <v>0.20663929559660754</v>
       </c>
       <c r="DP27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.44183793148194772</v>
+        <v>0.39058101615283414</v>
       </c>
       <c r="DQ27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.17416862933406008</v>
+        <v>0.21559505109147714</v>
       </c>
       <c r="DR27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.86870352605584811</v>
+        <v>0.77761156163361578</v>
       </c>
       <c r="DS27">
         <f t="shared" ca="1" si="92"/>
-        <v>0.31283617244174644</v>
+        <v>0.86422490162510568</v>
       </c>
       <c r="DT27" s="5"/>
       <c r="DU27" s="5"/>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="EH27">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>0.95631753350103943</v>
       </c>
       <c r="EI27">
         <f t="shared" ca="1" si="123"/>
@@ -17230,7 +17230,7 @@
       </c>
       <c r="EN27">
         <f t="shared" ca="1" si="128"/>
-        <v>0.91684031095459539</v>
+        <v>0</v>
       </c>
       <c r="EO27">
         <f t="shared" ca="1" si="129"/>
@@ -17238,11 +17238,11 @@
       </c>
       <c r="EP27">
         <f t="shared" ca="1" si="93"/>
-        <v>0</v>
+        <v>0.96951439518860161</v>
       </c>
       <c r="EQ27">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>0.94251642959984294</v>
       </c>
       <c r="ER27">
         <f t="shared" ca="1" si="95"/>
@@ -17334,7 +17334,7 @@
       </c>
       <c r="FS27">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4662251603170366</v>
+        <v>0</v>
       </c>
       <c r="FT27">
         <f t="shared" ca="1" si="17"/>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="FU27">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>7.8349628742943747</v>
       </c>
       <c r="FV27">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>6.0731750828677526</v>
       </c>
       <c r="FW27">
         <f t="shared" ca="1" si="20"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="FA31" s="6">
         <f ca="1">COUNTIF(DZ4:EX27,0)</f>
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:241" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18025,7 +18025,7 @@
       </c>
       <c r="FA32" s="9">
         <f ca="1">FA31/FA30</f>
-        <v>0.80769230769230771</v>
+        <v>0.79585798816568043</v>
       </c>
       <c r="FB32" s="9"/>
     </row>
@@ -18676,103 +18676,103 @@
       <c r="CT37" s="5"/>
       <c r="CU37">
         <f ca="1">RAND()</f>
-        <v>0.10600396262584921</v>
+        <v>0.48137251523154945</v>
       </c>
       <c r="CV37">
         <f t="shared" ref="CV37:DS47" ca="1" si="208">RAND()</f>
-        <v>0.85862838711738698</v>
+        <v>0.19918196077594985</v>
       </c>
       <c r="CW37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.59127354730876502</v>
+        <v>0.14043169584105175</v>
       </c>
       <c r="CX37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.47604601640046973</v>
+        <v>0.78717238139662127</v>
       </c>
       <c r="CY37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.6714671439015466</v>
+        <v>0.43799245503593887</v>
       </c>
       <c r="CZ37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.76816358529527273</v>
+        <v>0.70946943735068546</v>
       </c>
       <c r="DA37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.34699193003384077</v>
+        <v>0.30863136550765924</v>
       </c>
       <c r="DB37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.27128175239968955</v>
+        <v>0.88553839379419719</v>
       </c>
       <c r="DC37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.39736924638583027</v>
+        <v>0.64993509959564966</v>
       </c>
       <c r="DD37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.68948373384092254</v>
+        <v>0.84071900842531289</v>
       </c>
       <c r="DE37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.84271051902053695</v>
+        <v>0.46135478716646583</v>
       </c>
       <c r="DF37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.8632468586013986</v>
+        <v>0.66758040642984684</v>
       </c>
       <c r="DG37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.86576591009385639</v>
+        <v>0.78232383028969232</v>
       </c>
       <c r="DH37">
         <f t="shared" ca="1" si="208"/>
-        <v>2.2381631885577624E-2</v>
+        <v>0.99244838889552311</v>
       </c>
       <c r="DI37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.81846704493773192</v>
+        <v>3.5597300193711101E-2</v>
       </c>
       <c r="DJ37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.16676775447085179</v>
+        <v>0.56455900970804163</v>
       </c>
       <c r="DK37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.94110173698224375</v>
+        <v>0.39561797895768447</v>
       </c>
       <c r="DL37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.71214809973678439</v>
+        <v>0.21243387750360454</v>
       </c>
       <c r="DM37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.6424522538866887</v>
+        <v>0.23843967729963478</v>
       </c>
       <c r="DN37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.41680438682472576</v>
+        <v>0.91064197819577031</v>
       </c>
       <c r="DO37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.54096553387758839</v>
+        <v>0.56973156629365385</v>
       </c>
       <c r="DP37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.28107636429408944</v>
+        <v>0.99070995928011607</v>
       </c>
       <c r="DQ37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96516602955870145</v>
+        <v>0.94884272074381903</v>
       </c>
       <c r="DR37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.87316069917930694</v>
+        <v>0.93831455383757645</v>
       </c>
       <c r="DS37">
         <f t="shared" ca="1" si="208"/>
-        <v>0.13645135205639058</v>
+        <v>0.58103625855440744</v>
       </c>
       <c r="DT37" s="5"/>
       <c r="DU37" s="5"/>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="EM37">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.99244838889552311</v>
       </c>
       <c r="EN37">
         <f t="shared" ca="1" si="209"/>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="EP37">
         <f t="shared" ca="1" si="209"/>
-        <v>0.94110173698224375</v>
+        <v>0</v>
       </c>
       <c r="EQ37">
         <f t="shared" ref="EQ37:EX52" ca="1" si="210">IF(DL37&gt;($GD$1+0.001), DL37, 0)</f>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="ES37">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.91064197819577031</v>
       </c>
       <c r="ET37">
         <f t="shared" ca="1" si="210"/>
@@ -18864,15 +18864,15 @@
       </c>
       <c r="EU37">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.99070995928011607</v>
       </c>
       <c r="EV37">
         <f t="shared" ca="1" si="210"/>
-        <v>0.96516602955870145</v>
+        <v>0.94884272074381903</v>
       </c>
       <c r="EW37">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.93831455383757645</v>
       </c>
       <c r="EX37">
         <f t="shared" ca="1" si="210"/>
@@ -19291,103 +19291,103 @@
       <c r="CT38" s="5"/>
       <c r="CU38">
         <f t="shared" ref="CU38:DJ60" ca="1" si="247">RAND()</f>
-        <v>0.38200719972766617</v>
+        <v>0.81181921998425421</v>
       </c>
       <c r="CV38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.30694845394897696</v>
+        <v>0.38056009785610123</v>
       </c>
       <c r="CW38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.90665577856691737</v>
+        <v>8.0235960946239082E-2</v>
       </c>
       <c r="CX38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.50720892666840278</v>
+        <v>4.2301690481754028E-2</v>
       </c>
       <c r="CY38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.39626178399238088</v>
+        <v>0.8065880786634162</v>
       </c>
       <c r="CZ38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.38285559893061205</v>
+        <v>0.20621707543952783</v>
       </c>
       <c r="DA38">
         <f t="shared" ca="1" si="208"/>
-        <v>6.5637822220026121E-2</v>
+        <v>0.24814995990061373</v>
       </c>
       <c r="DB38">
         <f t="shared" ca="1" si="208"/>
-        <v>5.2557949302174944E-2</v>
+        <v>0.9920483888055539</v>
       </c>
       <c r="DC38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.29652957544979219</v>
+        <v>0.79948310530299493</v>
       </c>
       <c r="DD38">
         <f t="shared" ca="1" si="208"/>
-        <v>8.2610639898874849E-2</v>
+        <v>7.2682184220067003E-2</v>
       </c>
       <c r="DE38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.21104932848980507</v>
+        <v>0.92380267905496938</v>
       </c>
       <c r="DF38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.21145139774858113</v>
+        <v>0.20696969758342676</v>
       </c>
       <c r="DG38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.27493577593642382</v>
+        <v>0.85794953325696333</v>
       </c>
       <c r="DH38">
         <f t="shared" ca="1" si="208"/>
-        <v>4.2679203121742448E-2</v>
+        <v>5.3610945115110109E-2</v>
       </c>
       <c r="DI38">
         <f t="shared" ca="1" si="208"/>
-        <v>9.4510430768591336E-2</v>
+        <v>0.91233536414073779</v>
       </c>
       <c r="DJ38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.61434626327568864</v>
+        <v>0.58985758031479829</v>
       </c>
       <c r="DK38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.19658622536537251</v>
+        <v>0.79333447143233593</v>
       </c>
       <c r="DL38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.91376723567058593</v>
+        <v>0.73542975062254679</v>
       </c>
       <c r="DM38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.29562025112330559</v>
+        <v>7.897044312004331E-3</v>
       </c>
       <c r="DN38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.5427167023878201</v>
+        <v>4.4234514897779298E-2</v>
       </c>
       <c r="DO38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.76526634773668589</v>
+        <v>0.49852060526954323</v>
       </c>
       <c r="DP38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.3818274169718161</v>
+        <v>0.31685025970874858</v>
       </c>
       <c r="DQ38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.2118898001912497</v>
+        <v>0.93283213281993127</v>
       </c>
       <c r="DR38">
         <f t="shared" ca="1" si="208"/>
-        <v>0.89369969427462692</v>
+        <v>0.60005359472150477</v>
       </c>
       <c r="DS38">
         <f t="shared" ca="1" si="208"/>
-        <v>3.9628606171632108E-2</v>
+        <v>0.3378082400902177</v>
       </c>
       <c r="DT38" s="5"/>
       <c r="DU38" s="5"/>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="EB38">
         <f t="shared" ca="1" si="209"/>
-        <v>0.90665577856691737</v>
+        <v>0</v>
       </c>
       <c r="EC38">
         <f t="shared" ca="1" si="209"/>
@@ -19423,7 +19423,7 @@
       </c>
       <c r="EG38">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.9920483888055539</v>
       </c>
       <c r="EH38">
         <f t="shared" ca="1" si="209"/>
@@ -19435,7 +19435,7 @@
       </c>
       <c r="EJ38">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.92380267905496938</v>
       </c>
       <c r="EK38">
         <f t="shared" ca="1" si="209"/>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="EN38">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.91233536414073779</v>
       </c>
       <c r="EO38">
         <f t="shared" ca="1" si="209"/>
@@ -19463,7 +19463,7 @@
       </c>
       <c r="EQ38">
         <f t="shared" ca="1" si="210"/>
-        <v>0.91376723567058593</v>
+        <v>0</v>
       </c>
       <c r="ER38">
         <f t="shared" ca="1" si="210"/>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="EV38">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.93283213281993127</v>
       </c>
       <c r="EW38">
         <f t="shared" ca="1" si="210"/>
@@ -19815,103 +19815,103 @@
       <c r="CT39" s="5"/>
       <c r="CU39">
         <f t="shared" ca="1" si="247"/>
-        <v>0.30550461087849046</v>
+        <v>0.26888491296367667</v>
       </c>
       <c r="CV39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.90373742097245335</v>
+        <v>0.64168788241571451</v>
       </c>
       <c r="CW39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.6387374973856238</v>
+        <v>0.53184942574426974</v>
       </c>
       <c r="CX39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.40921262420227078</v>
+        <v>0.23882212756815835</v>
       </c>
       <c r="CY39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.27108707933128673</v>
+        <v>1.0016513564341967E-2</v>
       </c>
       <c r="CZ39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.9272318850206599</v>
+        <v>0.81999075120264353</v>
       </c>
       <c r="DA39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.86845083922837973</v>
+        <v>0.94167532662886877</v>
       </c>
       <c r="DB39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.74676112113708015</v>
+        <v>0.70740842265863291</v>
       </c>
       <c r="DC39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.33457699746381864</v>
+        <v>0.84987373995621796</v>
       </c>
       <c r="DD39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.45811215019889906</v>
+        <v>0.95700319866140149</v>
       </c>
       <c r="DE39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.41667979079214046</v>
+        <v>0.90137415617384187</v>
       </c>
       <c r="DF39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.37645994018352902</v>
+        <v>0.90660367490347449</v>
       </c>
       <c r="DG39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.89199042576634269</v>
+        <v>0.30669417870841331</v>
       </c>
       <c r="DH39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.57163370028733917</v>
+        <v>0.2049716665477056</v>
       </c>
       <c r="DI39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.73377964515828442</v>
+        <v>0.40722412128752994</v>
       </c>
       <c r="DJ39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.77338843712232852</v>
+        <v>0.29186726289816967</v>
       </c>
       <c r="DK39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.18056567845939975</v>
+        <v>0.3961079988907269</v>
       </c>
       <c r="DL39">
         <f t="shared" ca="1" si="208"/>
-        <v>2.738250397634423E-3</v>
+        <v>0.53795623846606155</v>
       </c>
       <c r="DM39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.77036957605768419</v>
+        <v>0.26105659567297179</v>
       </c>
       <c r="DN39">
         <f t="shared" ca="1" si="208"/>
-        <v>7.5175468288642411E-2</v>
+        <v>5.4945162530886327E-2</v>
       </c>
       <c r="DO39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.54162910036403444</v>
+        <v>0.14607172691631254</v>
       </c>
       <c r="DP39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.38375123292933144</v>
+        <v>0.65078682430401014</v>
       </c>
       <c r="DQ39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.90573575943325435</v>
+        <v>0.81668273782587919</v>
       </c>
       <c r="DR39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.18200357638397335</v>
+        <v>0.72087827819652806</v>
       </c>
       <c r="DS39">
         <f t="shared" ca="1" si="208"/>
-        <v>0.7460149479391408</v>
+        <v>0.79733808381952542</v>
       </c>
       <c r="DT39" s="5"/>
       <c r="DU39" s="5"/>
@@ -19923,7 +19923,7 @@
       </c>
       <c r="EA39">
         <f t="shared" ca="1" si="209"/>
-        <v>0.90373742097245335</v>
+        <v>0</v>
       </c>
       <c r="EB39">
         <f t="shared" ca="1" si="209"/>
@@ -19939,11 +19939,11 @@
       </c>
       <c r="EE39">
         <f t="shared" ca="1" si="209"/>
-        <v>0.9272318850206599</v>
+        <v>0</v>
       </c>
       <c r="EF39">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.94167532662886877</v>
       </c>
       <c r="EG39">
         <f t="shared" ca="1" si="209"/>
@@ -19955,15 +19955,15 @@
       </c>
       <c r="EI39">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.95700319866140149</v>
       </c>
       <c r="EJ39">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.90137415617384187</v>
       </c>
       <c r="EK39">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.90660367490347449</v>
       </c>
       <c r="EL39">
         <f t="shared" ca="1" si="209"/>
@@ -20007,7 +20007,7 @@
       </c>
       <c r="EV39">
         <f t="shared" ca="1" si="210"/>
-        <v>0.90573575943325435</v>
+        <v>0</v>
       </c>
       <c r="EW39">
         <f t="shared" ca="1" si="210"/>
@@ -20153,7 +20153,7 @@
       </c>
       <c r="GV39">
         <f t="shared" ref="GV39" ca="1" si="256">MAX(FS39:FT40)</f>
-        <v>0</v>
+        <v>5.6095802920385435E-2</v>
       </c>
       <c r="GX39">
         <f t="shared" ref="GX39" ca="1" si="257">MAX(FU39:FV40)</f>
@@ -20436,103 +20436,103 @@
       <c r="CT40" s="5"/>
       <c r="CU40">
         <f t="shared" ca="1" si="247"/>
-        <v>0.20361851377274731</v>
+        <v>7.2973851164319092E-2</v>
       </c>
       <c r="CV40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.94069718220105214</v>
+        <v>0.48195714475608065</v>
       </c>
       <c r="CW40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.79706856075168897</v>
+        <v>0.38157395845016284</v>
       </c>
       <c r="CX40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.13586380865411551</v>
+        <v>3.8352591715036799E-2</v>
       </c>
       <c r="CY40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.7949956536125321</v>
+        <v>0.73596594458498654</v>
       </c>
       <c r="CZ40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.64750436133928535</v>
+        <v>1.2083885137307404E-2</v>
       </c>
       <c r="DA40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.69551020089677262</v>
+        <v>0.55284950340787742</v>
       </c>
       <c r="DB40">
         <f t="shared" ca="1" si="208"/>
-        <v>3.9285637020220143E-2</v>
+        <v>0.94780133091455609</v>
       </c>
       <c r="DC40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.79251869458648727</v>
+        <v>0.99808164580336467</v>
       </c>
       <c r="DD40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.39839160269618934</v>
+        <v>7.4098718747590331E-2</v>
       </c>
       <c r="DE40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.56788010676306455</v>
+        <v>6.1214974011171597E-2</v>
       </c>
       <c r="DF40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.20050240054614377</v>
+        <v>0.81463365247314379</v>
       </c>
       <c r="DG40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.13592781874364479</v>
+        <v>0.33117419377378143</v>
       </c>
       <c r="DH40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.83732256998878685</v>
+        <v>0.50725478299470184</v>
       </c>
       <c r="DI40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.26146618219947548</v>
+        <v>0.15670014169043844</v>
       </c>
       <c r="DJ40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.40538943237445035</v>
+        <v>0.98933104423772966</v>
       </c>
       <c r="DK40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.9608489335505801</v>
+        <v>0.60728150198595954</v>
       </c>
       <c r="DL40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.2922728336424103</v>
+        <v>0.57128764451779879</v>
       </c>
       <c r="DM40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.61158058890374511</v>
+        <v>0.69347660513623111</v>
       </c>
       <c r="DN40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.9400566929897306</v>
+        <v>0.37716855119640358</v>
       </c>
       <c r="DO40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.75049751743018589</v>
+        <v>0.95726723630749877</v>
       </c>
       <c r="DP40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.21051154091527424</v>
+        <v>0.58580337642020619</v>
       </c>
       <c r="DQ40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.21688112447361374</v>
+        <v>0.89335977851905646</v>
       </c>
       <c r="DR40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.58287917712473425</v>
+        <v>0.6127375370289837</v>
       </c>
       <c r="DS40">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96660657051714716</v>
+        <v>0.20568648457301342</v>
       </c>
       <c r="DT40" s="5"/>
       <c r="DU40" s="5"/>
@@ -20544,7 +20544,7 @@
       </c>
       <c r="EA40">
         <f t="shared" ca="1" si="209"/>
-        <v>0.94069718220105214</v>
+        <v>0</v>
       </c>
       <c r="EB40">
         <f t="shared" ca="1" si="209"/>
@@ -20568,11 +20568,11 @@
       </c>
       <c r="EG40">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.94780133091455609</v>
       </c>
       <c r="EH40">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.99808164580336467</v>
       </c>
       <c r="EI40">
         <f t="shared" ca="1" si="209"/>
@@ -20600,11 +20600,11 @@
       </c>
       <c r="EO40">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.98933104423772966</v>
       </c>
       <c r="EP40">
         <f t="shared" ca="1" si="209"/>
-        <v>0.9608489335505801</v>
+        <v>0</v>
       </c>
       <c r="EQ40">
         <f t="shared" ca="1" si="210"/>
@@ -20616,11 +20616,11 @@
       </c>
       <c r="ES40">
         <f t="shared" ca="1" si="210"/>
-        <v>0.9400566929897306</v>
+        <v>0</v>
       </c>
       <c r="ET40">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.95726723630749877</v>
       </c>
       <c r="EU40">
         <f t="shared" ca="1" si="210"/>
@@ -20636,7 +20636,7 @@
       </c>
       <c r="EX40">
         <f t="shared" ca="1" si="210"/>
-        <v>0.96660657051714716</v>
+        <v>0</v>
       </c>
       <c r="EY40" s="5"/>
       <c r="EZ40" s="5"/>
@@ -20704,7 +20704,7 @@
       </c>
       <c r="FT40">
         <f t="shared" ca="1" si="226"/>
-        <v>0</v>
+        <v>5.6095802920385435E-2</v>
       </c>
       <c r="FU40">
         <f t="shared" ca="1" si="227"/>
@@ -20960,103 +20960,103 @@
       <c r="CT41" s="5"/>
       <c r="CU41">
         <f t="shared" ca="1" si="247"/>
-        <v>0.48160034314322997</v>
+        <v>0.90536321220368499</v>
       </c>
       <c r="CV41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.39115482282662928</v>
+        <v>0.1226927494979867</v>
       </c>
       <c r="CW41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.14987534871133879</v>
+        <v>0.924091752734019</v>
       </c>
       <c r="CX41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.47899237193989319</v>
+        <v>0.1629891990746305</v>
       </c>
       <c r="CY41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96902378371148334</v>
+        <v>0.52411459633827329</v>
       </c>
       <c r="CZ41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.41021864528415075</v>
+        <v>0.37384118465713467</v>
       </c>
       <c r="DA41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.98182266686895225</v>
+        <v>0.82397923315057842</v>
       </c>
       <c r="DB41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.81041218913411028</v>
+        <v>0.12100747033612358</v>
       </c>
       <c r="DC41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.51653159005379234</v>
+        <v>0.91539951115747187</v>
       </c>
       <c r="DD41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.41549227201664363</v>
+        <v>0.12737808797595751</v>
       </c>
       <c r="DE41">
         <f t="shared" ca="1" si="208"/>
-        <v>5.0170238686284563E-3</v>
+        <v>0.14923280112972692</v>
       </c>
       <c r="DF41">
         <f t="shared" ca="1" si="208"/>
-        <v>4.1358419316114392E-2</v>
+        <v>0.95059140869731185</v>
       </c>
       <c r="DG41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.24600449797083268</v>
+        <v>0.71515082723771284</v>
       </c>
       <c r="DH41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.75314932940621349</v>
+        <v>0.41179761011403992</v>
       </c>
       <c r="DI41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.56500290924694052</v>
+        <v>0.76735453760013006</v>
       </c>
       <c r="DJ41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.20874009115388115</v>
+        <v>0.57665405763100341</v>
       </c>
       <c r="DK41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.92055645657919227</v>
+        <v>0.38333138748907658</v>
       </c>
       <c r="DL41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.13295153584378305</v>
+        <v>0.88429355575729673</v>
       </c>
       <c r="DM41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.36718667266571814</v>
+        <v>8.4129793549169163E-2</v>
       </c>
       <c r="DN41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.56757448358283336</v>
+        <v>0.67177481618797963</v>
       </c>
       <c r="DO41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.52179522544486456</v>
+        <v>0.16137636532705302</v>
       </c>
       <c r="DP41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.87703539531528629</v>
+        <v>0.90092906290330688</v>
       </c>
       <c r="DQ41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.8066148288663213</v>
+        <v>0.61468076383667891</v>
       </c>
       <c r="DR41">
         <f t="shared" ca="1" si="208"/>
-        <v>9.5996777497407426E-2</v>
+        <v>0.78526481129918113</v>
       </c>
       <c r="DS41">
         <f t="shared" ca="1" si="208"/>
-        <v>0.80487031544943932</v>
+        <v>0.48353514594238012</v>
       </c>
       <c r="DT41" s="5"/>
       <c r="DU41" s="5"/>
@@ -21064,7 +21064,7 @@
       <c r="DY41" s="5"/>
       <c r="DZ41">
         <f t="shared" ca="1" si="248"/>
-        <v>0</v>
+        <v>0.90536321220368499</v>
       </c>
       <c r="EA41">
         <f t="shared" ca="1" si="209"/>
@@ -21072,7 +21072,7 @@
       </c>
       <c r="EB41">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.924091752734019</v>
       </c>
       <c r="EC41">
         <f t="shared" ca="1" si="209"/>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="ED41">
         <f t="shared" ca="1" si="209"/>
-        <v>0.96902378371148334</v>
+        <v>0</v>
       </c>
       <c r="EE41">
         <f t="shared" ca="1" si="209"/>
@@ -21088,7 +21088,7 @@
       </c>
       <c r="EF41">
         <f t="shared" ca="1" si="209"/>
-        <v>0.98182266686895225</v>
+        <v>0</v>
       </c>
       <c r="EG41">
         <f t="shared" ca="1" si="209"/>
@@ -21096,7 +21096,7 @@
       </c>
       <c r="EH41">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.91539951115747187</v>
       </c>
       <c r="EI41">
         <f t="shared" ca="1" si="209"/>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="EK41">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.95059140869731185</v>
       </c>
       <c r="EL41">
         <f t="shared" ca="1" si="209"/>
@@ -21128,7 +21128,7 @@
       </c>
       <c r="EP41">
         <f t="shared" ca="1" si="209"/>
-        <v>0.92055645657919227</v>
+        <v>0</v>
       </c>
       <c r="EQ41">
         <f t="shared" ca="1" si="210"/>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="FP41">
         <f t="shared" ca="1" si="222"/>
-        <v>0</v>
+        <v>4.8733345131128494E-2</v>
       </c>
       <c r="FQ41">
         <f t="shared" ca="1" si="223"/>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="FU41">
         <f t="shared" ca="1" si="227"/>
-        <v>0.38358965741488804</v>
+        <v>0</v>
       </c>
       <c r="FV41">
         <f t="shared" ca="1" si="228"/>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="GR41">
         <f t="shared" ref="GR41" ca="1" si="267">MAX(FO41:FP42)</f>
-        <v>0</v>
+        <v>4.8733345131128494E-2</v>
       </c>
       <c r="GT41">
         <f t="shared" ref="GT41" ca="1" si="268">MAX(FQ41:FR42)</f>
@@ -21298,11 +21298,11 @@
       </c>
       <c r="GV41">
         <f t="shared" ref="GV41" ca="1" si="269">MAX(FS41:FT42)</f>
-        <v>1.6885815396283306</v>
+        <v>0</v>
       </c>
       <c r="GX41">
         <f t="shared" ref="GX41" ca="1" si="270">MAX(FU41:FV42)</f>
-        <v>0.38358965741488804</v>
+        <v>0</v>
       </c>
       <c r="GZ41">
         <f t="shared" ref="GZ41" ca="1" si="271">MAX(FW41:FX42)</f>
@@ -21593,103 +21593,103 @@
       <c r="CT42" s="5"/>
       <c r="CU42">
         <f t="shared" ca="1" si="247"/>
-        <v>0.65265786565232276</v>
+        <v>0.4663771319279717</v>
       </c>
       <c r="CV42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.64681809682684099</v>
+        <v>0.21621701685954309</v>
       </c>
       <c r="CW42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.56378222420699386</v>
+        <v>0.51533723721049918</v>
       </c>
       <c r="CX42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.5970497608895704</v>
+        <v>0.39046527477162496</v>
       </c>
       <c r="CY42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.35839471005976342</v>
+        <v>9.7742383536858934E-2</v>
       </c>
       <c r="CZ42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.34609625998106874</v>
+        <v>0.53480691783986778</v>
       </c>
       <c r="DA42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.34267568734250176</v>
+        <v>0.87990067006465922</v>
       </c>
       <c r="DB42">
         <f t="shared" ca="1" si="208"/>
-        <v>7.9444500840521459E-2</v>
+        <v>0.12113153226916085</v>
       </c>
       <c r="DC42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.66526541517951809</v>
+        <v>0.29267557498418995</v>
       </c>
       <c r="DD42">
         <f t="shared" ca="1" si="208"/>
-        <v>2.5855575291519273E-2</v>
+        <v>0.31172326038101206</v>
       </c>
       <c r="DE42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.55290531544179422</v>
+        <v>0.48537764310983278</v>
       </c>
       <c r="DF42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.85068229043942944</v>
+        <v>0.76466948315181515</v>
       </c>
       <c r="DG42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.27400061983929658</v>
+        <v>0.26494651317148343</v>
       </c>
       <c r="DH42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.20767341301767361</v>
+        <v>0.8907974544811863</v>
       </c>
       <c r="DI42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.94829596088703438</v>
+        <v>0.52044086578707416</v>
       </c>
       <c r="DJ42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.62427089478993936</v>
+        <v>0.51629374948193252</v>
       </c>
       <c r="DK42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.37696786639993018</v>
+        <v>0.55073042192803845</v>
       </c>
       <c r="DL42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.34653106199696149</v>
+        <v>0.1248152612406338</v>
       </c>
       <c r="DM42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.92939763269407027</v>
+        <v>0.95514583872886216</v>
       </c>
       <c r="DN42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96347858629136596</v>
+        <v>0.85221961119117184</v>
       </c>
       <c r="DO42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.9582724406758103</v>
+        <v>9.4698115250449688E-2</v>
       </c>
       <c r="DP42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.12719700351559948</v>
+        <v>0.6756521553242596</v>
       </c>
       <c r="DQ42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.20311127651605787</v>
+        <v>0.9082179413167476</v>
       </c>
       <c r="DR42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.7366454427368303</v>
+        <v>0.41885214391525327</v>
       </c>
       <c r="DS42">
         <f t="shared" ca="1" si="208"/>
-        <v>0.55468744659529023</v>
+        <v>0.61014363134119309</v>
       </c>
       <c r="DT42" s="5"/>
       <c r="DU42" s="5"/>
@@ -21753,7 +21753,7 @@
       </c>
       <c r="EN42">
         <f t="shared" ca="1" si="209"/>
-        <v>0.94829596088703438</v>
+        <v>0</v>
       </c>
       <c r="EO42">
         <f t="shared" ca="1" si="209"/>
@@ -21769,15 +21769,15 @@
       </c>
       <c r="ER42">
         <f t="shared" ca="1" si="210"/>
-        <v>0.92939763269407027</v>
+        <v>0.95514583872886216</v>
       </c>
       <c r="ES42">
         <f t="shared" ca="1" si="210"/>
-        <v>0.96347858629136596</v>
+        <v>0</v>
       </c>
       <c r="ET42">
         <f t="shared" ca="1" si="210"/>
-        <v>0.9582724406758103</v>
+        <v>0</v>
       </c>
       <c r="EU42">
         <f t="shared" ca="1" si="210"/>
@@ -21785,7 +21785,7 @@
       </c>
       <c r="EV42">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.9082179413167476</v>
       </c>
       <c r="EW42">
         <f t="shared" ca="1" si="210"/>
@@ -21857,7 +21857,7 @@
       </c>
       <c r="FS42">
         <f t="shared" ca="1" si="225"/>
-        <v>1.6885815396283306</v>
+        <v>0</v>
       </c>
       <c r="FT42">
         <f t="shared" ca="1" si="226"/>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="FX42">
         <f t="shared" ca="1" si="230"/>
-        <v>2.1150875623067861E-2</v>
+        <v>0</v>
       </c>
       <c r="FY42">
         <f t="shared" ca="1" si="231"/>
@@ -22135,103 +22135,103 @@
       <c r="CT43" s="5"/>
       <c r="CU43">
         <f t="shared" ca="1" si="247"/>
-        <v>0.62969898865587592</v>
+        <v>0.74598267555372144</v>
       </c>
       <c r="CV43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.5150607194861011</v>
+        <v>0.12675626492867442</v>
       </c>
       <c r="CW43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.33872366929575981</v>
+        <v>0.91780262290668979</v>
       </c>
       <c r="CX43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.87079258166285511</v>
+        <v>0.66382110103607639</v>
       </c>
       <c r="CY43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.68062504088719822</v>
+        <v>3.2577006137230247E-2</v>
       </c>
       <c r="CZ43">
         <f t="shared" ca="1" si="208"/>
-        <v>9.2562501827970767E-2</v>
+        <v>0.20072439459600255</v>
       </c>
       <c r="DA43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96972046238011755</v>
+        <v>0.80194244439026363</v>
       </c>
       <c r="DB43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.59330496626586393</v>
+        <v>0.17862764400096254</v>
       </c>
       <c r="DC43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.19988176234300414</v>
+        <v>0.92365683248528407</v>
       </c>
       <c r="DD43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.35816334757453816</v>
+        <v>0.64021135269752538</v>
       </c>
       <c r="DE43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.43091217278202598</v>
+        <v>0.20599387873584518</v>
       </c>
       <c r="DF43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.91413543335535563</v>
+        <v>0.30459961473153707</v>
       </c>
       <c r="DG43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.55478990292408681</v>
+        <v>0.5004242198862886</v>
       </c>
       <c r="DH43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.76553426557971493</v>
+        <v>0.3780106060191144</v>
       </c>
       <c r="DI43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.19297204149826741</v>
+        <v>0.49697466338180729</v>
       </c>
       <c r="DJ43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.87685349245910438</v>
+        <v>0.51911579357516735</v>
       </c>
       <c r="DK43">
         <f t="shared" ca="1" si="208"/>
-        <v>1.6662477724448177E-2</v>
+        <v>0.16918122827924997</v>
       </c>
       <c r="DL43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.27177637019028233</v>
+        <v>0.33052935746327572</v>
       </c>
       <c r="DM43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.31065012383385393</v>
+        <v>0.17099880118314648</v>
       </c>
       <c r="DN43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.86335311028330919</v>
+        <v>0.27425867090621325</v>
       </c>
       <c r="DO43">
         <f t="shared" ca="1" si="208"/>
-        <v>5.8435862746226475E-2</v>
+        <v>0.41002719966751178</v>
       </c>
       <c r="DP43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.61751534226746341</v>
+        <v>0.34253352691748296</v>
       </c>
       <c r="DQ43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.59185674403906219</v>
+        <v>0.92928740999358284</v>
       </c>
       <c r="DR43">
         <f t="shared" ca="1" si="208"/>
-        <v>0.73047115765894266</v>
+        <v>0.58828640490216266</v>
       </c>
       <c r="DS43">
         <f t="shared" ca="1" si="208"/>
-        <v>7.7762779337873233E-3</v>
+        <v>0.40316142318548254</v>
       </c>
       <c r="DT43" s="5"/>
       <c r="DU43" s="5"/>
@@ -22247,7 +22247,7 @@
       </c>
       <c r="EB43">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.91780262290668979</v>
       </c>
       <c r="EC43">
         <f t="shared" ca="1" si="209"/>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="EF43">
         <f t="shared" ca="1" si="209"/>
-        <v>0.96972046238011755</v>
+        <v>0</v>
       </c>
       <c r="EG43">
         <f t="shared" ca="1" si="209"/>
@@ -22271,7 +22271,7 @@
       </c>
       <c r="EH43">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.92365683248528407</v>
       </c>
       <c r="EI43">
         <f t="shared" ca="1" si="209"/>
@@ -22283,7 +22283,7 @@
       </c>
       <c r="EK43">
         <f t="shared" ca="1" si="209"/>
-        <v>0.91413543335535563</v>
+        <v>0</v>
       </c>
       <c r="EL43">
         <f t="shared" ca="1" si="209"/>
@@ -22327,7 +22327,7 @@
       </c>
       <c r="EV43">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.92928740999358284</v>
       </c>
       <c r="EW43">
         <f t="shared" ca="1" si="210"/>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="FG43">
         <f t="shared" ca="1" si="213"/>
-        <v>0</v>
+        <v>3.5024311134139438E-2</v>
       </c>
       <c r="FH43">
         <f t="shared" ca="1" si="214"/>
@@ -22367,7 +22367,7 @@
       </c>
       <c r="FK43">
         <f t="shared" ca="1" si="217"/>
-        <v>1.1420539568199604</v>
+        <v>0</v>
       </c>
       <c r="FL43">
         <f t="shared" ca="1" si="218"/>
@@ -22375,7 +22375,7 @@
       </c>
       <c r="FM43">
         <f t="shared" ca="1" si="219"/>
-        <v>0</v>
+        <v>1.1962355985484814</v>
       </c>
       <c r="FN43">
         <f t="shared" ca="1" si="220"/>
@@ -22387,7 +22387,7 @@
       </c>
       <c r="FP43">
         <f t="shared" ca="1" si="222"/>
-        <v>0.18494772323021125</v>
+        <v>0</v>
       </c>
       <c r="FQ43">
         <f t="shared" ca="1" si="223"/>
@@ -22445,39 +22445,39 @@
       <c r="GE43" s="5"/>
       <c r="GH43">
         <f t="shared" ref="GH43" ca="1" si="275">MAX(FE43:FF44)</f>
-        <v>0</v>
+        <v>1.9659278138394192</v>
       </c>
       <c r="GJ43">
         <f t="shared" ref="GJ43" ca="1" si="276">MAX(FG43:FH44)</f>
-        <v>0</v>
+        <v>3.5024311134139438E-2</v>
       </c>
       <c r="GL43">
         <f t="shared" ref="GL43" ca="1" si="277">MAX(FI43:FJ44)</f>
-        <v>0</v>
+        <v>1.1550846924256164</v>
       </c>
       <c r="GN43">
         <f t="shared" ref="GN43" ca="1" si="278">MAX(FK43:FL44)</f>
-        <v>1.8289624219674805</v>
+        <v>0</v>
       </c>
       <c r="GP43">
         <f t="shared" ref="GP43" ca="1" si="279">MAX(FM43:FN44)</f>
-        <v>0</v>
+        <v>1.1962355985484814</v>
       </c>
       <c r="GR43">
         <f t="shared" ref="GR43" ca="1" si="280">MAX(FO43:FP44)</f>
-        <v>0.18494772323021125</v>
+        <v>0</v>
       </c>
       <c r="GT43">
         <f t="shared" ref="GT43" ca="1" si="281">MAX(FQ43:FR44)</f>
-        <v>2.5443441004737162</v>
+        <v>0</v>
       </c>
       <c r="GV43">
         <f t="shared" ref="GV43" ca="1" si="282">MAX(FS43:FT44)</f>
-        <v>1.2421000988382174</v>
+        <v>0</v>
       </c>
       <c r="GX43">
         <f t="shared" ref="GX43" ca="1" si="283">MAX(FU43:FV44)</f>
-        <v>3.1101762347109547</v>
+        <v>0</v>
       </c>
       <c r="GZ43">
         <f t="shared" ref="GZ43" ca="1" si="284">MAX(FW43:FX44)</f>
@@ -22768,103 +22768,103 @@
       <c r="CT44" s="5"/>
       <c r="CU44">
         <f t="shared" ca="1" si="247"/>
-        <v>0.80257145997985668</v>
+        <v>0.14525654937227417</v>
       </c>
       <c r="CV44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.13211486847079701</v>
+        <v>0.91592035860945575</v>
       </c>
       <c r="CW44">
         <f t="shared" ca="1" si="208"/>
-        <v>5.1848024802945369E-2</v>
+        <v>2.2285567644959037E-2</v>
       </c>
       <c r="CX44">
         <f t="shared" ca="1" si="208"/>
-        <v>7.421247884312987E-2</v>
+        <v>0.19469254571352379</v>
       </c>
       <c r="CY44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.85578519552425747</v>
+        <v>0.47400332105012588</v>
       </c>
       <c r="CZ44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.8138413324332413</v>
+        <v>0.94375720959175757</v>
       </c>
       <c r="DA44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.65726975089004092</v>
+        <v>0.22408030167014026</v>
       </c>
       <c r="DB44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.95414949199321841</v>
+        <v>0.49690161167628055</v>
       </c>
       <c r="DC44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.86075691943059729</v>
+        <v>2.3358177868881502E-2</v>
       </c>
       <c r="DD44">
         <f t="shared" ca="1" si="208"/>
-        <v>9.6200400137553599E-2</v>
+        <v>0.18964232152197402</v>
       </c>
       <c r="DE44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.79091519578546754</v>
+        <v>0.8821316605523295</v>
       </c>
       <c r="DF44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.82425804939449188</v>
+        <v>0.10772063706206136</v>
       </c>
       <c r="DG44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.98623369838520947</v>
+        <v>0.74558075197250728</v>
       </c>
       <c r="DH44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.46278469776300768</v>
+        <v>0.56863283085812399</v>
       </c>
       <c r="DI44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.92570480808902467</v>
+        <v>9.990126801133381E-2</v>
       </c>
       <c r="DJ44">
         <f t="shared" ca="1" si="208"/>
-        <v>8.0861840834852483E-2</v>
+        <v>0.81013280273777599</v>
       </c>
       <c r="DK44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.86676564697571568</v>
+        <v>0.74656183073942106</v>
       </c>
       <c r="DL44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.946989110275954</v>
+        <v>4.8644768604011457E-2</v>
       </c>
       <c r="DM44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.70348193715629126</v>
+        <v>0.33972662078763549</v>
       </c>
       <c r="DN44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96473881569040676</v>
+        <v>6.0526535215495447E-2</v>
       </c>
       <c r="DO44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.591754064705584</v>
+        <v>0.59976018961292976</v>
       </c>
       <c r="DP44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.14187908985280528</v>
+        <v>0.77015829275042169</v>
       </c>
       <c r="DQ44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.11201108965110673</v>
+        <v>0.8523923149805136</v>
       </c>
       <c r="DR44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.78545459284997698</v>
+        <v>0.67492066090077363</v>
       </c>
       <c r="DS44">
         <f t="shared" ca="1" si="208"/>
-        <v>0.17112740938883064</v>
+        <v>0.78455216742394507</v>
       </c>
       <c r="DT44" s="5"/>
       <c r="DU44" s="5"/>
@@ -22876,7 +22876,7 @@
       </c>
       <c r="EA44">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.91592035860945575</v>
       </c>
       <c r="EB44">
         <f t="shared" ca="1" si="209"/>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="EE44">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.94375720959175757</v>
       </c>
       <c r="EF44">
         <f t="shared" ca="1" si="209"/>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="EG44">
         <f t="shared" ca="1" si="209"/>
-        <v>0.95414949199321841</v>
+        <v>0</v>
       </c>
       <c r="EH44">
         <f t="shared" ca="1" si="209"/>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="EL44">
         <f t="shared" ca="1" si="209"/>
-        <v>0.98623369838520947</v>
+        <v>0</v>
       </c>
       <c r="EM44">
         <f t="shared" ca="1" si="209"/>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="EN44">
         <f t="shared" ca="1" si="209"/>
-        <v>0.92570480808902467</v>
+        <v>0</v>
       </c>
       <c r="EO44">
         <f t="shared" ca="1" si="209"/>
@@ -22940,7 +22940,7 @@
       </c>
       <c r="EQ44">
         <f t="shared" ca="1" si="210"/>
-        <v>0.946989110275954</v>
+        <v>0</v>
       </c>
       <c r="ER44">
         <f t="shared" ca="1" si="210"/>
@@ -22948,7 +22948,7 @@
       </c>
       <c r="ES44">
         <f t="shared" ca="1" si="210"/>
-        <v>0.96473881569040676</v>
+        <v>0</v>
       </c>
       <c r="ET44">
         <f t="shared" ca="1" si="210"/>
@@ -22980,7 +22980,7 @@
       </c>
       <c r="FF44">
         <f t="shared" ca="1" si="212"/>
-        <v>0</v>
+        <v>1.9659278138394192</v>
       </c>
       <c r="FG44">
         <f t="shared" ca="1" si="213"/>
@@ -22996,7 +22996,7 @@
       </c>
       <c r="FJ44">
         <f t="shared" ca="1" si="216"/>
-        <v>0</v>
+        <v>1.1550846924256164</v>
       </c>
       <c r="FK44">
         <f t="shared" ca="1" si="217"/>
@@ -23004,7 +23004,7 @@
       </c>
       <c r="FL44">
         <f t="shared" ca="1" si="218"/>
-        <v>1.8289624219674805</v>
+        <v>0</v>
       </c>
       <c r="FM44">
         <f t="shared" ca="1" si="219"/>
@@ -23024,7 +23024,7 @@
       </c>
       <c r="FQ44">
         <f t="shared" ca="1" si="223"/>
-        <v>2.5443441004737162</v>
+        <v>0</v>
       </c>
       <c r="FR44">
         <f t="shared" ca="1" si="224"/>
@@ -23032,7 +23032,7 @@
       </c>
       <c r="FS44">
         <f t="shared" ca="1" si="225"/>
-        <v>1.2421000988382174</v>
+        <v>0</v>
       </c>
       <c r="FT44">
         <f t="shared" ca="1" si="226"/>
@@ -23044,7 +23044,7 @@
       </c>
       <c r="FV44">
         <f t="shared" ca="1" si="228"/>
-        <v>3.1101762347109547</v>
+        <v>0</v>
       </c>
       <c r="FW44">
         <f t="shared" ca="1" si="229"/>
@@ -23292,103 +23292,103 @@
       <c r="CT45" s="5"/>
       <c r="CU45">
         <f t="shared" ca="1" si="247"/>
-        <v>0.16743461796830428</v>
+        <v>0.95621894821312736</v>
       </c>
       <c r="CV45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.53211491759296559</v>
+        <v>0.95744335012490256</v>
       </c>
       <c r="CW45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.46201500612792434</v>
+        <v>8.1326243261933273E-3</v>
       </c>
       <c r="CX45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.6770778837670014</v>
+        <v>0.11135417893365263</v>
       </c>
       <c r="CY45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.29411996585651701</v>
+        <v>0.76750287518744098</v>
       </c>
       <c r="CZ45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.43480692727418557</v>
+        <v>0.47510115430215594</v>
       </c>
       <c r="DA45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.42411689149440324</v>
+        <v>0.59661434936401292</v>
       </c>
       <c r="DB45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.10837876495612764</v>
+        <v>0.37629783052190235</v>
       </c>
       <c r="DC45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.1004643495047256</v>
+        <v>0.63941489842018306</v>
       </c>
       <c r="DD45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.60093464200641555</v>
+        <v>0.43234030768993637</v>
       </c>
       <c r="DE45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.73140811672395101</v>
+        <v>4.5012850246670677E-3</v>
       </c>
       <c r="DF45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.69251960610568331</v>
+        <v>0.89564861071434332</v>
       </c>
       <c r="DG45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.40743981844736443</v>
+        <v>0.448343834727713</v>
       </c>
       <c r="DH45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.44731646711609663</v>
+        <v>0.20458218203541934</v>
       </c>
       <c r="DI45">
         <f t="shared" ca="1" si="208"/>
-        <v>9.94775427501009E-2</v>
+        <v>0.77349822520592126</v>
       </c>
       <c r="DJ45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.58091474907488405</v>
+        <v>0.12859439066266087</v>
       </c>
       <c r="DK45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.30938543766281568</v>
+        <v>0.88620482045021032</v>
       </c>
       <c r="DL45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.63342925447325471</v>
+        <v>0.55327870951679059</v>
       </c>
       <c r="DM45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.52811024743644586</v>
+        <v>0.10258842558018699</v>
       </c>
       <c r="DN45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.18717839231371691</v>
+        <v>0.94027262749495599</v>
       </c>
       <c r="DO45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.42263541106361202</v>
+        <v>0.22163918207262212</v>
       </c>
       <c r="DP45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.98703767956542199</v>
+        <v>0.35698846890837344</v>
       </c>
       <c r="DQ45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.49814331808664658</v>
+        <v>0.73758586260014869</v>
       </c>
       <c r="DR45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.76201264862907792</v>
+        <v>0.37718940747568241</v>
       </c>
       <c r="DS45">
         <f t="shared" ca="1" si="208"/>
-        <v>0.90999000115908724</v>
+        <v>0.55845428069484082</v>
       </c>
       <c r="DT45" s="5"/>
       <c r="DU45" s="5"/>
@@ -23396,11 +23396,11 @@
       <c r="DY45" s="5"/>
       <c r="DZ45">
         <f t="shared" ca="1" si="248"/>
-        <v>0</v>
+        <v>0.95621894821312736</v>
       </c>
       <c r="EA45">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.95744335012490256</v>
       </c>
       <c r="EB45">
         <f t="shared" ca="1" si="209"/>
@@ -23472,7 +23472,7 @@
       </c>
       <c r="ES45">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.94027262749495599</v>
       </c>
       <c r="ET45">
         <f t="shared" ca="1" si="210"/>
@@ -23480,7 +23480,7 @@
       </c>
       <c r="EU45">
         <f t="shared" ca="1" si="210"/>
-        <v>0.98703767956542199</v>
+        <v>0</v>
       </c>
       <c r="EV45">
         <f t="shared" ca="1" si="210"/>
@@ -23492,7 +23492,7 @@
       </c>
       <c r="EX45">
         <f t="shared" ca="1" si="210"/>
-        <v>0.90999000115908724</v>
+        <v>0</v>
       </c>
       <c r="EY45" s="5"/>
       <c r="EZ45" s="5"/>
@@ -23500,11 +23500,11 @@
       <c r="FD45" s="5"/>
       <c r="FE45">
         <f t="shared" ca="1" si="211"/>
-        <v>0</v>
+        <v>2.6432640433767118</v>
       </c>
       <c r="FF45">
         <f t="shared" ca="1" si="212"/>
-        <v>0</v>
+        <v>3.2674864148306564</v>
       </c>
       <c r="FG45">
         <f t="shared" ca="1" si="213"/>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="FX45">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>0.16064095613060109</v>
       </c>
       <c r="FY45">
         <f t="shared" ca="1" si="231"/>
@@ -23602,7 +23602,7 @@
       <c r="GE45" s="5"/>
       <c r="GH45">
         <f t="shared" ref="GH45" ca="1" si="288">MAX(FE45:FF46)</f>
-        <v>0</v>
+        <v>3.2674864148306564</v>
       </c>
       <c r="GJ45">
         <f t="shared" ref="GJ45" ca="1" si="289">MAX(FG45:FH46)</f>
@@ -23618,7 +23618,7 @@
       </c>
       <c r="GP45">
         <f t="shared" ref="GP45" ca="1" si="292">MAX(FM45:FN46)</f>
-        <v>0</v>
+        <v>2.9406004392036542</v>
       </c>
       <c r="GR45">
         <f t="shared" ref="GR45" ca="1" si="293">MAX(FO45:FP46)</f>
@@ -23638,7 +23638,7 @@
       </c>
       <c r="GZ45">
         <f t="shared" ref="GZ45" ca="1" si="297">MAX(FW45:FX46)</f>
-        <v>0</v>
+        <v>0.16064095613060109</v>
       </c>
       <c r="HB45">
         <f t="shared" ref="HB45" ca="1" si="298">MAX(FY45:FZ46)</f>
@@ -23916,103 +23916,103 @@
       <c r="CT46" s="5"/>
       <c r="CU46">
         <f t="shared" ca="1" si="247"/>
-        <v>0.16080439563277926</v>
+        <v>0.46683938739298581</v>
       </c>
       <c r="CV46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.17323137960538826</v>
+        <v>0.6454787835009631</v>
       </c>
       <c r="CW46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.22099041087964577</v>
+        <v>0.21228338968122062</v>
       </c>
       <c r="CX46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.3076025945434393</v>
+        <v>0.63012743560482276</v>
       </c>
       <c r="CY46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.58805514068227938</v>
+        <v>0.64795444791317769</v>
       </c>
       <c r="CZ46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.80694667225243666</v>
+        <v>0.84327211335850605</v>
       </c>
       <c r="DA46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.38390534008054744</v>
+        <v>0.37140162700420221</v>
       </c>
       <c r="DB46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.148714844870248</v>
+        <v>0.31628383540065008</v>
       </c>
       <c r="DC46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.11122213380055279</v>
+        <v>0.2137612865227343</v>
       </c>
       <c r="DD46">
         <f t="shared" ca="1" si="208"/>
-        <v>4.4772909331583288E-2</v>
+        <v>0.91736954626567346</v>
       </c>
       <c r="DE46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.54425209844661548</v>
+        <v>0.23790454461606381</v>
       </c>
       <c r="DF46">
         <f t="shared" ca="1" si="208"/>
-        <v>1.2117862723296513E-2</v>
+        <v>0.58046342466221346</v>
       </c>
       <c r="DG46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.35574390060835759</v>
+        <v>0.48583498932488212</v>
       </c>
       <c r="DH46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.57873733315467091</v>
+        <v>0.73806169366196317</v>
       </c>
       <c r="DI46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.8808530882021417</v>
+        <v>0.86635097806948891</v>
       </c>
       <c r="DJ46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.12689996587688113</v>
+        <v>0.85537445631765707</v>
       </c>
       <c r="DK46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.87756022109932752</v>
+        <v>0.27028089607563177</v>
       </c>
       <c r="DL46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.68763488697723829</v>
+        <v>0.20224697600917518</v>
       </c>
       <c r="DM46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.72360625821177194</v>
+        <v>3.3279485699715949E-2</v>
       </c>
       <c r="DN46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.37672897426315644</v>
+        <v>0.70535818396843364</v>
       </c>
       <c r="DO46">
         <f t="shared" ca="1" si="208"/>
-        <v>5.0397322977587811E-3</v>
+        <v>0.63647875192705861</v>
       </c>
       <c r="DP46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.80896140607427014</v>
+        <v>7.8438683957962163E-2</v>
       </c>
       <c r="DQ46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.66430559801491862</v>
+        <v>0.46464921912190349</v>
       </c>
       <c r="DR46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96890520847995709</v>
+        <v>0.85879808512424394</v>
       </c>
       <c r="DS46">
         <f t="shared" ca="1" si="208"/>
-        <v>0.26668167067418025</v>
+        <v>0.57586870984747562</v>
       </c>
       <c r="DT46" s="5"/>
       <c r="DU46" s="5"/>
@@ -24056,7 +24056,7 @@
       </c>
       <c r="EI46">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.91736954626567346</v>
       </c>
       <c r="EJ46">
         <f t="shared" ca="1" si="209"/>
@@ -24112,7 +24112,7 @@
       </c>
       <c r="EW46">
         <f t="shared" ca="1" si="210"/>
-        <v>0.96890520847995709</v>
+        <v>0</v>
       </c>
       <c r="EX46">
         <f t="shared" ca="1" si="210"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="FN46">
         <f t="shared" ca="1" si="220"/>
-        <v>0</v>
+        <v>2.9406004392036542</v>
       </c>
       <c r="FO46">
         <f t="shared" ca="1" si="221"/>
@@ -24449,103 +24449,103 @@
       <c r="CT47" s="5"/>
       <c r="CU47">
         <f t="shared" ca="1" si="247"/>
-        <v>0.50896324343843946</v>
+        <v>0.41068007712884647</v>
       </c>
       <c r="CV47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.73366406230292824</v>
+        <v>0.34042119179678354</v>
       </c>
       <c r="CW47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.43296756434845063</v>
+        <v>0.2296992845942557</v>
       </c>
       <c r="CX47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.11736736469272646</v>
+        <v>0.9141681168568232</v>
       </c>
       <c r="CY47">
         <f t="shared" ca="1" si="208"/>
-        <v>6.2088868958189547E-2</v>
+        <v>0.7878976542889351</v>
       </c>
       <c r="CZ47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.12678702443585743</v>
+        <v>0.62036321922608162</v>
       </c>
       <c r="DA47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.30628362820014465</v>
+        <v>0.10272860986009236</v>
       </c>
       <c r="DB47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.69135058979984232</v>
+        <v>0.82092562149915915</v>
       </c>
       <c r="DC47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.54442822166581006</v>
+        <v>3.7848757440974268E-2</v>
       </c>
       <c r="DD47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.49647441828102901</v>
+        <v>0.71325126621290891</v>
       </c>
       <c r="DE47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.30970255923987866</v>
+        <v>0.48457062525955896</v>
       </c>
       <c r="DF47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.63505428986244872</v>
+        <v>6.104476539003445E-2</v>
       </c>
       <c r="DG47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.99079337000951029</v>
+        <v>0.13881663350903284</v>
       </c>
       <c r="DH47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.16387497064503043</v>
+        <v>0.96539375163032837</v>
       </c>
       <c r="DI47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.30570736631481765</v>
+        <v>0.57343509526322567</v>
       </c>
       <c r="DJ47">
         <f t="shared" ca="1" si="208"/>
-        <v>0.96580301859879047</v>
+        <v>0.44089672593969242</v>
       </c>
       <c r="DK47">
         <f t="shared" ref="DK47:DS60" ca="1" si="301">RAND()</f>
-        <v>3.4945220276050293E-4</v>
+        <v>0.7536481094420856</v>
       </c>
       <c r="DL47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.68054106086200727</v>
+        <v>0.97602900621547239</v>
       </c>
       <c r="DM47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.75843279182921142</v>
+        <v>0.93455319521513947</v>
       </c>
       <c r="DN47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.87473518083540069</v>
+        <v>0.9084534080929173</v>
       </c>
       <c r="DO47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.12060930826042393</v>
+        <v>0.39632549014163532</v>
       </c>
       <c r="DP47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.20008223623289478</v>
+        <v>0.65344093184178587</v>
       </c>
       <c r="DQ47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.88919888717932849</v>
+        <v>0.82590104977565471</v>
       </c>
       <c r="DR47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.87906549826189717</v>
+        <v>0.36226799749789884</v>
       </c>
       <c r="DS47">
         <f t="shared" ca="1" si="301"/>
-        <v>0.41283402734438468</v>
+        <v>0.8419870453000563</v>
       </c>
       <c r="DT47" s="5"/>
       <c r="DU47" s="5"/>
@@ -24565,7 +24565,7 @@
       </c>
       <c r="EC47">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.9141681168568232</v>
       </c>
       <c r="ED47">
         <f t="shared" ca="1" si="209"/>
@@ -24601,11 +24601,11 @@
       </c>
       <c r="EL47">
         <f t="shared" ca="1" si="209"/>
-        <v>0.99079337000951029</v>
+        <v>0</v>
       </c>
       <c r="EM47">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.96539375163032837</v>
       </c>
       <c r="EN47">
         <f t="shared" ca="1" si="209"/>
@@ -24613,7 +24613,7 @@
       </c>
       <c r="EO47">
         <f t="shared" ca="1" si="209"/>
-        <v>0.96580301859879047</v>
+        <v>0</v>
       </c>
       <c r="EP47">
         <f t="shared" ca="1" si="209"/>
@@ -24621,15 +24621,15 @@
       </c>
       <c r="EQ47">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.97602900621547239</v>
       </c>
       <c r="ER47">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.93455319521513947</v>
       </c>
       <c r="ES47">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.9084534080929173</v>
       </c>
       <c r="ET47">
         <f t="shared" ca="1" si="210"/>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="FH47">
         <f t="shared" ca="1" si="214"/>
-        <v>0</v>
+        <v>2.0760493830812394</v>
       </c>
       <c r="FI47">
         <f t="shared" ca="1" si="215"/>
@@ -24705,11 +24705,11 @@
       </c>
       <c r="FQ47">
         <f t="shared" ca="1" si="223"/>
-        <v>0.99083537159066359</v>
+        <v>0</v>
       </c>
       <c r="FR47">
         <f t="shared" ca="1" si="224"/>
-        <v>0</v>
+        <v>1.4611028176479355</v>
       </c>
       <c r="FS47">
         <f t="shared" ca="1" si="225"/>
@@ -24717,7 +24717,7 @@
       </c>
       <c r="FT47">
         <f t="shared" ca="1" si="226"/>
-        <v>1.2204730772085315</v>
+        <v>0</v>
       </c>
       <c r="FU47">
         <f t="shared" ca="1" si="227"/>
@@ -24725,15 +24725,15 @@
       </c>
       <c r="FV47">
         <f t="shared" ca="1" si="228"/>
-        <v>0</v>
+        <v>6.7389205758535731</v>
       </c>
       <c r="FW47">
         <f t="shared" ca="1" si="229"/>
-        <v>0</v>
+        <v>7.3401822155205219</v>
       </c>
       <c r="FX47">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>1.9979645620335196</v>
       </c>
       <c r="FY47">
         <f t="shared" ca="1" si="231"/>
@@ -24763,7 +24763,7 @@
       </c>
       <c r="GJ47">
         <f t="shared" ref="GJ47" ca="1" si="303">MAX(FG47:FH48)</f>
-        <v>0.28429071480899576</v>
+        <v>2.0760493830812394</v>
       </c>
       <c r="GL47">
         <f t="shared" ref="GL47" ca="1" si="304">MAX(FI47:FJ48)</f>
@@ -24783,19 +24783,19 @@
       </c>
       <c r="GT47">
         <f t="shared" ref="GT47" ca="1" si="308">MAX(FQ47:FR48)</f>
-        <v>0.99083537159066359</v>
+        <v>1.4611028176479355</v>
       </c>
       <c r="GV47">
         <f t="shared" ref="GV47" ca="1" si="309">MAX(FS47:FT48)</f>
-        <v>1.2204730772085315</v>
+        <v>0</v>
       </c>
       <c r="GX47">
         <f t="shared" ref="GX47" ca="1" si="310">MAX(FU47:FV48)</f>
-        <v>0</v>
+        <v>6.7389205758535731</v>
       </c>
       <c r="GZ47">
         <f t="shared" ref="GZ47" ca="1" si="311">MAX(FW47:FX48)</f>
-        <v>0</v>
+        <v>7.3401822155205219</v>
       </c>
       <c r="HB47">
         <f t="shared" ref="HB47" ca="1" si="312">MAX(FY47:FZ48)</f>
@@ -25073,103 +25073,103 @@
       <c r="CT48" s="5"/>
       <c r="CU48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82909422343277306</v>
+        <v>0.34802660594194024</v>
       </c>
       <c r="CV48">
         <f t="shared" ca="1" si="247"/>
-        <v>4.3562620928109586E-2</v>
+        <v>0.29949478751626801</v>
       </c>
       <c r="CW48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.43372950187145332</v>
+        <v>2.8513036473564624E-2</v>
       </c>
       <c r="CX48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.9979497047271052</v>
+        <v>0.50988450291143761</v>
       </c>
       <c r="CY48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.25421070494044551</v>
+        <v>0.50155402499272161</v>
       </c>
       <c r="CZ48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.15636553458513713</v>
+        <v>4.3682356288994306E-2</v>
       </c>
       <c r="DA48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.27124259681468432</v>
+        <v>0.39644020989616102</v>
       </c>
       <c r="DB48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.21773923389454353</v>
+        <v>0.15292537869868184</v>
       </c>
       <c r="DC48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.51293661327244655</v>
+        <v>9.7264779053969463E-2</v>
       </c>
       <c r="DD48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.36528715575876691</v>
+        <v>6.6472117753693327E-2</v>
       </c>
       <c r="DE48">
         <f t="shared" ca="1" si="247"/>
-        <v>8.0722292448784927E-2</v>
+        <v>0.70712121739657086</v>
       </c>
       <c r="DF48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.2579366207949666</v>
+        <v>0.83053252063929728</v>
       </c>
       <c r="DG48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.89402516933425002</v>
+        <v>0.33757423525444241</v>
       </c>
       <c r="DH48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82268260904134038</v>
+        <v>0.9591906935996114</v>
       </c>
       <c r="DI48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.69202612604786007</v>
+        <v>1.3788455362871876E-2</v>
       </c>
       <c r="DJ48">
         <f t="shared" ca="1" si="247"/>
-        <v>0.91735233864639987</v>
+        <v>0.7984741684508101</v>
       </c>
       <c r="DK48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.47900021655367464</v>
+        <v>6.4831871967710342E-2</v>
       </c>
       <c r="DL48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.43759929856696467</v>
+        <v>0.18197838390537513</v>
       </c>
       <c r="DM48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.25479947485154586</v>
+        <v>0.31707189100671307</v>
       </c>
       <c r="DN48">
         <f t="shared" ca="1" si="301"/>
-        <v>5.7813145745412409E-2</v>
+        <v>0.43013264101522597</v>
       </c>
       <c r="DO48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.86978879943441922</v>
+        <v>0.10179328708705826</v>
       </c>
       <c r="DP48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.24338953614349745</v>
+        <v>0.49717423889698897</v>
       </c>
       <c r="DQ48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.79546545987067419</v>
+        <v>0.54366941045148864</v>
       </c>
       <c r="DR48">
         <f t="shared" ca="1" si="301"/>
-        <v>7.1897757827636743E-2</v>
+        <v>4.8331776834741325E-3</v>
       </c>
       <c r="DS48">
         <f t="shared" ca="1" si="301"/>
-        <v>0.67399734379046705</v>
+        <v>0.2187172525273805</v>
       </c>
       <c r="DT48" s="5"/>
       <c r="DU48" s="5"/>
@@ -25189,7 +25189,7 @@
       </c>
       <c r="EC48">
         <f t="shared" ca="1" si="209"/>
-        <v>0.9979497047271052</v>
+        <v>0</v>
       </c>
       <c r="ED48">
         <f t="shared" ca="1" si="209"/>
@@ -25229,7 +25229,7 @@
       </c>
       <c r="EM48">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.9591906935996114</v>
       </c>
       <c r="EN48">
         <f t="shared" ca="1" si="209"/>
@@ -25237,7 +25237,7 @@
       </c>
       <c r="EO48">
         <f t="shared" ca="1" si="209"/>
-        <v>0.91735233864639987</v>
+        <v>0</v>
       </c>
       <c r="EP48">
         <f t="shared" ca="1" si="209"/>
@@ -25293,7 +25293,7 @@
       </c>
       <c r="FH48">
         <f t="shared" ca="1" si="214"/>
-        <v>0.28429071480899576</v>
+        <v>0</v>
       </c>
       <c r="FI48">
         <f t="shared" ca="1" si="215"/>
@@ -25333,7 +25333,7 @@
       </c>
       <c r="FR48">
         <f t="shared" ca="1" si="224"/>
-        <v>0</v>
+        <v>0.31304933144976238</v>
       </c>
       <c r="FS48">
         <f t="shared" ca="1" si="225"/>
@@ -25341,7 +25341,7 @@
       </c>
       <c r="FT48">
         <f t="shared" ca="1" si="226"/>
-        <v>0.42096258196635805</v>
+        <v>0</v>
       </c>
       <c r="FU48">
         <f t="shared" ca="1" si="227"/>
@@ -25597,103 +25597,103 @@
       <c r="CT49" s="5"/>
       <c r="CU49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.80518931429792251</v>
+        <v>4.012936038291004E-2</v>
       </c>
       <c r="CV49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.4239145495734844</v>
+        <v>0.91526833094834448</v>
       </c>
       <c r="CW49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.84290718529069242</v>
+        <v>0.37507271117278707</v>
       </c>
       <c r="CX49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.55820218821889755</v>
+        <v>0.19498113365530456</v>
       </c>
       <c r="CY49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.99040341246765951</v>
+        <v>0.70427790155399117</v>
       </c>
       <c r="CZ49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.44252812931254171</v>
+        <v>1.3596242358204336E-2</v>
       </c>
       <c r="DA49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.68638535571724413</v>
+        <v>0.15456748781854401</v>
       </c>
       <c r="DB49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.91744267719855399</v>
+        <v>0.75830508556191312</v>
       </c>
       <c r="DC49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.94003886092341316</v>
+        <v>0.77760766102946355</v>
       </c>
       <c r="DD49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.28585390879476036</v>
+        <v>0.53671645459147765</v>
       </c>
       <c r="DE49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.614974116953525</v>
+        <v>0.86607222054155653</v>
       </c>
       <c r="DF49">
         <f t="shared" ca="1" si="247"/>
-        <v>9.8889561068893905E-2</v>
+        <v>0.61916008354879026</v>
       </c>
       <c r="DG49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.14248519859652409</v>
+        <v>0.83998509020613454</v>
       </c>
       <c r="DH49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.80974677179614019</v>
+        <v>0.70044555237151773</v>
       </c>
       <c r="DI49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.13361555523622781</v>
+        <v>0.15896529923649572</v>
       </c>
       <c r="DJ49">
         <f t="shared" ca="1" si="247"/>
-        <v>0.48738292996049681</v>
+        <v>8.4713196509736743E-2</v>
       </c>
       <c r="DK49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.71982002601186701</v>
+        <v>0.65877310990074289</v>
       </c>
       <c r="DL49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.80527655484688709</v>
+        <v>0.886252146333949</v>
       </c>
       <c r="DM49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.26047390271015425</v>
+        <v>0.7536356744308077</v>
       </c>
       <c r="DN49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.844494577298742</v>
+        <v>0.9174806738704534</v>
       </c>
       <c r="DO49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.10553686868614454</v>
+        <v>0.62196586341856441</v>
       </c>
       <c r="DP49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.53034423181191104</v>
+        <v>0.21172981464448715</v>
       </c>
       <c r="DQ49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.64157805243306776</v>
+        <v>0.62154397147993934</v>
       </c>
       <c r="DR49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.67684530194105752</v>
+        <v>0.53926245022444441</v>
       </c>
       <c r="DS49">
         <f t="shared" ca="1" si="301"/>
-        <v>0.46509681294444627</v>
+        <v>0.2748114179850345</v>
       </c>
       <c r="DT49" s="5"/>
       <c r="DU49" s="5"/>
@@ -25705,7 +25705,7 @@
       </c>
       <c r="EA49">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.91526833094834448</v>
       </c>
       <c r="EB49">
         <f t="shared" ca="1" si="209"/>
@@ -25717,7 +25717,7 @@
       </c>
       <c r="ED49">
         <f t="shared" ca="1" si="209"/>
-        <v>0.99040341246765951</v>
+        <v>0</v>
       </c>
       <c r="EE49">
         <f t="shared" ca="1" si="209"/>
@@ -25729,11 +25729,11 @@
       </c>
       <c r="EG49">
         <f t="shared" ca="1" si="209"/>
-        <v>0.91744267719855399</v>
+        <v>0</v>
       </c>
       <c r="EH49">
         <f t="shared" ca="1" si="209"/>
-        <v>0.94003886092341316</v>
+        <v>0</v>
       </c>
       <c r="EI49">
         <f t="shared" ca="1" si="209"/>
@@ -25777,7 +25777,7 @@
       </c>
       <c r="ES49">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.9174806738704534</v>
       </c>
       <c r="ET49">
         <f t="shared" ca="1" si="210"/>
@@ -25881,7 +25881,7 @@
       </c>
       <c r="FX49">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>5.195911331416867</v>
       </c>
       <c r="FY49">
         <f t="shared" ca="1" si="231"/>
@@ -25931,7 +25931,7 @@
       </c>
       <c r="GT49">
         <f t="shared" ref="GT49" ca="1" si="321">MAX(FQ49:FR50)</f>
-        <v>1.6157712683856278</v>
+        <v>0</v>
       </c>
       <c r="GV49">
         <f t="shared" ref="GV49" ca="1" si="322">MAX(FS49:FT50)</f>
@@ -25943,7 +25943,7 @@
       </c>
       <c r="GZ49">
         <f t="shared" ref="GZ49" ca="1" si="324">MAX(FW49:FX50)</f>
-        <v>7.50377287356583</v>
+        <v>5.195911331416867</v>
       </c>
       <c r="HB49">
         <f t="shared" ref="HB49" ca="1" si="325">MAX(FY49:FZ50)</f>
@@ -26212,103 +26212,103 @@
       <c r="CT50" s="5"/>
       <c r="CU50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.13771904049744144</v>
+        <v>0.35724021419686469</v>
       </c>
       <c r="CV50">
         <f t="shared" ca="1" si="247"/>
-        <v>7.7400449634772661E-2</v>
+        <v>0.96157153749149216</v>
       </c>
       <c r="CW50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.1016688711411432</v>
+        <v>9.0084941336732283E-2</v>
       </c>
       <c r="CX50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.78429444670483683</v>
+        <v>0.3171517631280798</v>
       </c>
       <c r="CY50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.72867951772276707</v>
+        <v>0.68008838390120629</v>
       </c>
       <c r="CZ50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.51238712918092166</v>
+        <v>0.27568345637786862</v>
       </c>
       <c r="DA50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.21049807321349279</v>
+        <v>0.1101457512768873</v>
       </c>
       <c r="DB50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.17374299921127312</v>
+        <v>0.21548481590402913</v>
       </c>
       <c r="DC50">
         <f t="shared" ca="1" si="247"/>
-        <v>4.7469105750559737E-2</v>
+        <v>0.25241845854706058</v>
       </c>
       <c r="DD50">
         <f t="shared" ca="1" si="247"/>
-        <v>4.7104686063888845E-2</v>
+        <v>0.76077557688790354</v>
       </c>
       <c r="DE50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.18776578248391795</v>
+        <v>0.71358402375820917</v>
       </c>
       <c r="DF50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.33654786595792463</v>
+        <v>8.9375726301561986E-2</v>
       </c>
       <c r="DG50">
         <f t="shared" ca="1" si="247"/>
-        <v>3.9947995708562112E-2</v>
+        <v>0.36685195620369848</v>
       </c>
       <c r="DH50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.96756528617049642</v>
+        <v>0.2778457233823336</v>
       </c>
       <c r="DI50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.64285600147201927</v>
+        <v>0.40033401734819463</v>
       </c>
       <c r="DJ50">
         <f t="shared" ca="1" si="247"/>
-        <v>0.66905119053099915</v>
+        <v>0.57446734295478941</v>
       </c>
       <c r="DK50">
         <f t="shared" ca="1" si="301"/>
-        <v>6.0600535539109268E-3</v>
+        <v>0.73342449099689533</v>
       </c>
       <c r="DL50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.17819452365198107</v>
+        <v>0.16131342427062767</v>
       </c>
       <c r="DM50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.99113390140178137</v>
+        <v>0.48779527595375327</v>
       </c>
       <c r="DN50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.56520210857642517</v>
+        <v>0.14545855466403579</v>
       </c>
       <c r="DO50">
         <f t="shared" ca="1" si="301"/>
-        <v>4.2424028511768519E-2</v>
+        <v>0.49666868086989824</v>
       </c>
       <c r="DP50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.33415989251814415</v>
+        <v>0.77646546994609333</v>
       </c>
       <c r="DQ50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.36136441338981162</v>
+        <v>0.39553987457665196</v>
       </c>
       <c r="DR50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.11177639820946972</v>
+        <v>0.44948396640118149</v>
       </c>
       <c r="DS50">
         <f t="shared" ca="1" si="301"/>
-        <v>0.11248413645739297</v>
+        <v>0.23482772390925999</v>
       </c>
       <c r="DT50" s="5"/>
       <c r="DU50" s="5"/>
@@ -26320,7 +26320,7 @@
       </c>
       <c r="EA50">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.96157153749149216</v>
       </c>
       <c r="EB50">
         <f t="shared" ca="1" si="209"/>
@@ -26368,7 +26368,7 @@
       </c>
       <c r="EM50">
         <f t="shared" ca="1" si="209"/>
-        <v>0.96756528617049642</v>
+        <v>0</v>
       </c>
       <c r="EN50">
         <f t="shared" ca="1" si="209"/>
@@ -26388,7 +26388,7 @@
       </c>
       <c r="ER50">
         <f t="shared" ca="1" si="210"/>
-        <v>0.99113390140178137</v>
+        <v>0</v>
       </c>
       <c r="ES50">
         <f t="shared" ca="1" si="210"/>
@@ -26472,7 +26472,7 @@
       </c>
       <c r="FR50">
         <f t="shared" ca="1" si="224"/>
-        <v>1.6157712683856278</v>
+        <v>0</v>
       </c>
       <c r="FS50">
         <f t="shared" ca="1" si="225"/>
@@ -26492,7 +26492,7 @@
       </c>
       <c r="FW50">
         <f t="shared" ca="1" si="229"/>
-        <v>7.50377287356583</v>
+        <v>0</v>
       </c>
       <c r="FX50">
         <f t="shared" ca="1" si="230"/>
@@ -26736,103 +26736,103 @@
       <c r="CT51" s="5"/>
       <c r="CU51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.15013714327945293</v>
+        <v>0.35261441295569129</v>
       </c>
       <c r="CV51">
         <f t="shared" ca="1" si="247"/>
-        <v>7.6086402965008681E-2</v>
+        <v>0.92292563976190078</v>
       </c>
       <c r="CW51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.14571961038458048</v>
+        <v>0.44381113884341639</v>
       </c>
       <c r="CX51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.92229062179299048</v>
+        <v>0.68579593787269677</v>
       </c>
       <c r="CY51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.65895417899007647</v>
+        <v>2.0742222840839486E-2</v>
       </c>
       <c r="CZ51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.32138828827527088</v>
+        <v>0.16965960098571953</v>
       </c>
       <c r="DA51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.59505916480947929</v>
+        <v>0.51186328899381817</v>
       </c>
       <c r="DB51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.58667892894790008</v>
+        <v>0.46280253955506345</v>
       </c>
       <c r="DC51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.18706534671845654</v>
+        <v>0.82885347690963074</v>
       </c>
       <c r="DD51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.45894005627471268</v>
+        <v>3.5338578430394896E-2</v>
       </c>
       <c r="DE51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.26550302570972684</v>
+        <v>0.88964551030089745</v>
       </c>
       <c r="DF51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.64634134697552692</v>
+        <v>0.85906955553727837</v>
       </c>
       <c r="DG51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.42552755093908556</v>
+        <v>0.34689868977058491</v>
       </c>
       <c r="DH51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.76978685242496048</v>
+        <v>0.50421123773434207</v>
       </c>
       <c r="DI51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.91648562974695402</v>
+        <v>0.89554055575588365</v>
       </c>
       <c r="DJ51">
         <f t="shared" ca="1" si="247"/>
-        <v>0.6655214331742686</v>
+        <v>0.85238206864623156</v>
       </c>
       <c r="DK51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.62396213492274777</v>
+        <v>0.57398745955846109</v>
       </c>
       <c r="DL51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.88472089931996423</v>
+        <v>0.93913747759222621</v>
       </c>
       <c r="DM51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.42750073235303121</v>
+        <v>0.87147820810245602</v>
       </c>
       <c r="DN51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.1792872642892599</v>
+        <v>0.71205083138694358</v>
       </c>
       <c r="DO51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.46478650598271154</v>
+        <v>0.84135747393777105</v>
       </c>
       <c r="DP51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.76996418511932418</v>
+        <v>0.94435801675077802</v>
       </c>
       <c r="DQ51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.7158146269683443</v>
+        <v>0.60112527166160967</v>
       </c>
       <c r="DR51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.88166976266048314</v>
+        <v>0.64870009960867581</v>
       </c>
       <c r="DS51">
         <f t="shared" ca="1" si="301"/>
-        <v>0.14852459533316287</v>
+        <v>1.4816972128345429E-2</v>
       </c>
       <c r="DT51" s="5"/>
       <c r="DU51" s="5"/>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="EA51">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.92292563976190078</v>
       </c>
       <c r="EB51">
         <f t="shared" ca="1" si="209"/>
@@ -26852,7 +26852,7 @@
       </c>
       <c r="EC51">
         <f t="shared" ca="1" si="209"/>
-        <v>0.92229062179299048</v>
+        <v>0</v>
       </c>
       <c r="ED51">
         <f t="shared" ca="1" si="209"/>
@@ -26896,7 +26896,7 @@
       </c>
       <c r="EN51">
         <f t="shared" ca="1" si="209"/>
-        <v>0.91648562974695402</v>
+        <v>0</v>
       </c>
       <c r="EO51">
         <f t="shared" ca="1" si="209"/>
@@ -26908,7 +26908,7 @@
       </c>
       <c r="EQ51">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.93913747759222621</v>
       </c>
       <c r="ER51">
         <f t="shared" ca="1" si="210"/>
@@ -26924,7 +26924,7 @@
       </c>
       <c r="EU51">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>0.94435801675077802</v>
       </c>
       <c r="EV51">
         <f t="shared" ca="1" si="210"/>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="FS51">
         <f t="shared" ca="1" si="225"/>
-        <v>0.94605879349080846</v>
+        <v>0</v>
       </c>
       <c r="FT51">
         <f t="shared" ca="1" si="226"/>
@@ -27012,7 +27012,7 @@
       </c>
       <c r="FV51">
         <f t="shared" ca="1" si="228"/>
-        <v>0</v>
+        <v>2.8692669830850566</v>
       </c>
       <c r="FW51">
         <f t="shared" ca="1" si="229"/>
@@ -27058,15 +27058,15 @@
       </c>
       <c r="GN51">
         <f t="shared" ref="GN51" ca="1" si="331">MAX(FK51:FL52)</f>
-        <v>0</v>
+        <v>1.6085074386887073</v>
       </c>
       <c r="GP51">
         <f t="shared" ref="GP51" ca="1" si="332">MAX(FM51:FN52)</f>
-        <v>1.7797893689776283</v>
+        <v>2.2020816925896076</v>
       </c>
       <c r="GR51">
         <f t="shared" ref="GR51" ca="1" si="333">MAX(FO51:FP52)</f>
-        <v>2.6414021464931277</v>
+        <v>0</v>
       </c>
       <c r="GT51">
         <f t="shared" ref="GT51" ca="1" si="334">MAX(FQ51:FR52)</f>
@@ -27074,15 +27074,15 @@
       </c>
       <c r="GV51">
         <f t="shared" ref="GV51" ca="1" si="335">MAX(FS51:FT52)</f>
-        <v>0.94605879349080846</v>
+        <v>0</v>
       </c>
       <c r="GX51">
         <f t="shared" ref="GX51" ca="1" si="336">MAX(FU51:FV52)</f>
-        <v>0</v>
+        <v>2.8692669830850566</v>
       </c>
       <c r="GZ51">
         <f t="shared" ref="GZ51" ca="1" si="337">MAX(FW51:FX52)</f>
-        <v>5.2206129490145194</v>
+        <v>0</v>
       </c>
       <c r="HB51">
         <f t="shared" ref="HB51" ca="1" si="338">MAX(FY51:FZ52)</f>
@@ -27351,103 +27351,103 @@
       <c r="CT52" s="5"/>
       <c r="CU52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.31157270507868251</v>
+        <v>0.46889966220031842</v>
       </c>
       <c r="CV52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.6193118882824602</v>
+        <v>0.37015517587041336</v>
       </c>
       <c r="CW52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.11316494793253806</v>
+        <v>0.36709484496594302</v>
       </c>
       <c r="CX52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.41853424668028016</v>
+        <v>0.62606494665161971</v>
       </c>
       <c r="CY52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.3172206427634312</v>
+        <v>0.16157940154800332</v>
       </c>
       <c r="CZ52">
         <f t="shared" ca="1" si="247"/>
-        <v>3.7300594997718206E-2</v>
+        <v>0.85795315057460964</v>
       </c>
       <c r="DA52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.42245073906382669</v>
+        <v>0.95426078522227187</v>
       </c>
       <c r="DB52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.85631819371434947</v>
+        <v>0.49682877312348239</v>
       </c>
       <c r="DC52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.18896792836558252</v>
+        <v>0.92039311056154782</v>
       </c>
       <c r="DD52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.93659759759106109</v>
+        <v>8.7625507083159637E-2</v>
       </c>
       <c r="DE52">
         <f t="shared" ca="1" si="247"/>
-        <v>1.1017392881454979E-3</v>
+        <v>0.33458249555764574</v>
       </c>
       <c r="DF52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.97590582874441445</v>
+        <v>2.5572664832349323E-2</v>
       </c>
       <c r="DG52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.38961975195689047</v>
+        <v>6.0210758044102808E-2</v>
       </c>
       <c r="DH52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.36277720390486368</v>
+        <v>0.90071756213160403</v>
       </c>
       <c r="DI52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.48021555617984579</v>
+        <v>0.14816374120999798</v>
       </c>
       <c r="DJ52">
         <f t="shared" ca="1" si="247"/>
-        <v>0.65178796234354253</v>
+        <v>5.4326497811628682E-3</v>
       </c>
       <c r="DK52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.4111312815805348</v>
+        <v>0.49856864444681182</v>
       </c>
       <c r="DL52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.36733448136223734</v>
+        <v>0.61614672658781189</v>
       </c>
       <c r="DM52">
         <f t="shared" ca="1" si="301"/>
-        <v>4.5998574154928695E-2</v>
+        <v>0.61825417813790495</v>
       </c>
       <c r="DN52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.98683331340334823</v>
+        <v>0.5490466137831308</v>
       </c>
       <c r="DO52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.79116733279241791</v>
+        <v>0.60588111928788368</v>
       </c>
       <c r="DP52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.21364835411386129</v>
+        <v>0.43637822043507268</v>
       </c>
       <c r="DQ52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.29492340126373462</v>
+        <v>0.49392996277521495</v>
       </c>
       <c r="DR52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.17851305018741148</v>
+        <v>6.3400484187283945E-2</v>
       </c>
       <c r="DS52">
         <f t="shared" ca="1" si="301"/>
-        <v>0.96659158963865999</v>
+        <v>0.70121499371171592</v>
       </c>
       <c r="DT52" s="5"/>
       <c r="DU52" s="5"/>
@@ -27479,7 +27479,7 @@
       </c>
       <c r="EF52">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.95426078522227187</v>
       </c>
       <c r="EG52">
         <f t="shared" ca="1" si="209"/>
@@ -27487,11 +27487,11 @@
       </c>
       <c r="EH52">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>0.92039311056154782</v>
       </c>
       <c r="EI52">
         <f t="shared" ca="1" si="209"/>
-        <v>0.93659759759106109</v>
+        <v>0</v>
       </c>
       <c r="EJ52">
         <f t="shared" ca="1" si="209"/>
@@ -27499,7 +27499,7 @@
       </c>
       <c r="EK52">
         <f t="shared" ca="1" si="209"/>
-        <v>0.97590582874441445</v>
+        <v>0</v>
       </c>
       <c r="EL52">
         <f t="shared" ca="1" si="209"/>
@@ -27531,7 +27531,7 @@
       </c>
       <c r="ES52">
         <f t="shared" ca="1" si="210"/>
-        <v>0.98683331340334823</v>
+        <v>0</v>
       </c>
       <c r="ET52">
         <f t="shared" ca="1" si="210"/>
@@ -27551,7 +27551,7 @@
       </c>
       <c r="EX52">
         <f t="shared" ca="1" si="210"/>
-        <v>0.96659158963865999</v>
+        <v>0</v>
       </c>
       <c r="EY52" s="5"/>
       <c r="EZ52" s="5"/>
@@ -27583,7 +27583,7 @@
       </c>
       <c r="FK52">
         <f t="shared" ca="1" si="217"/>
-        <v>0</v>
+        <v>1.6085074386887073</v>
       </c>
       <c r="FL52">
         <f t="shared" ca="1" si="218"/>
@@ -27591,11 +27591,11 @@
       </c>
       <c r="FM52">
         <f t="shared" ca="1" si="219"/>
-        <v>0</v>
+        <v>2.2020816925896076</v>
       </c>
       <c r="FN52">
         <f t="shared" ca="1" si="220"/>
-        <v>1.7797893689776283</v>
+        <v>0</v>
       </c>
       <c r="FO52">
         <f t="shared" ca="1" si="221"/>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="FP52">
         <f t="shared" ca="1" si="222"/>
-        <v>2.6414021464931277</v>
+        <v>0</v>
       </c>
       <c r="FQ52">
         <f t="shared" ca="1" si="223"/>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="FX52">
         <f t="shared" ca="1" si="230"/>
-        <v>5.2206129490145194</v>
+        <v>0</v>
       </c>
       <c r="FY52">
         <f t="shared" ca="1" si="231"/>
@@ -27875,103 +27875,103 @@
       <c r="CT53" s="5"/>
       <c r="CU53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82113193744669943</v>
+        <v>0.50816902469998992</v>
       </c>
       <c r="CV53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.93637568406506499</v>
+        <v>7.4091022399928042E-2</v>
       </c>
       <c r="CW53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.99779361353172291</v>
+        <v>0.34383088338060497</v>
       </c>
       <c r="CX53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.3924129205630833</v>
+        <v>0.20741323558853697</v>
       </c>
       <c r="CY53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.34756525308120889</v>
+        <v>0.65000130669424072</v>
       </c>
       <c r="CZ53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.77240428826010943</v>
+        <v>0.36415341446443916</v>
       </c>
       <c r="DA53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.31532194745214237</v>
+        <v>0.88013180188171358</v>
       </c>
       <c r="DB53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.67914620345396148</v>
+        <v>0.51889862359883199</v>
       </c>
       <c r="DC53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.70273508151453268</v>
+        <v>0.2456485745905721</v>
       </c>
       <c r="DD53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.62837294507355224</v>
+        <v>0.31506865554870289</v>
       </c>
       <c r="DE53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.11517849829789717</v>
+        <v>0.1873665934697889</v>
       </c>
       <c r="DF53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.98222142632298615</v>
+        <v>0.39800973410969487</v>
       </c>
       <c r="DG53">
         <f t="shared" ca="1" si="247"/>
-        <v>9.8385101289416355E-2</v>
+        <v>0.38514398928258997</v>
       </c>
       <c r="DH53">
         <f t="shared" ca="1" si="247"/>
-        <v>0.66350806648910121</v>
+        <v>0.38851602846353472</v>
       </c>
       <c r="DI53">
         <f t="shared" ca="1" si="247"/>
-        <v>3.5127518079507536E-2</v>
+        <v>0.32303959575482843</v>
       </c>
       <c r="DJ53">
         <f t="shared" ca="1" si="247"/>
-        <v>4.6496368783267572E-2</v>
+        <v>0.60261682766107694</v>
       </c>
       <c r="DK53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.53672335085972911</v>
+        <v>0.46172800778748513</v>
       </c>
       <c r="DL53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.91800848563633319</v>
+        <v>0.87644765911722333</v>
       </c>
       <c r="DM53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.23551668028325412</v>
+        <v>0.85438615690277808</v>
       </c>
       <c r="DN53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.15341895697120478</v>
+        <v>0.85749149494098498</v>
       </c>
       <c r="DO53">
         <f t="shared" ca="1" si="301"/>
-        <v>7.173408809778703E-2</v>
+        <v>0.88482054409915267</v>
       </c>
       <c r="DP53">
         <f t="shared" ca="1" si="301"/>
-        <v>4.4284944235556956E-2</v>
+        <v>0.73227486602909064</v>
       </c>
       <c r="DQ53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.36756125807017004</v>
+        <v>0.95220356242106696</v>
       </c>
       <c r="DR53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.6992231236477483</v>
+        <v>0.16751682625685149</v>
       </c>
       <c r="DS53">
         <f t="shared" ca="1" si="301"/>
-        <v>0.58626605999935566</v>
+        <v>0.72498657990859161</v>
       </c>
       <c r="DT53" s="5"/>
       <c r="DU53" s="5"/>
@@ -27983,11 +27983,11 @@
       </c>
       <c r="EA53">
         <f t="shared" ref="EA53:EA60" ca="1" si="342">IF(CV53&gt;($GD$1+0.001), CV53, 0)</f>
-        <v>0.93637568406506499</v>
+        <v>0</v>
       </c>
       <c r="EB53">
         <f t="shared" ref="EB53:EB60" ca="1" si="343">IF(CW53&gt;($GD$1+0.001), CW53, 0)</f>
-        <v>0.99779361353172291</v>
+        <v>0</v>
       </c>
       <c r="EC53">
         <f t="shared" ref="EC53:EC60" ca="1" si="344">IF(CX53&gt;($GD$1+0.001), CX53, 0)</f>
@@ -28023,7 +28023,7 @@
       </c>
       <c r="EK53">
         <f t="shared" ref="EK53:EK60" ca="1" si="352">IF(DF53&gt;($GD$1+0.001), DF53, 0)</f>
-        <v>0.98222142632298615</v>
+        <v>0</v>
       </c>
       <c r="EL53">
         <f t="shared" ref="EL53:EL60" ca="1" si="353">IF(DG53&gt;($GD$1+0.001), DG53, 0)</f>
@@ -28047,7 +28047,7 @@
       </c>
       <c r="EQ53">
         <f t="shared" ref="EQ53:EQ60" ca="1" si="357">IF(DL53&gt;($GD$1+0.001), DL53, 0)</f>
-        <v>0.91800848563633319</v>
+        <v>0</v>
       </c>
       <c r="ER53">
         <f t="shared" ref="ER53:ER60" ca="1" si="358">IF(DM53&gt;($GD$1+0.001), DM53, 0)</f>
@@ -28067,7 +28067,7 @@
       </c>
       <c r="EV53">
         <f t="shared" ref="EV53:EV60" ca="1" si="362">IF(DQ53&gt;($GD$1+0.001), DQ53, 0)</f>
-        <v>0</v>
+        <v>0.95220356242106696</v>
       </c>
       <c r="EW53">
         <f t="shared" ref="EW53:EW60" ca="1" si="363">IF(DR53&gt;($GD$1+0.001), DR53, 0)</f>
@@ -28091,7 +28091,7 @@
       </c>
       <c r="FG53">
         <f t="shared" ca="1" si="213"/>
-        <v>0.23613776977679984</v>
+        <v>0</v>
       </c>
       <c r="FH53">
         <f t="shared" ca="1" si="214"/>
@@ -28127,7 +28127,7 @@
       </c>
       <c r="FP53">
         <f t="shared" ca="1" si="222"/>
-        <v>4.5541064541033753</v>
+        <v>0</v>
       </c>
       <c r="FQ53">
         <f t="shared" ca="1" si="223"/>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="FV53">
         <f t="shared" ca="1" si="228"/>
-        <v>5.7501800629830448</v>
+        <v>0</v>
       </c>
       <c r="FW53">
         <f t="shared" ca="1" si="229"/>
@@ -28189,7 +28189,7 @@
       </c>
       <c r="GJ53">
         <f t="shared" ref="GJ53" ca="1" si="366">MAX(FG53:FH54)</f>
-        <v>0.23613776977679984</v>
+        <v>0</v>
       </c>
       <c r="GL53">
         <f t="shared" ref="GL53" ca="1" si="367">MAX(FI53:FJ54)</f>
@@ -28197,15 +28197,15 @@
       </c>
       <c r="GN53">
         <f t="shared" ref="GN53" ca="1" si="368">MAX(FK53:FL54)</f>
-        <v>0</v>
+        <v>3.9533409001734823</v>
       </c>
       <c r="GP53">
         <f t="shared" ref="GP53" ca="1" si="369">MAX(FM53:FN54)</f>
-        <v>0</v>
+        <v>4.6162187879109426</v>
       </c>
       <c r="GR53">
         <f t="shared" ref="GR53" ca="1" si="370">MAX(FO53:FP54)</f>
-        <v>4.5541064541033753</v>
+        <v>0</v>
       </c>
       <c r="GT53">
         <f t="shared" ref="GT53" ca="1" si="371">MAX(FQ53:FR54)</f>
@@ -28217,11 +28217,11 @@
       </c>
       <c r="GX53">
         <f t="shared" ref="GX53" ca="1" si="373">MAX(FU53:FV54)</f>
-        <v>5.7501800629830448</v>
+        <v>1.5402379015908378</v>
       </c>
       <c r="GZ53">
         <f t="shared" ref="GZ53" ca="1" si="374">MAX(FW53:FX54)</f>
-        <v>0</v>
+        <v>2.7143163484454016</v>
       </c>
       <c r="HB53">
         <f t="shared" ref="HB53" ca="1" si="375">MAX(FY53:FZ54)</f>
@@ -28490,103 +28490,103 @@
       <c r="CT54" s="5"/>
       <c r="CU54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.8261496896997742</v>
+        <v>0.26944110294480894</v>
       </c>
       <c r="CV54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.6080056580678076</v>
+        <v>7.7253700252475244E-2</v>
       </c>
       <c r="CW54">
         <f t="shared" ca="1" si="247"/>
-        <v>6.9943139252319764E-3</v>
+        <v>0.25118604104303666</v>
       </c>
       <c r="CX54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.76874681511166953</v>
+        <v>2.6572413739424317E-2</v>
       </c>
       <c r="CY54">
         <f t="shared" ca="1" si="247"/>
-        <v>3.824958153852831E-2</v>
+        <v>0.10700209415635209</v>
       </c>
       <c r="CZ54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.30632156006875699</v>
+        <v>0.49606385333369385</v>
       </c>
       <c r="DA54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.18273950149765106</v>
+        <v>0.93169436578954723</v>
       </c>
       <c r="DB54">
         <f t="shared" ca="1" si="247"/>
-        <v>5.3360954273427907E-2</v>
+        <v>0.13864617802897161</v>
       </c>
       <c r="DC54">
         <f t="shared" ca="1" si="247"/>
-        <v>8.3277658935794641E-2</v>
+        <v>0.92273188472533518</v>
       </c>
       <c r="DD54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.35447811850339217</v>
+        <v>0.26299384506732337</v>
       </c>
       <c r="DE54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.29060827663493705</v>
+        <v>1.7787026145611229E-2</v>
       </c>
       <c r="DF54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.55228232470117422</v>
+        <v>0.84426652777221511</v>
       </c>
       <c r="DG54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.75599075040027441</v>
+        <v>9.465875870014262E-2</v>
       </c>
       <c r="DH54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.70685138740698839</v>
+        <v>8.1667668056686238E-2</v>
       </c>
       <c r="DI54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.63410986860274554</v>
+        <v>0.87587690848640887</v>
       </c>
       <c r="DJ54">
         <f t="shared" ca="1" si="247"/>
-        <v>0.80846721975778557</v>
+        <v>4.8382848730941563E-2</v>
       </c>
       <c r="DK54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.33418450695372204</v>
+        <v>0.99906457756949318</v>
       </c>
       <c r="DL54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.42563779718889372</v>
+        <v>0.81630744491328888</v>
       </c>
       <c r="DM54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.72471022040030875</v>
+        <v>0.45936445890002664</v>
       </c>
       <c r="DN54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.82696188395356129</v>
+        <v>0.98361026872371282</v>
       </c>
       <c r="DO54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.69984892249354702</v>
+        <v>9.2254178718784385E-2</v>
       </c>
       <c r="DP54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.36175448515698039</v>
+        <v>0.43764347519212599</v>
       </c>
       <c r="DQ54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.72832851746949046</v>
+        <v>0.40523962956212489</v>
       </c>
       <c r="DR54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.68288561133705517</v>
+        <v>0.81573622345284025</v>
       </c>
       <c r="DS54">
         <f t="shared" ca="1" si="301"/>
-        <v>0.67341303219055904</v>
+        <v>0.66695998377351351</v>
       </c>
       <c r="DT54" s="5"/>
       <c r="DU54" s="5"/>
@@ -28618,7 +28618,7 @@
       </c>
       <c r="EF54">
         <f t="shared" ca="1" si="347"/>
-        <v>0</v>
+        <v>0.93169436578954723</v>
       </c>
       <c r="EG54">
         <f t="shared" ca="1" si="348"/>
@@ -28626,7 +28626,7 @@
       </c>
       <c r="EH54">
         <f t="shared" ca="1" si="349"/>
-        <v>0</v>
+        <v>0.92273188472533518</v>
       </c>
       <c r="EI54">
         <f t="shared" ca="1" si="350"/>
@@ -28658,7 +28658,7 @@
       </c>
       <c r="EP54">
         <f t="shared" ca="1" si="341"/>
-        <v>0</v>
+        <v>0.99906457756949318</v>
       </c>
       <c r="EQ54">
         <f t="shared" ca="1" si="357"/>
@@ -28670,7 +28670,7 @@
       </c>
       <c r="ES54">
         <f t="shared" ca="1" si="359"/>
-        <v>0</v>
+        <v>0.98361026872371282</v>
       </c>
       <c r="ET54">
         <f t="shared" ca="1" si="360"/>
@@ -28722,7 +28722,7 @@
       </c>
       <c r="FK54">
         <f t="shared" ca="1" si="217"/>
-        <v>0</v>
+        <v>3.9533409001734823</v>
       </c>
       <c r="FL54">
         <f t="shared" ca="1" si="218"/>
@@ -28730,7 +28730,7 @@
       </c>
       <c r="FM54">
         <f t="shared" ca="1" si="219"/>
-        <v>0</v>
+        <v>4.6162187879109426</v>
       </c>
       <c r="FN54">
         <f t="shared" ca="1" si="220"/>
@@ -28762,7 +28762,7 @@
       </c>
       <c r="FU54">
         <f t="shared" ca="1" si="227"/>
-        <v>0</v>
+        <v>1.5402379015908378</v>
       </c>
       <c r="FV54">
         <f t="shared" ca="1" si="228"/>
@@ -28774,7 +28774,7 @@
       </c>
       <c r="FX54">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>2.7143163484454016</v>
       </c>
       <c r="FY54">
         <f t="shared" ca="1" si="231"/>
@@ -29014,103 +29014,103 @@
       <c r="CT55" s="5"/>
       <c r="CU55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.47269240297568793</v>
+        <v>0.11853813202502927</v>
       </c>
       <c r="CV55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.21906375677996337</v>
+        <v>0.61591276415434115</v>
       </c>
       <c r="CW55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.38536585498248244</v>
+        <v>0.95071114277040525</v>
       </c>
       <c r="CX55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.79015916687831578</v>
+        <v>0.83836605522496022</v>
       </c>
       <c r="CY55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.99417533080035525</v>
+        <v>7.7384258054126076E-2</v>
       </c>
       <c r="CZ55">
         <f t="shared" ca="1" si="247"/>
-        <v>5.7268419109232083E-3</v>
+        <v>0.7311600728760792</v>
       </c>
       <c r="DA55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.54455913149011592</v>
+        <v>3.9159361482145827E-2</v>
       </c>
       <c r="DB55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.50702212380903366</v>
+        <v>0.26811629423035976</v>
       </c>
       <c r="DC55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82470024798340746</v>
+        <v>1.0347291321520125E-2</v>
       </c>
       <c r="DD55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.58325228965294995</v>
+        <v>0.96968605541750985</v>
       </c>
       <c r="DE55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.11722545439875465</v>
+        <v>0.630768409861718</v>
       </c>
       <c r="DF55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.89924077944421321</v>
+        <v>0.4321299813736631</v>
       </c>
       <c r="DG55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82713443276614596</v>
+        <v>0.39433188835057653</v>
       </c>
       <c r="DH55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.14980051851880127</v>
+        <v>0.76704088278496119</v>
       </c>
       <c r="DI55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.25294304783917032</v>
+        <v>0.47850300206768859</v>
       </c>
       <c r="DJ55">
         <f t="shared" ca="1" si="247"/>
-        <v>0.19134949228913878</v>
+        <v>0.7271237505448328</v>
       </c>
       <c r="DK55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.40655358437084488</v>
+        <v>0.13387960946110744</v>
       </c>
       <c r="DL55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.21581940155546808</v>
+        <v>0.1110273684136126</v>
       </c>
       <c r="DM55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.99356038353517695</v>
+        <v>0.79720628108437253</v>
       </c>
       <c r="DN55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.45829515953651112</v>
+        <v>0.18513424775285492</v>
       </c>
       <c r="DO55">
         <f t="shared" ca="1" si="301"/>
-        <v>5.7695115130184549E-2</v>
+        <v>4.8858366494574201E-2</v>
       </c>
       <c r="DP55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.55015319493999981</v>
+        <v>0.13175121493014963</v>
       </c>
       <c r="DQ55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.35010033601947099</v>
+        <v>2.3737532903755132E-2</v>
       </c>
       <c r="DR55">
         <f t="shared" ca="1" si="301"/>
-        <v>1.2078824073203709E-2</v>
+        <v>0.64774417074795221</v>
       </c>
       <c r="DS55">
         <f t="shared" ca="1" si="301"/>
-        <v>0.38111584520229724</v>
+        <v>0.11464688141215174</v>
       </c>
       <c r="DT55" s="5"/>
       <c r="DU55" s="5"/>
@@ -29126,7 +29126,7 @@
       </c>
       <c r="EB55">
         <f t="shared" ca="1" si="343"/>
-        <v>0</v>
+        <v>0.95071114277040525</v>
       </c>
       <c r="EC55">
         <f t="shared" ca="1" si="344"/>
@@ -29134,7 +29134,7 @@
       </c>
       <c r="ED55">
         <f t="shared" ca="1" si="345"/>
-        <v>0.99417533080035525</v>
+        <v>0</v>
       </c>
       <c r="EE55">
         <f t="shared" ca="1" si="346"/>
@@ -29154,7 +29154,7 @@
       </c>
       <c r="EI55">
         <f t="shared" ca="1" si="350"/>
-        <v>0</v>
+        <v>0.96968605541750985</v>
       </c>
       <c r="EJ55">
         <f t="shared" ca="1" si="351"/>
@@ -29190,7 +29190,7 @@
       </c>
       <c r="ER55">
         <f t="shared" ca="1" si="358"/>
-        <v>0.99356038353517695</v>
+        <v>0</v>
       </c>
       <c r="ES55">
         <f t="shared" ca="1" si="359"/>
@@ -29230,7 +29230,7 @@
       </c>
       <c r="FG55">
         <f t="shared" ca="1" si="213"/>
-        <v>0</v>
+        <v>0.32236126057232206</v>
       </c>
       <c r="FH55">
         <f t="shared" ca="1" si="214"/>
@@ -29238,7 +29238,7 @@
       </c>
       <c r="FI55">
         <f t="shared" ca="1" si="215"/>
-        <v>2.7054917948524912</v>
+        <v>0</v>
       </c>
       <c r="FJ55">
         <f t="shared" ca="1" si="216"/>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="FN55">
         <f t="shared" ca="1" si="220"/>
-        <v>0</v>
+        <v>1.7139400294551117</v>
       </c>
       <c r="FO55">
         <f t="shared" ca="1" si="221"/>
@@ -29294,7 +29294,7 @@
       </c>
       <c r="FW55">
         <f t="shared" ca="1" si="229"/>
-        <v>6.0523717081754533</v>
+        <v>0</v>
       </c>
       <c r="FX55">
         <f t="shared" ca="1" si="230"/>
@@ -29328,19 +29328,19 @@
       </c>
       <c r="GJ55">
         <f t="shared" ref="GJ55" ca="1" si="379">MAX(FG55:FH56)</f>
-        <v>0</v>
+        <v>1.0060116482185453</v>
       </c>
       <c r="GL55">
         <f t="shared" ref="GL55" ca="1" si="380">MAX(FI55:FJ56)</f>
-        <v>2.7054917948524912</v>
+        <v>0</v>
       </c>
       <c r="GN55">
         <f t="shared" ref="GN55" ca="1" si="381">MAX(FK55:FL56)</f>
-        <v>2.2181624475225985</v>
+        <v>0</v>
       </c>
       <c r="GP55">
         <f t="shared" ref="GP55" ca="1" si="382">MAX(FM55:FN56)</f>
-        <v>0</v>
+        <v>1.7139400294551117</v>
       </c>
       <c r="GR55">
         <f t="shared" ref="GR55" ca="1" si="383">MAX(FO55:FP56)</f>
@@ -29360,7 +29360,7 @@
       </c>
       <c r="GZ55">
         <f t="shared" ref="GZ55" ca="1" si="387">MAX(FW55:FX56)</f>
-        <v>6.0523717081754533</v>
+        <v>0</v>
       </c>
       <c r="HB55">
         <f t="shared" ref="HB55" ca="1" si="388">MAX(FY55:FZ56)</f>
@@ -29629,103 +29629,103 @@
       <c r="CT56" s="5"/>
       <c r="CU56">
         <f t="shared" ca="1" si="247"/>
-        <v>1.0750126225764878E-2</v>
+        <v>3.6261542060658458E-2</v>
       </c>
       <c r="CV56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.68823322850235213</v>
+        <v>7.1059898378772801E-2</v>
       </c>
       <c r="CW56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.89754696210385454</v>
+        <v>0.35353931941483352</v>
       </c>
       <c r="CX56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.47754667263221962</v>
+        <v>0.99429382735969374</v>
       </c>
       <c r="CY56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.26345924330348369</v>
+        <v>0.88652879709491184</v>
       </c>
       <c r="CZ56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.39122646425721552</v>
+        <v>4.8541401459467393E-2</v>
       </c>
       <c r="DA56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.92300771166162943</v>
+        <v>7.1930273227793218E-2</v>
       </c>
       <c r="DB56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.70887130092586847</v>
+        <v>0.55439332470864888</v>
       </c>
       <c r="DC56">
         <f t="shared" ca="1" si="247"/>
-        <v>8.8282334871972457E-2</v>
+        <v>0.77458465684040245</v>
       </c>
       <c r="DD56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.17926634881967207</v>
+        <v>0.23030400343435431</v>
       </c>
       <c r="DE56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.10447402176990228</v>
+        <v>0.86251458439840323</v>
       </c>
       <c r="DF56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.72245766220051089</v>
+        <v>0.64644074840022536</v>
       </c>
       <c r="DG56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.75525849993484628</v>
+        <v>0.79161116848947388</v>
       </c>
       <c r="DH56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.49851816573277852</v>
+        <v>0.22560706292882915</v>
       </c>
       <c r="DI56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.89717065315763866</v>
+        <v>0.49016695994720383</v>
       </c>
       <c r="DJ56">
         <f t="shared" ca="1" si="247"/>
-        <v>0.72455543731712313</v>
+        <v>0.66155850205717648</v>
       </c>
       <c r="DK56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.77904382085289803</v>
+        <v>1.6775723113446661E-2</v>
       </c>
       <c r="DL56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.11768572186212889</v>
+        <v>0.79608960069849399</v>
       </c>
       <c r="DM56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.4244703251422669</v>
+        <v>0.33080686217766242</v>
       </c>
       <c r="DN56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.7683101380010251</v>
+        <v>0.34459604733120153</v>
       </c>
       <c r="DO56">
         <f t="shared" ca="1" si="301"/>
-        <v>9.7836686021430697E-2</v>
+        <v>0.40827495858545226</v>
       </c>
       <c r="DP56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.36612898502685443</v>
+        <v>0.56180806908590375</v>
       </c>
       <c r="DQ56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.62221397966220859</v>
+        <v>0.18753087894669906</v>
       </c>
       <c r="DR56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.35429935202506069</v>
+        <v>0.40875474932239375</v>
       </c>
       <c r="DS56">
         <f t="shared" ca="1" si="301"/>
-        <v>0.12594588023532372</v>
+        <v>0.4947193596494317</v>
       </c>
       <c r="DT56" s="5"/>
       <c r="DU56" s="5"/>
@@ -29745,7 +29745,7 @@
       </c>
       <c r="EC56">
         <f t="shared" ca="1" si="344"/>
-        <v>0</v>
+        <v>0.99429382735969374</v>
       </c>
       <c r="ED56">
         <f t="shared" ca="1" si="345"/>
@@ -29757,7 +29757,7 @@
       </c>
       <c r="EF56">
         <f t="shared" ca="1" si="347"/>
-        <v>0.92300771166162943</v>
+        <v>0</v>
       </c>
       <c r="EG56">
         <f t="shared" ca="1" si="348"/>
@@ -29849,7 +29849,7 @@
       </c>
       <c r="FH56">
         <f t="shared" ca="1" si="214"/>
-        <v>0</v>
+        <v>1.0060116482185453</v>
       </c>
       <c r="FI56">
         <f t="shared" ca="1" si="215"/>
@@ -29861,7 +29861,7 @@
       </c>
       <c r="FK56">
         <f t="shared" ca="1" si="217"/>
-        <v>2.2181624475225985</v>
+        <v>0</v>
       </c>
       <c r="FL56">
         <f t="shared" ca="1" si="218"/>
@@ -30153,103 +30153,103 @@
       <c r="CT57" s="5"/>
       <c r="CU57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.17223428739525404</v>
+        <v>0.94643203826108857</v>
       </c>
       <c r="CV57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.68839043302254699</v>
+        <v>0.69380604772680021</v>
       </c>
       <c r="CW57">
         <f t="shared" ca="1" si="247"/>
-        <v>3.1767613252422389E-2</v>
+        <v>0.243315249707732</v>
       </c>
       <c r="CX57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.33976461342841013</v>
+        <v>0.50597249715185255</v>
       </c>
       <c r="CY57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.5682553705764114</v>
+        <v>0.63378691727785474</v>
       </c>
       <c r="CZ57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.81343181066743275</v>
+        <v>0.19637697303218327</v>
       </c>
       <c r="DA57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.76731855579148933</v>
+        <v>0.18552341725303456</v>
       </c>
       <c r="DB57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.19391646904109194</v>
+        <v>0.33817931496873044</v>
       </c>
       <c r="DC57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.26356632738336272</v>
+        <v>0.86625355864368014</v>
       </c>
       <c r="DD57">
         <f t="shared" ca="1" si="247"/>
-        <v>3.716440404527166E-2</v>
+        <v>0.60429278457033342</v>
       </c>
       <c r="DE57">
         <f t="shared" ca="1" si="247"/>
-        <v>2.1000482084965078E-2</v>
+        <v>0.8486309766674055</v>
       </c>
       <c r="DF57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.44953203645768858</v>
+        <v>0.84053129262355197</v>
       </c>
       <c r="DG57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.84519239856677719</v>
+        <v>0.91394772538896041</v>
       </c>
       <c r="DH57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.34933255803462182</v>
+        <v>0.35971219778336716</v>
       </c>
       <c r="DI57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.78721819159634121</v>
+        <v>0.70469613206502779</v>
       </c>
       <c r="DJ57">
         <f t="shared" ca="1" si="247"/>
-        <v>0.71008358068295818</v>
+        <v>0.44442855914405233</v>
       </c>
       <c r="DK57">
         <f t="shared" ca="1" si="301"/>
-        <v>7.0863817502922588E-2</v>
+        <v>0.48858633071821678</v>
       </c>
       <c r="DL57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.6374732416617247</v>
+        <v>0.4658328715039346</v>
       </c>
       <c r="DM57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.98510035967810294</v>
+        <v>2.0281529313959101E-2</v>
       </c>
       <c r="DN57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.47859294039409794</v>
+        <v>0.39075399374125797</v>
       </c>
       <c r="DO57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.88238236801325109</v>
+        <v>0.51880897789065106</v>
       </c>
       <c r="DP57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.72308543171142692</v>
+        <v>0.4264204981059212</v>
       </c>
       <c r="DQ57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.35728615945225251</v>
+        <v>0.25608278687514285</v>
       </c>
       <c r="DR57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.19242645022837213</v>
+        <v>0.92769815446085169</v>
       </c>
       <c r="DS57">
         <f t="shared" ca="1" si="301"/>
-        <v>0.82572563331385596</v>
+        <v>0.85827669507482718</v>
       </c>
       <c r="DT57" s="5"/>
       <c r="DU57" s="5"/>
@@ -30257,7 +30257,7 @@
       <c r="DY57" s="5"/>
       <c r="DZ57">
         <f t="shared" ca="1" si="248"/>
-        <v>0</v>
+        <v>0.94643203826108857</v>
       </c>
       <c r="EA57">
         <f t="shared" ca="1" si="342"/>
@@ -30305,7 +30305,7 @@
       </c>
       <c r="EL57">
         <f t="shared" ca="1" si="353"/>
-        <v>0</v>
+        <v>0.91394772538896041</v>
       </c>
       <c r="EM57">
         <f t="shared" ca="1" si="354"/>
@@ -30329,7 +30329,7 @@
       </c>
       <c r="ER57">
         <f t="shared" ca="1" si="358"/>
-        <v>0.98510035967810294</v>
+        <v>0</v>
       </c>
       <c r="ES57">
         <f t="shared" ca="1" si="359"/>
@@ -30349,7 +30349,7 @@
       </c>
       <c r="EW57">
         <f t="shared" ca="1" si="363"/>
-        <v>0</v>
+        <v>0.92769815446085169</v>
       </c>
       <c r="EX57">
         <f t="shared" ca="1" si="364"/>
@@ -30433,7 +30433,7 @@
       </c>
       <c r="FW57">
         <f t="shared" ca="1" si="229"/>
-        <v>2.2718152892482713</v>
+        <v>0</v>
       </c>
       <c r="FX57">
         <f t="shared" ca="1" si="230"/>
@@ -30495,11 +30495,11 @@
       </c>
       <c r="GX57">
         <f t="shared" ref="GX57" ca="1" si="399">MAX(FU57:FV58)</f>
-        <v>3.8289250794615239</v>
+        <v>0</v>
       </c>
       <c r="GZ57">
         <f t="shared" ref="GZ57" ca="1" si="400">MAX(FW57:FX58)</f>
-        <v>2.2718152892482713</v>
+        <v>0.98866243103807494</v>
       </c>
       <c r="HB57">
         <f t="shared" ref="HB57" ca="1" si="401">MAX(FY57:FZ58)</f>
@@ -30768,103 +30768,103 @@
       <c r="CT58" s="5"/>
       <c r="CU58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.92279048786569007</v>
+        <v>6.6834106249023639E-2</v>
       </c>
       <c r="CV58">
         <f t="shared" ca="1" si="247"/>
-        <v>6.0236045254508541E-2</v>
+        <v>3.9557020768905993E-2</v>
       </c>
       <c r="CW58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.89807499274564873</v>
+        <v>0.90515066399023636</v>
       </c>
       <c r="CX58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82033819515360829</v>
+        <v>0.41881114895767291</v>
       </c>
       <c r="CY58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.8220527014062704</v>
+        <v>0.76697995909969674</v>
       </c>
       <c r="CZ58">
         <f t="shared" ca="1" si="247"/>
-        <v>5.1980279162004872E-2</v>
+        <v>0.36474181661202187</v>
       </c>
       <c r="DA58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.57811526060756213</v>
+        <v>0.43738654163707658</v>
       </c>
       <c r="DB58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.81637627313400496</v>
+        <v>0.28761114451170477</v>
       </c>
       <c r="DC58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.83878266529785439</v>
+        <v>0.83022393737811251</v>
       </c>
       <c r="DD58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.25531859807329504</v>
+        <v>0.60669456157723789</v>
       </c>
       <c r="DE58">
         <f t="shared" ca="1" si="247"/>
-        <v>9.9031136417648158E-2</v>
+        <v>0.58635872468601613</v>
       </c>
       <c r="DF58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.12630844959163157</v>
+        <v>0.61124634273778244</v>
       </c>
       <c r="DG58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.58494890130420474</v>
+        <v>0.51482116539799938</v>
       </c>
       <c r="DH58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.56503489305102694</v>
+        <v>0.90265377795646429</v>
       </c>
       <c r="DI58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.43334425317247405</v>
+        <v>0.41709333278540472</v>
       </c>
       <c r="DJ58">
         <f t="shared" ca="1" si="247"/>
-        <v>0.84922772007301139</v>
+        <v>4.1696453659379129E-2</v>
       </c>
       <c r="DK58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.22359661161201172</v>
+        <v>0.709376255059467</v>
       </c>
       <c r="DL58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.9390160892696563</v>
+        <v>0.88580780594419251</v>
       </c>
       <c r="DM58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.32254414837976464</v>
+        <v>0.8333688847158941</v>
       </c>
       <c r="DN58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.57339064423957165</v>
+        <v>0.94292575525335309</v>
       </c>
       <c r="DO58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.664420756529012</v>
+        <v>0.22558032616486901</v>
       </c>
       <c r="DP58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.77818951226456412</v>
+        <v>0.59844375586040921</v>
       </c>
       <c r="DQ58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.382745875131005</v>
+        <v>5.2965863054408535E-2</v>
       </c>
       <c r="DR58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.80596417929313369</v>
+        <v>0.10853883250319174</v>
       </c>
       <c r="DS58">
         <f t="shared" ca="1" si="301"/>
-        <v>0.82154348017916223</v>
+        <v>0.9827737743931283</v>
       </c>
       <c r="DT58" s="5"/>
       <c r="DU58" s="5"/>
@@ -30872,7 +30872,7 @@
       <c r="DY58" s="5"/>
       <c r="DZ58">
         <f t="shared" ca="1" si="248"/>
-        <v>0.92279048786569007</v>
+        <v>0</v>
       </c>
       <c r="EA58">
         <f t="shared" ca="1" si="342"/>
@@ -30880,7 +30880,7 @@
       </c>
       <c r="EB58">
         <f t="shared" ca="1" si="343"/>
-        <v>0</v>
+        <v>0.90515066399023636</v>
       </c>
       <c r="EC58">
         <f t="shared" ca="1" si="344"/>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="EM58">
         <f t="shared" ca="1" si="354"/>
-        <v>0</v>
+        <v>0.90265377795646429</v>
       </c>
       <c r="EN58">
         <f t="shared" ca="1" si="355"/>
@@ -30940,7 +30940,7 @@
       </c>
       <c r="EQ58">
         <f t="shared" ca="1" si="357"/>
-        <v>0.9390160892696563</v>
+        <v>0</v>
       </c>
       <c r="ER58">
         <f t="shared" ca="1" si="358"/>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="ES58">
         <f t="shared" ca="1" si="359"/>
-        <v>0</v>
+        <v>0.94292575525335309</v>
       </c>
       <c r="ET58">
         <f t="shared" ca="1" si="360"/>
@@ -30968,7 +30968,7 @@
       </c>
       <c r="EX58">
         <f t="shared" ca="1" si="364"/>
-        <v>0</v>
+        <v>0.9827737743931283</v>
       </c>
       <c r="EY58" s="5"/>
       <c r="EZ58" s="5"/>
@@ -31044,7 +31044,7 @@
       </c>
       <c r="FV58">
         <f t="shared" ca="1" si="228"/>
-        <v>3.8289250794615239</v>
+        <v>0</v>
       </c>
       <c r="FW58">
         <f t="shared" ca="1" si="229"/>
@@ -31052,7 +31052,7 @@
       </c>
       <c r="FX58">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>0.98866243103807494</v>
       </c>
       <c r="FY58">
         <f t="shared" ca="1" si="231"/>
@@ -31292,103 +31292,103 @@
       <c r="CT59" s="5"/>
       <c r="CU59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.8857433167514781</v>
+        <v>0.96432623838509224</v>
       </c>
       <c r="CV59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.66336748923736943</v>
+        <v>0.17993060243501291</v>
       </c>
       <c r="CW59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.37160669203269348</v>
+        <v>0.69694828694322486</v>
       </c>
       <c r="CX59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.89380912858187678</v>
+        <v>0.12918641801400932</v>
       </c>
       <c r="CY59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.65852457106196338</v>
+        <v>0.39928676999277912</v>
       </c>
       <c r="CZ59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.41705264458292091</v>
+        <v>0.18420814090757798</v>
       </c>
       <c r="DA59">
         <f t="shared" ca="1" si="247"/>
-        <v>1.3218169114865508E-2</v>
+        <v>6.3801461504700119E-2</v>
       </c>
       <c r="DB59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.39637138224915125</v>
+        <v>0.35937462438721324</v>
       </c>
       <c r="DC59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.82974027436152786</v>
+        <v>0.61103335640016365</v>
       </c>
       <c r="DD59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.33286707842900209</v>
+        <v>0.36883588679968005</v>
       </c>
       <c r="DE59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.8453083866603438</v>
+        <v>0.62352854044172168</v>
       </c>
       <c r="DF59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.27902683184509602</v>
+        <v>0.88756760232854937</v>
       </c>
       <c r="DG59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.26307692376187064</v>
+        <v>0.85603880193034221</v>
       </c>
       <c r="DH59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.41711887292761596</v>
+        <v>0.88294411959507479</v>
       </c>
       <c r="DI59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.35990526106317733</v>
+        <v>0.20525883234089448</v>
       </c>
       <c r="DJ59">
         <f t="shared" ca="1" si="247"/>
-        <v>0.79012489153982635</v>
+        <v>0.65916793231290205</v>
       </c>
       <c r="DK59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.78756831458177023</v>
+        <v>8.3804960437321441E-3</v>
       </c>
       <c r="DL59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.22912606197112806</v>
+        <v>0.57918326395823649</v>
       </c>
       <c r="DM59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.58141377691782992</v>
+        <v>0.5885542792759807</v>
       </c>
       <c r="DN59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.26228586765194783</v>
+        <v>0.70100337817076108</v>
       </c>
       <c r="DO59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.20646024602205626</v>
+        <v>0.9578433011836528</v>
       </c>
       <c r="DP59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.56246659583245417</v>
+        <v>0.15635487824946925</v>
       </c>
       <c r="DQ59">
         <f t="shared" ca="1" si="301"/>
-        <v>3.924860012049558E-2</v>
+        <v>0.35280694187767614</v>
       </c>
       <c r="DR59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.67774980169247867</v>
+        <v>0.31522018789603379</v>
       </c>
       <c r="DS59">
         <f t="shared" ca="1" si="301"/>
-        <v>0.38995424938852585</v>
+        <v>1.2684661089227278E-2</v>
       </c>
       <c r="DT59" s="5"/>
       <c r="DU59" s="5"/>
@@ -31396,7 +31396,7 @@
       <c r="DY59" s="5"/>
       <c r="DZ59">
         <f t="shared" ca="1" si="248"/>
-        <v>0</v>
+        <v>0.96432623838509224</v>
       </c>
       <c r="EA59">
         <f t="shared" ca="1" si="342"/>
@@ -31476,7 +31476,7 @@
       </c>
       <c r="ET59">
         <f t="shared" ca="1" si="360"/>
-        <v>0</v>
+        <v>0.9578433011836528</v>
       </c>
       <c r="EU59">
         <f t="shared" ca="1" si="361"/>
@@ -31907,103 +31907,103 @@
       <c r="CT60" s="5"/>
       <c r="CU60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.69988808807188441</v>
+        <v>0.95345415554943347</v>
       </c>
       <c r="CV60">
         <f t="shared" ca="1" si="247"/>
-        <v>9.8233823368795492E-2</v>
+        <v>0.88510201968235602</v>
       </c>
       <c r="CW60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.31363668905103614</v>
+        <v>0.62344956911056448</v>
       </c>
       <c r="CX60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.59868589476022949</v>
+        <v>0.37802749815580416</v>
       </c>
       <c r="CY60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.66572293077852385</v>
+        <v>0.11115996442215392</v>
       </c>
       <c r="CZ60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.60970190301584559</v>
+        <v>0.57949813778695014</v>
       </c>
       <c r="DA60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.73306410993508475</v>
+        <v>0.59791676902043112</v>
       </c>
       <c r="DB60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.76419632033835305</v>
+        <v>0.31520820466637967</v>
       </c>
       <c r="DC60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.29615225129016953</v>
+        <v>0.57479383031242048</v>
       </c>
       <c r="DD60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.28710228684948591</v>
+        <v>0.58563613690983729</v>
       </c>
       <c r="DE60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.44994035977025637</v>
+        <v>0.89076051571249126</v>
       </c>
       <c r="DF60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.54331214290405572</v>
+        <v>0.73205082975638736</v>
       </c>
       <c r="DG60">
         <f t="shared" ca="1" si="247"/>
-        <v>2.6914363095973504E-2</v>
+        <v>0.40797856025212231</v>
       </c>
       <c r="DH60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.36080635916495329</v>
+        <v>0.70282857917041153</v>
       </c>
       <c r="DI60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.54210104463617581</v>
+        <v>0.56212491728299252</v>
       </c>
       <c r="DJ60">
         <f t="shared" ca="1" si="247"/>
-        <v>0.6777142133104489</v>
+        <v>0.29010815040112714</v>
       </c>
       <c r="DK60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.62878859514259933</v>
+        <v>0.14659209282583574</v>
       </c>
       <c r="DL60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.20903135477414225</v>
+        <v>0.18463472680099868</v>
       </c>
       <c r="DM60">
         <f t="shared" ca="1" si="301"/>
-        <v>8.0411292324958472E-2</v>
+        <v>0.62705731507575535</v>
       </c>
       <c r="DN60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.77315128556772073</v>
+        <v>0.18470966839588554</v>
       </c>
       <c r="DO60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.745005570613548</v>
+        <v>0.44581725415079498</v>
       </c>
       <c r="DP60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.12685153527786996</v>
+        <v>7.6986778939510225E-2</v>
       </c>
       <c r="DQ60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.9887847758787498</v>
+        <v>6.8378713367459376E-2</v>
       </c>
       <c r="DR60">
         <f t="shared" ca="1" si="301"/>
-        <v>0.55770030924067149</v>
+        <v>0.56122259661464746</v>
       </c>
       <c r="DS60">
         <f t="shared" ca="1" si="301"/>
-        <v>3.025693159133569E-2</v>
+        <v>0.82117564536068932</v>
       </c>
       <c r="DT60" s="5"/>
       <c r="DU60" s="5"/>
@@ -32011,7 +32011,7 @@
       <c r="DY60" s="5"/>
       <c r="DZ60">
         <f t="shared" ca="1" si="248"/>
-        <v>0</v>
+        <v>0.95345415554943347</v>
       </c>
       <c r="EA60">
         <f t="shared" ca="1" si="342"/>
@@ -32099,7 +32099,7 @@
       </c>
       <c r="EV60">
         <f t="shared" ca="1" si="362"/>
-        <v>0.9887847758787498</v>
+        <v>0</v>
       </c>
       <c r="EW60">
         <f t="shared" ca="1" si="363"/>
@@ -32601,7 +32601,7 @@
       </c>
       <c r="FA64" s="6">
         <f ca="1">COUNTIF(DZ37:EX60,0)</f>
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="156:158" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -32610,7 +32610,7 @@
       </c>
       <c r="FA65" s="9">
         <f ca="1">FA64/FA63</f>
-        <v>0.80769230769230771</v>
+        <v>0.79289940828402372</v>
       </c>
       <c r="FB65" s="9"/>
     </row>
